--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494EDF8-0643-4C33-8D1F-3841718E4DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C890BE39-C23F-495B-BDCE-C21B5EE6980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
   <si>
     <t>Material</t>
   </si>
@@ -436,30 +436,9 @@
     <t>La Captura</t>
   </si>
   <si>
-    <t>Juramento por la Libertad</t>
-  </si>
-  <si>
-    <t>Espina de Hierro</t>
-  </si>
-  <si>
-    <t>Agitador del Relámpago</t>
-  </si>
-  <si>
-    <t>Herrumbre</t>
-  </si>
-  <si>
-    <t>Médula de la Serpiente Marina</t>
-  </si>
-  <si>
     <t>Último Acorde</t>
   </si>
   <si>
-    <t>Aquila Favonia</t>
-  </si>
-  <si>
-    <t>Prototipo Rencor</t>
-  </si>
-  <si>
     <t>Arco de Amos</t>
   </si>
   <si>
@@ -469,26 +448,72 @@
     <t>Arco del Sacrificio</t>
   </si>
   <si>
-    <t>Elegía del Fin</t>
-  </si>
-  <si>
-    <t>Oda a las Flores de Viento</t>
-  </si>
-  <si>
     <t>Rugido de León</t>
+  </si>
+  <si>
+    <t>Juramento por la Libertad
+o
+Espina de Hierro</t>
+  </si>
+  <si>
+    <t>Agitador del Relámpago
+o
+Herrumbre</t>
+  </si>
+  <si>
+    <t>Médula de la Serpiente
+Marina</t>
+  </si>
+  <si>
+    <t>Aquila Favonia
+o
+Prototipo Rencor</t>
+  </si>
+  <si>
+    <t>Elegía del Fin
+o
+Último Acorde
+o
+Oda a las Flores de Viento</t>
+  </si>
+  <si>
+    <t>Personaje</t>
+  </si>
+  <si>
+    <t>Arma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,16 +536,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -531,6 +641,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}" name="Tabla1" displayName="Tabla1" ref="B2:C223" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B2:C223" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AE56AA23-0831-4871-97DA-CCAFFAC51AB9}" name="Material" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AADF59F2-6477-4DF1-B64E-C9F196F7D95D}" name="Cantidad" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,2242 +951,2454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706AD05-E9D7-4C6A-B33A-AF035FA29362}">
-  <dimension ref="B3:E223"/>
+  <dimension ref="B2:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>804600+37500+(120000+260000+450000)*3</f>
         <v>3332100</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>192</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f>422200+804600+30000+(37500+120000+260000+450000)*3</f>
         <v>3859300</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="E13" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>32</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <f>804600+(37500+120000+260000+450000)*3</f>
         <v>3407100</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="E24" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>192</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>20</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>60</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="E34" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>450</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>9</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>168</v>
       </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>46</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <f>18+18</f>
         <v>36</v>
       </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>9</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="D47" s="5"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <f>422200+804600+30000*2+(37500+120000+260000+450000)*3</f>
         <v>3889300</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="E49" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>6</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>32</v>
       </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>105</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="D54" s="5"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>12</v>
       </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="E60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="D61" s="5"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>6</v>
       </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="D62" s="5"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>9</v>
       </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>6</v>
       </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="D64" s="5"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>44</v>
       </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="D65" s="5"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>155</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="D66" s="5"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <f>30+66</f>
         <v>96</v>
       </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="D67" s="5"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="D68" s="5"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>12</v>
       </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="D71" s="5"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <f>319000+422200+804600+17500+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4330800</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="E72" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>9</v>
       </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="D74" s="5"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>6</v>
       </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="D75" s="5"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>40</v>
       </c>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="D76" s="5"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>135</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="D77" s="5"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <f>18+3+19*3</f>
         <v>78</v>
       </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="D78" s="5"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="D79" s="5"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <f>2+19*3</f>
         <v>59</v>
       </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="D81" s="5"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>12</v>
       </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="E83" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>450</v>
       </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>9</v>
       </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>9</v>
       </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="D87" s="5"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>6</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="D88" s="5"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>168</v>
       </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="D89" s="5"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="D90" s="5"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="D91" s="5"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="D92" s="5"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>9</v>
       </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="D95" s="5"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="D96" s="5"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="D97" s="5"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <f>319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4365800</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="E98" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="D99" s="5"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>9</v>
       </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="D100" s="5"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>6</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" t="s">
+      <c r="D101" s="5"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="1">
+        <v>40</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102">
-        <v>40</v>
-      </c>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103">
-        <v>135</v>
-      </c>
-      <c r="D103" s="1"/>
-      <c r="E103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="D103" s="5"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <f>18+22*3</f>
         <v>84</v>
       </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="D104" s="5"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="D105" s="5"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="D106" s="5"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="D107" s="5"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>12</v>
       </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="D108" s="5"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <f>319000+422200+804600+(30000+37500+120000+260000+450000)*3</f>
         <v>4238300</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="E109" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="D110" s="5"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>9</v>
       </c>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="D111" s="5"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>6</v>
       </c>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="D112" s="5"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>135</v>
       </c>
-      <c r="D113" s="1"/>
-      <c r="E113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="D113" s="5"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>40</v>
       </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="D114" s="5"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <f>18+15*3</f>
         <v>63</v>
       </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+      <c r="D115" s="5"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+      <c r="D116" s="5"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <f>15*3</f>
         <v>45</v>
       </c>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+      <c r="D117" s="5"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+      <c r="D118" s="5"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>12</v>
       </c>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+      <c r="D119" s="5"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+      <c r="E120" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="D121" s="5"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>6</v>
       </c>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+      <c r="D122" s="5"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>9</v>
       </c>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="D123" s="5"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>6</v>
       </c>
-      <c r="D124" s="1"/>
-      <c r="E124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+      <c r="D124" s="5"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>155</v>
       </c>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="D125" s="5"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>44</v>
       </c>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="D126" s="5"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+      <c r="D127" s="5"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="D128" s="5"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+      <c r="D129" s="5"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="D130" s="5"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>12</v>
       </c>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="D131" s="5"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="E132" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>450</v>
       </c>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="D133" s="5"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+      <c r="D134" s="5"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>9</v>
       </c>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="D135" s="5"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>9</v>
       </c>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="D136" s="5"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="1"/>
-      <c r="E137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="D137" s="5"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>168</v>
       </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+      <c r="D138" s="5"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>46</v>
       </c>
-      <c r="D139" s="1"/>
-      <c r="E139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="D139" s="5"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="D140" s="5"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="D141" s="5"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="D142" s="5"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+      <c r="D143" s="5"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="D144" s="5"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="D145" s="5"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>12</v>
       </c>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="D146" s="5"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="E147" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>450</v>
       </c>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="D148" s="5"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+      <c r="D149" s="5"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>9</v>
       </c>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+      <c r="D150" s="5"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>9</v>
       </c>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="D151" s="5"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>6</v>
       </c>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="D152" s="5"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>168</v>
       </c>
-      <c r="D153" s="1"/>
-      <c r="E153" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+      <c r="D153" s="5"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>46</v>
       </c>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+      <c r="D154" s="5"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="D155" s="5"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+      <c r="D156" s="5"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="D157" s="5"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+      <c r="D158" s="5"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+      <c r="D159" s="5"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+      <c r="D160" s="5"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>12</v>
       </c>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+      <c r="D161" s="5"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+      <c r="E162" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>450</v>
       </c>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+      <c r="D163" s="5"/>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>1</v>
       </c>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+      <c r="D164" s="5"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>9</v>
       </c>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+      <c r="D165" s="5"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>9</v>
       </c>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+      <c r="D166" s="5"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>6</v>
       </c>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+      <c r="D167" s="5"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>168</v>
       </c>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+      <c r="D168" s="5"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>46</v>
       </c>
-      <c r="D169" s="1"/>
-      <c r="E169" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="D169" s="5"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+      <c r="D170" s="5"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+      <c r="D171" s="5"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="D172" s="5"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+      <c r="D173" s="5"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="D174" s="5"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="D175" s="5"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>12</v>
       </c>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+      <c r="D176" s="5"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <f>319000+422200+804600+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4313300</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+      <c r="E177" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+      <c r="D178" s="5"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>9</v>
       </c>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+      <c r="D179" s="5"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>6</v>
       </c>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+      <c r="D180" s="5"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>135</v>
       </c>
-      <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+      <c r="D181" s="5"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>40</v>
       </c>
-      <c r="D182" s="1"/>
-      <c r="E182" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+      <c r="D182" s="5"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <f>18+19*3</f>
         <v>75</v>
       </c>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+      <c r="D183" s="5"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+      <c r="D184" s="5"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+      <c r="D185" s="5"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+      <c r="D186" s="5"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>12</v>
       </c>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+      <c r="D187" s="5"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <f>422200+804600+(120000+260000+450000)*3</f>
         <v>3716800</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+      <c r="E188" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+      <c r="D189" s="5"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>6</v>
       </c>
-      <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+      <c r="D190" s="5"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>6</v>
       </c>
-      <c r="D191" s="1"/>
-      <c r="E191" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+      <c r="D191" s="5"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>105</v>
       </c>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+      <c r="D192" s="5"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>32</v>
       </c>
-      <c r="D193" s="1"/>
-      <c r="E193" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+      <c r="D193" s="5"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+      <c r="D194" s="5"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+      <c r="D195" s="5"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>12</v>
       </c>
-      <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+      <c r="D196" s="5"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <f>30000+(37500+120000+260000+450000+700000)*3+25000+30000+37500*2+(120000+260000+450000+700000)*3+(25000+30000+37500+120000+260000+450000+700000)*3</f>
         <v>14320000</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+      <c r="E197" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D198" s="1"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+      <c r="D198" s="5"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <f>6+9*3+4+6+9</f>
         <v>52</v>
       </c>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+      <c r="D199" s="5"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <f>9*3+9</f>
         <v>36</v>
       </c>
-      <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+      <c r="D200" s="5"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <f>20*3+20</f>
         <v>80</v>
       </c>
-      <c r="D201" s="1"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+      <c r="D201" s="5"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <f>31*3+31</f>
         <v>124</v>
       </c>
-      <c r="D202" s="1"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="D202" s="5"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <f>6*3+6</f>
         <v>24</v>
       </c>
-      <c r="D203" s="1"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+      <c r="D203" s="5"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <f>12*3+12</f>
         <v>48</v>
       </c>
-      <c r="D204" s="1"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+      <c r="D204" s="5"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <f>18+6</f>
         <v>24</v>
       </c>
-      <c r="D205" s="1"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+      <c r="D205" s="5"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D206" s="1"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
+      <c r="D206" s="5"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D207" s="1"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+      <c r="D207" s="5"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D208" s="1"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+      <c r="D208" s="5"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <f>20+20</f>
         <v>40</v>
       </c>
-      <c r="D209" s="1"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+      <c r="D209" s="5"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D210" s="1"/>
-      <c r="E210" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+      <c r="D210" s="5"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <f>12+12</f>
         <v>24</v>
       </c>
-      <c r="D211" s="1"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+      <c r="D211" s="5"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <f>31+31</f>
         <v>62</v>
       </c>
-      <c r="D212" s="1"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+      <c r="D212" s="5"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
+      <c r="D213" s="5"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D214" s="1"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+      <c r="D214" s="5"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D215" s="1"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+      <c r="D215" s="5"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+      <c r="D216" s="5"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <f>20*3</f>
         <v>60</v>
       </c>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+      <c r="D217" s="5"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+      <c r="D218" s="5"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="D219" s="1"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
+      <c r="D219" s="5"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+      <c r="D220" s="5"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <f>31*3</f>
         <v>93</v>
       </c>
-      <c r="D221" s="1"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
+      <c r="D221" s="5"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>18</v>
       </c>
-      <c r="D222" s="1"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+      <c r="D222" s="5"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>9</v>
       </c>
-      <c r="D223" s="1"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D197:D223"/>
-    <mergeCell ref="D162:D176"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="D49:D59"/>
+  <mergeCells count="34">
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E197:E223"/>
+    <mergeCell ref="E120:E131"/>
+    <mergeCell ref="E132:E146"/>
+    <mergeCell ref="E147:E161"/>
+    <mergeCell ref="E162:E176"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="E34:E48"/>
+    <mergeCell ref="E49:E59"/>
     <mergeCell ref="D60:D71"/>
     <mergeCell ref="D147:D161"/>
     <mergeCell ref="D83:D97"/>
@@ -3073,8 +3406,22 @@
     <mergeCell ref="D109:D119"/>
     <mergeCell ref="D120:D131"/>
     <mergeCell ref="D132:D146"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="D197:D223"/>
+    <mergeCell ref="D162:D176"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="D72:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C890BE39-C23F-495B-BDCE-C21B5EE6980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80856660-D0D0-41C8-AC3F-4D0ABAD3C45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="229">
   <si>
     <t>Material</t>
   </si>
@@ -79,16 +79,10 @@
     <t>Lucetta</t>
   </si>
   <si>
-    <t>Insignia de oficial</t>
-  </si>
-  <si>
     <t>Guía de la resistencia</t>
   </si>
   <si>
     <t>Filosofía de la resistencia</t>
-  </si>
-  <si>
-    <t>Insignia de sargento</t>
   </si>
   <si>
     <t>Pluma de Stormterror</t>
@@ -481,6 +475,275 @@
   </si>
   <si>
     <t>Arma</t>
+  </si>
+  <si>
+    <t>Mineral de refinamiento místico</t>
+  </si>
+  <si>
+    <t>Ideales de Diente de León</t>
+  </si>
+  <si>
+    <t>Caldera del caos</t>
+  </si>
+  <si>
+    <t>Espada de
+Sacrificio</t>
+  </si>
+  <si>
+    <t>Nostalgia del lobo boreal</t>
+  </si>
+  <si>
+    <t>Brotes de líneas ley</t>
+  </si>
+  <si>
+    <t>Hoja Afilada
+Celestial</t>
+  </si>
+  <si>
+    <t>Grano de siderita oscura</t>
+  </si>
+  <si>
+    <t>Lámina de siderita oscura</t>
+  </si>
+  <si>
+    <t>Fragmento de siderita oscura</t>
+  </si>
+  <si>
+    <t>Trozo de siderita oscura</t>
+  </si>
+  <si>
+    <t>Rama seca de líneas ley</t>
+  </si>
+  <si>
+    <t>Hojas secas de líneas ley</t>
+  </si>
+  <si>
+    <t>Máscara fantasmagórica</t>
+  </si>
+  <si>
+    <t>Ojo del caos</t>
+  </si>
+  <si>
+    <t>Shogun
+Raiden</t>
+  </si>
+  <si>
+    <t>Luz del
+Segador</t>
+  </si>
+  <si>
+    <t>Alas
+Celestiales</t>
+  </si>
+  <si>
+    <t>Máscara del teniente maligno</t>
+  </si>
+  <si>
+    <t>Máscara del mordisco de tigre</t>
+  </si>
+  <si>
+    <t>Máscara del cuerno</t>
+  </si>
+  <si>
+    <t>Engranaje del caos</t>
+  </si>
+  <si>
+    <t>Eje del caos</t>
+  </si>
+  <si>
+    <t>Caparazón espectral</t>
+  </si>
+  <si>
+    <t>Corazón espectral</t>
+  </si>
+  <si>
+    <t>Núcleo espectral</t>
+  </si>
+  <si>
+    <t>Grilletes de Diente de León</t>
+  </si>
+  <si>
+    <t>Cadena de Diente de León</t>
+  </si>
+  <si>
+    <t>Esposas de Diente de León</t>
+  </si>
+  <si>
+    <t>Dispositivo del caos</t>
+  </si>
+  <si>
+    <t>Circuito del caos</t>
+  </si>
+  <si>
+    <t>Pergamino guía</t>
+  </si>
+  <si>
+    <t>Juramento por la Libertad</t>
+  </si>
+  <si>
+    <t>Fragmento de hueso frágil</t>
+  </si>
+  <si>
+    <t>Fragmento de hueso fosilizado</t>
+  </si>
+  <si>
+    <t>Fragmento de hueso sólido</t>
+  </si>
+  <si>
+    <t>Espina de Hierro</t>
+  </si>
+  <si>
+    <t>Sabiduría de Narukami</t>
+  </si>
+  <si>
+    <t>Júbilo de Narukami</t>
+  </si>
+  <si>
+    <t>Afecto de Narukami</t>
+  </si>
+  <si>
+    <t>Valentía de Narukami</t>
+  </si>
+  <si>
+    <t>Prisma oscuro</t>
+  </si>
+  <si>
+    <t>Prisma de cristal</t>
+  </si>
+  <si>
+    <t>Prisma polarizador</t>
+  </si>
+  <si>
+    <t>Flecha robusta</t>
+  </si>
+  <si>
+    <t>Agitador del Relámpago</t>
+  </si>
+  <si>
+    <t>Herrumbre</t>
+  </si>
+  <si>
+    <t>Piedra reluciente de Guyun</t>
+  </si>
+  <si>
+    <t>Reliquia de Guyun</t>
+  </si>
+  <si>
+    <t>Cuerpo divino de Guyun</t>
+  </si>
+  <si>
+    <t>Daga del agente</t>
+  </si>
+  <si>
+    <t>Daga larga del inspector</t>
+  </si>
+  <si>
+    <t>Médula de la Serpiente
+Marina
+o
+Rey del Mal</t>
+  </si>
+  <si>
+    <t>Rey del Mal</t>
+  </si>
+  <si>
+    <t>Rama de coral del mar distante</t>
+  </si>
+  <si>
+    <t>Rama enjoyada del mar distante</t>
+  </si>
+  <si>
+    <t>Rama de jade del mar distante</t>
+  </si>
+  <si>
+    <t>Rama dorada del mar distante</t>
+  </si>
+  <si>
+    <t>Garra oculta</t>
+  </si>
+  <si>
+    <t>Garra afilada oculta</t>
+  </si>
+  <si>
+    <t>Garra fantasmal oculta</t>
+  </si>
+  <si>
+    <t>Guardamano viejo</t>
+  </si>
+  <si>
+    <t>Fragmento de azulejo de Decarabian</t>
+  </si>
+  <si>
+    <t>Escombro de la ciudad de Decarabian</t>
+  </si>
+  <si>
+    <t>Fragmento de epopeya de Decarabian</t>
+  </si>
+  <si>
+    <t>Fragmento de sueño de Decarabian</t>
+  </si>
+  <si>
+    <t>Cuerno pesado</t>
+  </si>
+  <si>
+    <t>Cuerno de bronce negro</t>
+  </si>
+  <si>
+    <t>Cuerno con cristal negro</t>
+  </si>
+  <si>
+    <t>Aquila Favonia</t>
+  </si>
+  <si>
+    <t>Prototipo Rencor</t>
+  </si>
+  <si>
+    <t>Perdigones de mercurio</t>
+  </si>
+  <si>
+    <t>Hierba brumosa</t>
+  </si>
+  <si>
+    <t>Perdigones de oro</t>
+  </si>
+  <si>
+    <t>Perdigones primordiales</t>
+  </si>
+  <si>
+    <t>Estambre de hierba brumosa</t>
+  </si>
+  <si>
+    <t>Insignia del recluta</t>
+  </si>
+  <si>
+    <t>Insignia del sargento</t>
+  </si>
+  <si>
+    <t>Insignia del oficial</t>
+  </si>
+  <si>
+    <t>Diente roto de lobo boreal</t>
+  </si>
+  <si>
+    <t>Colmillo roto de lobo boreal</t>
+  </si>
+  <si>
+    <t>Sinfonía de los
+Merodeadores</t>
+  </si>
+  <si>
+    <t>Arco del
+Sacrificio</t>
+  </si>
+  <si>
+    <t>Diente de leche de lobo boreal</t>
+  </si>
+  <si>
+    <t>Elegía del Fin</t>
+  </si>
+  <si>
+    <t>Oda a las Flores
+de Viento</t>
   </si>
 </sst>
 </file>
@@ -539,18 +802,18 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,7 +837,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -629,6 +891,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -644,11 +907,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}" name="Tabla1" displayName="Tabla1" ref="B2:C223" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B2:C223" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}" name="Tabla1" displayName="Tabla1" ref="B2:C434" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B2:C434" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AE56AA23-0831-4871-97DA-CCAFFAC51AB9}" name="Material" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{AADF59F2-6477-4DF1-B64E-C9F196F7D95D}" name="Cantidad" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AE56AA23-0831-4871-97DA-CCAFFAC51AB9}" name="Material" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AADF59F2-6477-4DF1-B64E-C9F196F7D95D}" name="Cantidad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706AD05-E9D7-4C6A-B33A-AF035FA29362}">
-  <dimension ref="B2:E223"/>
+  <dimension ref="B2:E434"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -962,23 +1225,23 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>144</v>
+      <c r="D2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -989,11 +1252,11 @@
         <f>804600+37500+(120000+260000+450000)*3</f>
         <v>3332100</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>127</v>
+      <c r="E3" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -1003,8 +1266,8 @@
       <c r="C4" s="1">
         <v>192</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1013,8 +1276,8 @@
       <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1023,8 +1286,8 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1033,61 +1296,61 @@
       <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1">
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -1097,11 +1360,11 @@
         <f>422200+804600+30000+(37500+120000+260000+450000)*3</f>
         <v>3859300</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>128</v>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1112,102 +1375,102 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>32</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -1217,11 +1480,11 @@
         <f>804600+(37500+120000+260000+450000)*3</f>
         <v>3407100</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>126</v>
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,8 +1494,8 @@
       <c r="C25" s="1">
         <v>192</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
@@ -1241,8 +1504,8 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
@@ -1251,72 +1514,72 @@
       <c r="C27" s="1">
         <v>20</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>60</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -1326,11 +1589,11 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>129</v>
+      <c r="D34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,143 +1603,143 @@
       <c r="C35" s="1">
         <v>450</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <v>9</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
         <v>168</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <v>46</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1">
         <f>18+18</f>
         <v>36</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1">
         <v>9</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
@@ -1486,11 +1749,11 @@
         <f>422200+804600+30000*2+(37500+120000+260000+450000)*3</f>
         <v>3889300</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>130</v>
+      <c r="D49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,103 +1764,103 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52" s="1">
         <v>6</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C53" s="1">
         <v>32</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" s="1">
         <v>105</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C56" s="1">
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" s="1">
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C58" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="1">
         <v>12</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
@@ -1607,11 +1870,11 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>131</v>
+      <c r="D60" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,112 +1885,112 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1">
         <v>44</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C66" s="1">
         <v>155</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
         <f>30+66</f>
         <v>96</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C69" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="2"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C70" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="2"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71" s="1">
         <v>12</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="2"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
@@ -1737,11 +2000,11 @@
         <f>319000+422200+804600+17500+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4330800</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>132</v>
+      <c r="D72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,18 +2015,18 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="2"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" s="1">
         <v>9</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="2"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
@@ -1772,8 +2035,8 @@
       <c r="C75" s="1">
         <v>6</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="2"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
@@ -1782,72 +2045,72 @@
       <c r="C76" s="1">
         <v>40</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="2"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="1">
         <v>135</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="2"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C78" s="1">
         <f>18+3+19*3</f>
         <v>78</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="2"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="2"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" s="1">
         <f>2+19*3</f>
         <v>59</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="2"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C81" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="2"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C82" s="1">
         <v>12</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="2"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
@@ -1857,11 +2120,11 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>138</v>
+      <c r="D83" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1871,144 +2134,144 @@
       <c r="C84" s="1">
         <v>450</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="2"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="2"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C86" s="1">
         <v>9</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="2"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C87" s="1">
         <v>9</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="2"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C88" s="1">
         <v>6</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="2"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C89" s="1">
         <v>168</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="2"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C90" s="1">
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="2"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C91" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="2"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="2"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="2"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94" s="1">
         <v>9</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="2"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C95" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="2"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C96" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="2"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="2"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
@@ -2018,11 +2281,11 @@
         <f>319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4365800</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>139</v>
+      <c r="D98" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,18 +2296,18 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="2"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C100" s="1">
         <v>9</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="2"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
@@ -2053,82 +2316,82 @@
       <c r="C101" s="1">
         <v>6</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="2"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C102" s="1">
         <v>40</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="2"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C103" s="1">
         <v>135</v>
       </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="2"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1">
         <f>18+22*3</f>
         <v>84</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="2"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C105" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="2"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C106" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="2"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C107" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="2"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C108" s="1">
         <v>12</v>
       </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="2"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
@@ -2138,11 +2401,11 @@
         <f>319000+422200+804600+(30000+37500+120000+260000+450000)*3</f>
         <v>4238300</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>140</v>
+      <c r="D109" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2153,102 +2416,102 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="2"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C111" s="1">
         <v>9</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="2"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C112" s="1">
         <v>6</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="2"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C113" s="1">
         <v>135</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="2"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="4"/>
     </row>
     <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C114" s="1">
         <v>40</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="2"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C115" s="1">
         <f>18+15*3</f>
         <v>63</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="2"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C116" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="2"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C117" s="1">
         <f>15*3</f>
         <v>45</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="2"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C118" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="2"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C119" s="1">
         <v>12</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="2"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
@@ -2258,11 +2521,11 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>133</v>
+      <c r="D120" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,38 +2536,38 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="2"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C122" s="1">
         <v>6</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="2"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C123" s="1">
         <v>9</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="2"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="4"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C124" s="1">
         <v>6</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="2"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
@@ -2313,72 +2576,72 @@
       <c r="C125" s="1">
         <v>155</v>
       </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="2"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C126" s="1">
         <v>44</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="2"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="4"/>
     </row>
     <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C127" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="2"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="4"/>
     </row>
     <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C128" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="2"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="4"/>
     </row>
     <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C129" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="2"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="4"/>
     </row>
     <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C130" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="2"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C131" s="1">
         <v>12</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="2"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="4"/>
     </row>
     <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
@@ -2388,11 +2651,11 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>141</v>
+      <c r="D132" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2402,144 +2665,144 @@
       <c r="C133" s="1">
         <v>450</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="2"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="4"/>
     </row>
     <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="2"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="4"/>
     </row>
     <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C135" s="1">
         <v>9</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="2"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="4"/>
     </row>
     <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C136" s="1">
         <v>9</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="2"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="4"/>
     </row>
     <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="2"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="4"/>
     </row>
     <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C138" s="1">
         <v>168</v>
       </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="2"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C139" s="1">
         <v>46</v>
       </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="2"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="4"/>
     </row>
     <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C140" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="2"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="4"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C141" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="2"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C142" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="2"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C143" s="1">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="2"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="2"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="2"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C146" s="1">
         <v>12</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="2"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
@@ -2549,11 +2812,11 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>134</v>
+      <c r="D147" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,144 +2826,144 @@
       <c r="C148" s="1">
         <v>450</v>
       </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="2"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="2"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C150" s="1">
         <v>9</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="2"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C151" s="1">
         <v>9</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="2"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
       </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="2"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C153" s="1">
         <v>168</v>
       </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="2"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C154" s="1">
         <v>46</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C155" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="2"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C156" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="2"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="4"/>
     </row>
     <row r="157" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C157" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="2"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="4"/>
     </row>
     <row r="158" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C158" s="1">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="2"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="4"/>
     </row>
     <row r="159" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C159" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="2"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C160" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="2"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C161" s="1">
         <v>12</v>
       </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="2"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="4"/>
     </row>
     <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
@@ -2710,11 +2973,11 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>135</v>
+      <c r="D162" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2724,144 +2987,144 @@
       <c r="C163" s="1">
         <v>450</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="2"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="4"/>
     </row>
     <row r="164" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="2"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C165" s="1">
         <v>9</v>
       </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="2"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="4"/>
     </row>
     <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C166" s="1">
         <v>9</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="2"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="4"/>
     </row>
     <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C167" s="1">
         <v>6</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="2"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C168" s="1">
         <v>168</v>
       </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="2"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="4"/>
     </row>
     <row r="169" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C169" s="1">
         <v>46</v>
       </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="2"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="4"/>
     </row>
     <row r="170" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C170" s="1">
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="2"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="4"/>
     </row>
     <row r="171" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C171" s="1">
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="2"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="4"/>
     </row>
     <row r="172" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C172" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="2"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C173" s="1">
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="2"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="1">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="2"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C175" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="2"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="4"/>
     </row>
     <row r="176" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C176" s="1">
         <v>12</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="2"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="4"/>
     </row>
     <row r="177" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
@@ -2871,11 +3134,11 @@
         <f>319000+422200+804600+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4313300</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>136</v>
+      <c r="D177" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2886,102 +3149,102 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="2"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="4"/>
     </row>
     <row r="179" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C179" s="1">
         <v>9</v>
       </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="2"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="4"/>
     </row>
     <row r="180" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C180" s="1">
         <v>6</v>
       </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="2"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="4"/>
     </row>
     <row r="181" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C181" s="1">
         <v>135</v>
       </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="2"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="4"/>
     </row>
     <row r="182" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C182" s="1">
         <v>40</v>
       </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="2"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="4"/>
     </row>
     <row r="183" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C183" s="1">
         <f>18+19*3</f>
         <v>75</v>
       </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="2"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="4"/>
     </row>
     <row r="184" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C184" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="2"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="4"/>
     </row>
     <row r="185" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C185" s="1">
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="2"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="4"/>
     </row>
     <row r="186" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C186" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="2"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="4"/>
     </row>
     <row r="187" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C187" s="1">
         <v>12</v>
       </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="2"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="4"/>
     </row>
     <row r="188" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
@@ -2991,11 +3254,11 @@
         <f>422200+804600+(120000+260000+450000)*3</f>
         <v>3716800</v>
       </c>
-      <c r="D188" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>142</v>
+      <c r="D188" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3006,80 +3269,80 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="2"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="4"/>
     </row>
     <row r="190" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C190" s="1">
         <v>6</v>
       </c>
-      <c r="D190" s="5"/>
-      <c r="E190" s="2"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="4"/>
     </row>
     <row r="191" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C191" s="1">
         <v>6</v>
       </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="2"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="4"/>
     </row>
     <row r="192" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C192" s="1">
         <v>105</v>
       </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="2"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="4"/>
     </row>
     <row r="193" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C193" s="1">
         <v>32</v>
       </c>
-      <c r="D193" s="5"/>
-      <c r="E193" s="2"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="4"/>
     </row>
     <row r="194" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C194" s="1">
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D194" s="5"/>
-      <c r="E194" s="2"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="4"/>
     </row>
     <row r="195" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C195" s="1">
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D195" s="5"/>
-      <c r="E195" s="2"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="4"/>
     </row>
     <row r="196" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C196" s="1">
         <v>12</v>
       </c>
-      <c r="D196" s="5"/>
-      <c r="E196" s="2"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="4"/>
     </row>
     <row r="197" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
@@ -3089,299 +3352,2527 @@
         <f>30000+(37500+120000+260000+450000+700000)*3+25000+30000+37500*2+(120000+260000+450000+700000)*3+(25000+30000+37500+120000+260000+450000+700000)*3</f>
         <v>14320000</v>
       </c>
-      <c r="D197" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>137</v>
+      <c r="D197" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C198" s="1">
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="2"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="4"/>
     </row>
     <row r="199" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C199" s="1">
         <f>6+9*3+4+6+9</f>
         <v>52</v>
       </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="2"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="4"/>
     </row>
     <row r="200" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C200" s="1">
         <f>9*3+9</f>
         <v>36</v>
       </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="2"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="4"/>
     </row>
     <row r="201" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C201" s="1">
         <f>20*3+20</f>
         <v>80</v>
       </c>
-      <c r="D201" s="5"/>
-      <c r="E201" s="2"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="4"/>
     </row>
     <row r="202" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C202" s="1">
         <f>31*3+31</f>
         <v>124</v>
       </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="2"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="4"/>
     </row>
     <row r="203" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C203" s="1">
         <f>6*3+6</f>
         <v>24</v>
       </c>
-      <c r="D203" s="5"/>
-      <c r="E203" s="2"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="4"/>
     </row>
     <row r="204" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C204" s="1">
         <f>12*3+12</f>
         <v>48</v>
       </c>
-      <c r="D204" s="5"/>
-      <c r="E204" s="2"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="4"/>
     </row>
     <row r="205" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C205" s="1">
         <f>18+6</f>
         <v>24</v>
       </c>
-      <c r="D205" s="5"/>
-      <c r="E205" s="2"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="4"/>
     </row>
     <row r="206" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C206" s="1">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="2"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="4"/>
     </row>
     <row r="207" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C207" s="1">
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D207" s="5"/>
-      <c r="E207" s="2"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="4"/>
     </row>
     <row r="208" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C208" s="1">
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D208" s="5"/>
-      <c r="E208" s="2"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="4"/>
     </row>
     <row r="209" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C209" s="1">
         <f>20+20</f>
         <v>40</v>
       </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="2"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="4"/>
     </row>
     <row r="210" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C210" s="1">
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D210" s="5"/>
-      <c r="E210" s="2"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="4"/>
     </row>
     <row r="211" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C211" s="1">
         <f>12+12</f>
         <v>24</v>
       </c>
-      <c r="D211" s="5"/>
-      <c r="E211" s="2"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="4"/>
     </row>
     <row r="212" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C212" s="1">
         <f>31+31</f>
         <v>62</v>
       </c>
-      <c r="D212" s="5"/>
-      <c r="E212" s="2"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="4"/>
     </row>
     <row r="213" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C213" s="1">
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D213" s="5"/>
-      <c r="E213" s="2"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="4"/>
     </row>
     <row r="214" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C214" s="1">
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D214" s="5"/>
-      <c r="E214" s="2"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="4"/>
     </row>
     <row r="215" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C215" s="1">
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D215" s="5"/>
-      <c r="E215" s="2"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="4"/>
     </row>
     <row r="216" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C216" s="1">
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D216" s="5"/>
-      <c r="E216" s="2"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="4"/>
     </row>
     <row r="217" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C217" s="1">
         <f>20*3</f>
         <v>60</v>
       </c>
-      <c r="D217" s="5"/>
-      <c r="E217" s="2"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="4"/>
     </row>
     <row r="218" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C218" s="1">
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="2"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="4"/>
     </row>
     <row r="219" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C219" s="1">
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="D219" s="5"/>
-      <c r="E219" s="2"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="4"/>
     </row>
     <row r="220" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C220" s="1">
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D220" s="5"/>
-      <c r="E220" s="2"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="4"/>
     </row>
     <row r="221" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C221" s="1">
         <f>31*3</f>
         <v>93</v>
       </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="2"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="4"/>
     </row>
     <row r="222" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C222" s="1">
         <v>18</v>
       </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="2"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="4"/>
     </row>
     <row r="223" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C223" s="1">
         <v>9</v>
       </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="2"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="1">
+        <f>248000+45000</f>
+        <v>293000</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C225" s="1">
+        <v>248</v>
+      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C226" s="1">
+        <v>4</v>
+      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C227" s="1">
+        <v>18</v>
+      </c>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C228" s="1">
+        <v>12</v>
+      </c>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="1">
+        <f>372000+65000</f>
+        <v>437000</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B230" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C230" s="1">
+        <v>372</v>
+      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C231" s="1">
+        <v>6</v>
+      </c>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C232" s="1">
+        <v>27</v>
+      </c>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C233" s="1">
+        <v>18</v>
+      </c>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="1">
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C235" s="1">
+        <v>907</v>
+      </c>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C236" s="1">
+        <v>5</v>
+      </c>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C237" s="1">
+        <v>14</v>
+      </c>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C238" s="1">
+        <v>14</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C239" s="1">
+        <v>6</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C240" s="1">
+        <v>23</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C241" s="1">
+        <v>27</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C242" s="1">
+        <v>41</v>
+      </c>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C243" s="1">
+        <v>15</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C244" s="1">
+        <v>23</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C245" s="1">
+        <v>27</v>
+      </c>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="1">
+        <f>372000+65000</f>
+        <v>437000</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C247" s="1">
+        <v>372</v>
+      </c>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C248" s="1">
+        <v>6</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C249" s="1">
+        <v>27</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C250" s="1">
+        <v>18</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="1">
+        <f>372000+65000</f>
+        <v>437000</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C252" s="1">
+        <v>372</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+    </row>
+    <row r="253" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C253" s="1">
+        <v>6</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+    </row>
+    <row r="254" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C254" s="1">
+        <v>27</v>
+      </c>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C255" s="1">
+        <v>18</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="1">
+        <f>597000+5000+15000+20000+30000+35000+45000</f>
+        <v>747000</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C257" s="1">
+        <v>597</v>
+      </c>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C258" s="1">
+        <v>3</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C259" s="1">
+        <v>9</v>
+      </c>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C260" s="1">
+        <v>9</v>
+      </c>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+    </row>
+    <row r="261" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C261" s="1">
+        <v>4</v>
+      </c>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C262" s="1">
+        <v>15</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+    </row>
+    <row r="263" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C263" s="1">
+        <v>18</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+    </row>
+    <row r="264" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C264" s="1">
+        <v>27</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C265" s="1">
+        <v>10</v>
+      </c>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C266" s="1">
+        <v>15</v>
+      </c>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+    </row>
+    <row r="267" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C267" s="1">
+        <v>18</v>
+      </c>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+    </row>
+    <row r="268" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" s="1">
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B269" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C269" s="1">
+        <v>907</v>
+      </c>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C270" s="1">
+        <v>5</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C271" s="1">
+        <v>14</v>
+      </c>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+    </row>
+    <row r="272" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C272" s="1">
+        <v>14</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C273" s="1">
+        <v>6</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C274" s="1">
+        <v>23</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C275" s="1">
+        <v>27</v>
+      </c>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C276" s="1">
+        <v>41</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C277" s="1">
+        <v>15</v>
+      </c>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+    </row>
+    <row r="278" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C278" s="1">
+        <v>23</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C279" s="1">
+        <v>27</v>
+      </c>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+    </row>
+    <row r="280" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280" s="1">
+        <f>605000+5000+15000+20000+30000+35000+45000</f>
+        <v>755000</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C281" s="1">
+        <v>605</v>
+      </c>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+    </row>
+    <row r="282" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B282" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C282" s="1">
+        <v>3</v>
+      </c>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+    </row>
+    <row r="283" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C283" s="1">
+        <v>9</v>
+      </c>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
+    </row>
+    <row r="284" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B284" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C284" s="1">
+        <v>9</v>
+      </c>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C285" s="1">
+        <v>4</v>
+      </c>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+    </row>
+    <row r="286" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C286" s="1">
+        <v>15</v>
+      </c>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+    </row>
+    <row r="287" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C287" s="1">
+        <v>18</v>
+      </c>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+    </row>
+    <row r="288" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C288" s="1">
+        <v>27</v>
+      </c>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+    </row>
+    <row r="289" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C289" s="1">
+        <v>10</v>
+      </c>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C290" s="1">
+        <v>15</v>
+      </c>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+    </row>
+    <row r="291" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C291" s="1">
+        <v>18</v>
+      </c>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" s="1">
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C293" s="1">
+        <v>907</v>
+      </c>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4"/>
+    </row>
+    <row r="294" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C294" s="1">
+        <v>5</v>
+      </c>
+      <c r="D294" s="4"/>
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C295" s="1">
+        <v>14</v>
+      </c>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C296" s="1">
+        <v>14</v>
+      </c>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+    </row>
+    <row r="297" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C297" s="1">
+        <v>6</v>
+      </c>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+    </row>
+    <row r="298" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C298" s="1">
+        <v>23</v>
+      </c>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4"/>
+    </row>
+    <row r="299" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C299" s="1">
+        <v>27</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+    </row>
+    <row r="300" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C300" s="1">
+        <v>41</v>
+      </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+    </row>
+    <row r="301" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C301" s="1">
+        <v>15</v>
+      </c>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4"/>
+    </row>
+    <row r="302" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B302" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C302" s="1">
+        <v>23</v>
+      </c>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+    </row>
+    <row r="303" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B303" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C303" s="1">
+        <v>27</v>
+      </c>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+    </row>
+    <row r="304" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="1">
+        <f>515000+20000+30000+35000+45000</f>
+        <v>645000</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B305" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C305" s="1">
+        <v>515</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+    </row>
+    <row r="306" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B306" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C306" s="1">
+        <v>6</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+    </row>
+    <row r="307" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C307" s="1">
+        <v>9</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+    </row>
+    <row r="308" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C308" s="1">
+        <v>4</v>
+      </c>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B309" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C309" s="1">
+        <v>18</v>
+      </c>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+    </row>
+    <row r="310" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C310" s="1">
+        <v>27</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+    </row>
+    <row r="311" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C311" s="1">
+        <v>15</v>
+      </c>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+    </row>
+    <row r="312" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312" s="1">
+        <v>18</v>
+      </c>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+    </row>
+    <row r="313" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B313" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="1">
+        <f>454000+30000+35000+45000</f>
+        <v>564000</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C314" s="1">
+        <v>454</v>
+      </c>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+    </row>
+    <row r="315" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C315" s="1">
+        <v>9</v>
+      </c>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+    </row>
+    <row r="316" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C316" s="1">
+        <v>4</v>
+      </c>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+    </row>
+    <row r="317" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C317" s="1">
+        <v>12</v>
+      </c>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+    </row>
+    <row r="318" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C318" s="1">
+        <v>27</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+    </row>
+    <row r="319" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C319" s="1">
+        <v>9</v>
+      </c>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+    </row>
+    <row r="320" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B320" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C320" s="1">
+        <v>18</v>
+      </c>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+    </row>
+    <row r="321" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="1">
+        <f>605000+5000+15000+20000+30000+35000+45000</f>
+        <v>755000</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B322" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C322" s="1">
+        <v>605</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+    </row>
+    <row r="323" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B323" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C323" s="1">
+        <v>3</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+    </row>
+    <row r="324" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C324" s="1">
+        <v>9</v>
+      </c>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+    </row>
+    <row r="325" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B325" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C325" s="1">
+        <v>9</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+    </row>
+    <row r="326" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B326" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C326" s="1">
+        <v>4</v>
+      </c>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+    </row>
+    <row r="327" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B327" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C327" s="1">
+        <v>15</v>
+      </c>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+    </row>
+    <row r="328" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B328" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C328" s="1">
+        <v>18</v>
+      </c>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B329" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C329" s="1">
+        <v>27</v>
+      </c>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B330" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C330" s="1">
+        <v>10</v>
+      </c>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B331" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C331" s="1">
+        <v>15</v>
+      </c>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B332" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C332" s="1">
+        <v>18</v>
+      </c>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B333" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" s="1">
+        <f>605000+5000+15000+20000+30000+35000+45000</f>
+        <v>755000</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B334" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C334" s="1">
+        <v>605</v>
+      </c>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C335" s="1">
+        <v>3</v>
+      </c>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B336" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C336" s="1">
+        <v>9</v>
+      </c>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+    </row>
+    <row r="337" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B337" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C337" s="1">
+        <v>9</v>
+      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B338" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C338" s="1">
+        <v>4</v>
+      </c>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+    </row>
+    <row r="339" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B339" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C339" s="1">
+        <v>15</v>
+      </c>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B340" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C340" s="1">
+        <v>18</v>
+      </c>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B341" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C341" s="1">
+        <v>27</v>
+      </c>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+    </row>
+    <row r="342" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B342" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C342" s="1">
+        <v>10</v>
+      </c>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+    </row>
+    <row r="343" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B343" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C343" s="1">
+        <v>15</v>
+      </c>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+    </row>
+    <row r="344" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B344" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C344" s="1">
+        <v>18</v>
+      </c>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+    </row>
+    <row r="345" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B345" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" s="1">
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B346" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C346" s="1">
+        <v>907</v>
+      </c>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+    </row>
+    <row r="347" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B347" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C347" s="1">
+        <v>5</v>
+      </c>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+    </row>
+    <row r="348" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B348" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C348" s="1">
+        <v>14</v>
+      </c>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+    </row>
+    <row r="349" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B349" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C349" s="1">
+        <v>14</v>
+      </c>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+    </row>
+    <row r="350" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B350" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C350" s="1">
+        <v>6</v>
+      </c>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+    </row>
+    <row r="351" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B351" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C351" s="1">
+        <v>23</v>
+      </c>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4"/>
+    </row>
+    <row r="352" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C352" s="1">
+        <v>27</v>
+      </c>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4"/>
+    </row>
+    <row r="353" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C353" s="1">
+        <v>41</v>
+      </c>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4"/>
+    </row>
+    <row r="354" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B354" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C354" s="1">
+        <v>15</v>
+      </c>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4"/>
+    </row>
+    <row r="355" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C355" s="1">
+        <v>23</v>
+      </c>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4"/>
+    </row>
+    <row r="356" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B356" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C356" s="1">
+        <v>27</v>
+      </c>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4"/>
+    </row>
+    <row r="357" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B357" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" s="1">
+        <f>515000+20000+30000+35000+45000</f>
+        <v>645000</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C358" s="1">
+        <v>515</v>
+      </c>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4"/>
+    </row>
+    <row r="359" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C359" s="1">
+        <v>6</v>
+      </c>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4"/>
+    </row>
+    <row r="360" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C360" s="1">
+        <v>9</v>
+      </c>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4"/>
+    </row>
+    <row r="361" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C361" s="1">
+        <v>4</v>
+      </c>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4"/>
+    </row>
+    <row r="362" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B362" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C362" s="1">
+        <v>18</v>
+      </c>
+      <c r="D362" s="4"/>
+      <c r="E362" s="4"/>
+    </row>
+    <row r="363" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C363" s="1">
+        <v>27</v>
+      </c>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+    </row>
+    <row r="364" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C364" s="1">
+        <v>8</v>
+      </c>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+    </row>
+    <row r="365" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C365" s="1">
+        <v>15</v>
+      </c>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4"/>
+    </row>
+    <row r="366" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B366" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C366" s="1">
+        <v>18</v>
+      </c>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+    </row>
+    <row r="367" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B367" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" s="1">
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B368" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C368" s="1">
+        <v>907</v>
+      </c>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+    </row>
+    <row r="369" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B369" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C369" s="1">
+        <v>5</v>
+      </c>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+    </row>
+    <row r="370" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C370" s="1">
+        <v>14</v>
+      </c>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
+    </row>
+    <row r="371" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B371" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C371" s="1">
+        <v>14</v>
+      </c>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4"/>
+    </row>
+    <row r="372" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B372" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C372" s="1">
+        <v>6</v>
+      </c>
+      <c r="D372" s="4"/>
+      <c r="E372" s="4"/>
+    </row>
+    <row r="373" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B373" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C373" s="1">
+        <v>23</v>
+      </c>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4"/>
+    </row>
+    <row r="374" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C374" s="1">
+        <v>27</v>
+      </c>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4"/>
+    </row>
+    <row r="375" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B375" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C375" s="1">
+        <v>41</v>
+      </c>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4"/>
+    </row>
+    <row r="376" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B376" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C376" s="1">
+        <v>15</v>
+      </c>
+      <c r="D376" s="4"/>
+      <c r="E376" s="4"/>
+    </row>
+    <row r="377" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B377" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C377" s="1">
+        <v>23</v>
+      </c>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4"/>
+    </row>
+    <row r="378" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B378" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C378" s="1">
+        <v>27</v>
+      </c>
+      <c r="D378" s="4"/>
+      <c r="E378" s="4"/>
+    </row>
+    <row r="379" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B379" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" s="1">
+        <f>515000+20000+30000+35000+45000</f>
+        <v>645000</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B380" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C380" s="1">
+        <v>515</v>
+      </c>
+      <c r="D380" s="4"/>
+      <c r="E380" s="4"/>
+    </row>
+    <row r="381" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B381" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C381" s="1">
+        <v>6</v>
+      </c>
+      <c r="D381" s="4"/>
+      <c r="E381" s="4"/>
+    </row>
+    <row r="382" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B382" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C382" s="1">
+        <v>9</v>
+      </c>
+      <c r="D382" s="4"/>
+      <c r="E382" s="4"/>
+    </row>
+    <row r="383" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B383" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C383" s="1">
+        <v>4</v>
+      </c>
+      <c r="D383" s="4"/>
+      <c r="E383" s="4"/>
+    </row>
+    <row r="384" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B384" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C384" s="1">
+        <v>18</v>
+      </c>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4"/>
+    </row>
+    <row r="385" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B385" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C385" s="1">
+        <v>27</v>
+      </c>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4"/>
+    </row>
+    <row r="386" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B386" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C386" s="1">
+        <v>15</v>
+      </c>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4"/>
+    </row>
+    <row r="387" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B387" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C387" s="1">
+        <v>18</v>
+      </c>
+      <c r="D387" s="4"/>
+      <c r="E387" s="4"/>
+    </row>
+    <row r="388" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B388" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" s="1">
+        <f>368000+35000+45000</f>
+        <v>448000</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B389" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C389" s="1">
+        <v>368</v>
+      </c>
+      <c r="D389" s="4"/>
+      <c r="E389" s="4"/>
+    </row>
+    <row r="390" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C390" s="1">
+        <v>6</v>
+      </c>
+      <c r="D390" s="4"/>
+      <c r="E390" s="4"/>
+    </row>
+    <row r="391" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B391" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C391" s="1">
+        <v>4</v>
+      </c>
+      <c r="D391" s="4"/>
+      <c r="E391" s="4"/>
+    </row>
+    <row r="392" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C392" s="1">
+        <v>27</v>
+      </c>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4"/>
+    </row>
+    <row r="393" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C393" s="1">
+        <v>18</v>
+      </c>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+    </row>
+    <row r="394" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B394" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" s="1">
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B395" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C395" s="1">
+        <v>907</v>
+      </c>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4"/>
+    </row>
+    <row r="396" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C396" s="1">
+        <v>5</v>
+      </c>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+    </row>
+    <row r="397" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C397" s="1">
+        <v>14</v>
+      </c>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+    </row>
+    <row r="398" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C398" s="1">
+        <v>14</v>
+      </c>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+    </row>
+    <row r="399" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C399" s="1">
+        <v>6</v>
+      </c>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4"/>
+    </row>
+    <row r="400" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C400" s="1">
+        <v>23</v>
+      </c>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4"/>
+    </row>
+    <row r="401" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C401" s="1">
+        <v>27</v>
+      </c>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4"/>
+    </row>
+    <row r="402" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C402" s="1">
+        <v>41</v>
+      </c>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+    </row>
+    <row r="403" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C403" s="1">
+        <v>15</v>
+      </c>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+    </row>
+    <row r="404" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C404" s="1">
+        <v>23</v>
+      </c>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+    </row>
+    <row r="405" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C405" s="1">
+        <v>27</v>
+      </c>
+      <c r="D405" s="4"/>
+      <c r="E405" s="4"/>
+    </row>
+    <row r="406" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" s="1">
+        <f>605000+5000+15000+20000+30000+35000+45000</f>
+        <v>755000</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C407" s="1">
+        <v>605</v>
+      </c>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4"/>
+    </row>
+    <row r="408" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B408" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C408" s="1">
+        <v>3</v>
+      </c>
+      <c r="D408" s="4"/>
+      <c r="E408" s="4"/>
+    </row>
+    <row r="409" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C409" s="1">
+        <v>9</v>
+      </c>
+      <c r="D409" s="4"/>
+      <c r="E409" s="4"/>
+    </row>
+    <row r="410" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B410" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C410" s="1">
+        <v>9</v>
+      </c>
+      <c r="D410" s="4"/>
+      <c r="E410" s="4"/>
+    </row>
+    <row r="411" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C411" s="1">
+        <v>4</v>
+      </c>
+      <c r="D411" s="4"/>
+      <c r="E411" s="4"/>
+    </row>
+    <row r="412" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B412" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C412" s="1">
+        <v>15</v>
+      </c>
+      <c r="D412" s="4"/>
+      <c r="E412" s="4"/>
+    </row>
+    <row r="413" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C413" s="1">
+        <v>18</v>
+      </c>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4"/>
+    </row>
+    <row r="414" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C414" s="1">
+        <v>27</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+    </row>
+    <row r="415" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B415" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C415" s="1">
+        <v>10</v>
+      </c>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4"/>
+    </row>
+    <row r="416" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C416" s="1">
+        <v>15</v>
+      </c>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+    </row>
+    <row r="417" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C417" s="1">
+        <v>18</v>
+      </c>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4"/>
+    </row>
+    <row r="418" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B418" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C418" s="1">
+        <f>515000+20000+30000+35000+45000</f>
+        <v>645000</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B419" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C419" s="1">
+        <v>515</v>
+      </c>
+      <c r="D419" s="4"/>
+      <c r="E419" s="4"/>
+    </row>
+    <row r="420" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B420" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C420" s="1">
+        <v>6</v>
+      </c>
+      <c r="D420" s="4"/>
+      <c r="E420" s="4"/>
+    </row>
+    <row r="421" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B421" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C421" s="1">
+        <v>9</v>
+      </c>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4"/>
+    </row>
+    <row r="422" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B422" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C422" s="1">
+        <v>4</v>
+      </c>
+      <c r="D422" s="4"/>
+      <c r="E422" s="4"/>
+    </row>
+    <row r="423" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B423" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C423" s="1">
+        <v>18</v>
+      </c>
+      <c r="D423" s="4"/>
+      <c r="E423" s="4"/>
+    </row>
+    <row r="424" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C424" s="1">
+        <v>27</v>
+      </c>
+      <c r="D424" s="4"/>
+      <c r="E424" s="4"/>
+    </row>
+    <row r="425" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B425" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C425" s="1">
+        <v>15</v>
+      </c>
+      <c r="D425" s="4"/>
+      <c r="E425" s="4"/>
+    </row>
+    <row r="426" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B426" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C426" s="1">
+        <v>18</v>
+      </c>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4"/>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B427" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C427" s="1">
+        <f>454000+30000+35000+45000</f>
+        <v>564000</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B428" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C428" s="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B429" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C429" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B430" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C430" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B431" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C431" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B432" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C432" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B433" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C433" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B434" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C434" s="1">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="76">
+    <mergeCell ref="D406:D417"/>
+    <mergeCell ref="E406:E417"/>
+    <mergeCell ref="D418:D426"/>
+    <mergeCell ref="E418:E426"/>
+    <mergeCell ref="D379:D387"/>
+    <mergeCell ref="E379:E387"/>
+    <mergeCell ref="D388:D393"/>
+    <mergeCell ref="E388:E393"/>
+    <mergeCell ref="D394:D405"/>
+    <mergeCell ref="E394:E405"/>
+    <mergeCell ref="D345:D356"/>
+    <mergeCell ref="E345:E356"/>
+    <mergeCell ref="D357:D366"/>
+    <mergeCell ref="E357:E366"/>
+    <mergeCell ref="D367:D378"/>
+    <mergeCell ref="E367:E378"/>
+    <mergeCell ref="D313:D320"/>
+    <mergeCell ref="E313:E320"/>
+    <mergeCell ref="D321:D332"/>
+    <mergeCell ref="E321:E332"/>
+    <mergeCell ref="D333:D344"/>
+    <mergeCell ref="E333:E344"/>
+    <mergeCell ref="D280:D291"/>
+    <mergeCell ref="E280:E291"/>
+    <mergeCell ref="D292:D303"/>
+    <mergeCell ref="E292:E303"/>
+    <mergeCell ref="D304:D312"/>
+    <mergeCell ref="E304:E312"/>
     <mergeCell ref="E188:E196"/>
     <mergeCell ref="E197:E223"/>
     <mergeCell ref="E120:E131"/>
@@ -3416,6 +5907,20 @@
     <mergeCell ref="D177:D187"/>
     <mergeCell ref="D188:D196"/>
     <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D224:D228"/>
+    <mergeCell ref="E224:E228"/>
+    <mergeCell ref="D229:D233"/>
+    <mergeCell ref="E229:E233"/>
+    <mergeCell ref="D234:D245"/>
+    <mergeCell ref="E234:E245"/>
+    <mergeCell ref="D268:D279"/>
+    <mergeCell ref="E268:E279"/>
+    <mergeCell ref="D246:D250"/>
+    <mergeCell ref="E246:E250"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="E251:E255"/>
+    <mergeCell ref="D256:D267"/>
+    <mergeCell ref="E256:E267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giovanni\Desktop\Maestría\Git\Archivos_publicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C404B8-C38B-486C-BD44-E22C1EE78F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB2753A-94E0-4C65-B8AB-0227BEA31E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Personajes y armas" sheetId="2" r:id="rId1"/>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706AD05-E9D7-4C6A-B33A-AF035FA29362}">
   <dimension ref="B2:G434"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6056,8 +6056,8 @@
         <v>9</v>
       </c>
       <c r="C406" s="1">
-        <f>605000+5000+15000+20000+30000+35000+45000</f>
-        <v>755000</v>
+        <f>(605000+5000+15000+20000+30000+35000+45000)*0</f>
+        <v>0</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>116</v>
@@ -6071,7 +6071,8 @@
         <v>139</v>
       </c>
       <c r="C407" s="1">
-        <v>605</v>
+        <f>605*0</f>
+        <v>0</v>
       </c>
       <c r="D407" s="9"/>
       <c r="E407" s="10"/>
@@ -6081,7 +6082,8 @@
         <v>201</v>
       </c>
       <c r="C408" s="1">
-        <v>3</v>
+        <f>3*0</f>
+        <v>0</v>
       </c>
       <c r="D408" s="9"/>
       <c r="E408" s="10"/>
@@ -6091,7 +6093,8 @@
         <v>202</v>
       </c>
       <c r="C409" s="1">
-        <v>9</v>
+        <f>9*0</f>
+        <v>0</v>
       </c>
       <c r="D409" s="9"/>
       <c r="E409" s="10"/>
@@ -6101,7 +6104,8 @@
         <v>203</v>
       </c>
       <c r="C410" s="1">
-        <v>9</v>
+        <f>9*0</f>
+        <v>0</v>
       </c>
       <c r="D410" s="9"/>
       <c r="E410" s="10"/>
@@ -6111,7 +6115,8 @@
         <v>204</v>
       </c>
       <c r="C411" s="1">
-        <v>4</v>
+        <f>4*0</f>
+        <v>0</v>
       </c>
       <c r="D411" s="9"/>
       <c r="E411" s="10"/>
@@ -6121,7 +6126,8 @@
         <v>205</v>
       </c>
       <c r="C412" s="1">
-        <v>15</v>
+        <f>15*0</f>
+        <v>0</v>
       </c>
       <c r="D412" s="9"/>
       <c r="E412" s="10"/>
@@ -6131,7 +6137,8 @@
         <v>206</v>
       </c>
       <c r="C413" s="1">
-        <v>18</v>
+        <f>18*0</f>
+        <v>0</v>
       </c>
       <c r="D413" s="9"/>
       <c r="E413" s="10"/>
@@ -6141,7 +6148,8 @@
         <v>207</v>
       </c>
       <c r="C414" s="1">
-        <v>27</v>
+        <f>27*0</f>
+        <v>0</v>
       </c>
       <c r="D414" s="9"/>
       <c r="E414" s="10"/>
@@ -6151,7 +6159,8 @@
         <v>183</v>
       </c>
       <c r="C415" s="1">
-        <v>10</v>
+        <f>10*0</f>
+        <v>0</v>
       </c>
       <c r="D415" s="9"/>
       <c r="E415" s="10"/>
@@ -6161,7 +6170,8 @@
         <v>84</v>
       </c>
       <c r="C416" s="1">
-        <v>15</v>
+        <f>15*0</f>
+        <v>0</v>
       </c>
       <c r="D416" s="9"/>
       <c r="E416" s="10"/>
@@ -6171,7 +6181,8 @@
         <v>85</v>
       </c>
       <c r="C417" s="1">
-        <v>18</v>
+        <f>18*0</f>
+        <v>0</v>
       </c>
       <c r="D417" s="9"/>
       <c r="E417" s="10"/>
@@ -6181,8 +6192,8 @@
         <v>9</v>
       </c>
       <c r="C418" s="1">
-        <f>515000+20000+30000+35000+45000</f>
-        <v>645000</v>
+        <f>(515000+20000+30000+35000+45000)*0</f>
+        <v>0</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>116</v>
@@ -6196,80 +6207,88 @@
         <v>139</v>
       </c>
       <c r="C419" s="1">
-        <v>515</v>
+        <f>515*0</f>
+        <v>0</v>
       </c>
       <c r="D419" s="9"/>
-      <c r="E419" s="10"/>
+      <c r="E419" s="11"/>
     </row>
     <row r="420" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C420" s="1">
-        <v>6</v>
+        <f>6*0</f>
+        <v>0</v>
       </c>
       <c r="D420" s="9"/>
-      <c r="E420" s="10"/>
+      <c r="E420" s="11"/>
     </row>
     <row r="421" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C421" s="1">
-        <v>9</v>
+        <f>9*0</f>
+        <v>0</v>
       </c>
       <c r="D421" s="9"/>
-      <c r="E421" s="10"/>
+      <c r="E421" s="11"/>
     </row>
     <row r="422" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C422" s="1">
-        <v>4</v>
+        <f>4*0</f>
+        <v>0</v>
       </c>
       <c r="D422" s="9"/>
-      <c r="E422" s="10"/>
+      <c r="E422" s="11"/>
     </row>
     <row r="423" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C423" s="1">
-        <v>18</v>
+        <f>18*0</f>
+        <v>0</v>
       </c>
       <c r="D423" s="9"/>
-      <c r="E423" s="10"/>
+      <c r="E423" s="11"/>
     </row>
     <row r="424" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C424" s="1">
-        <v>27</v>
+        <f>27*0</f>
+        <v>0</v>
       </c>
       <c r="D424" s="9"/>
-      <c r="E424" s="10"/>
+      <c r="E424" s="11"/>
     </row>
     <row r="425" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C425" s="1">
-        <v>15</v>
+        <f>15*0</f>
+        <v>0</v>
       </c>
       <c r="D425" s="9"/>
-      <c r="E425" s="10"/>
+      <c r="E425" s="11"/>
     </row>
     <row r="426" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C426" s="1">
-        <v>18</v>
+        <f>18*0</f>
+        <v>0</v>
       </c>
       <c r="D426" s="9"/>
-      <c r="E426" s="10"/>
+      <c r="E426" s="11"/>
     </row>
     <row r="427" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="1" t="s">
@@ -6455,8 +6474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6514,7 +6533,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Tabla2[Resina total])</f>
-        <v>116377</v>
+        <v>114457</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6523,15 +6542,15 @@
       </c>
       <c r="C3" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B3)+5000000-Tabla2[[#This Row],[Inversión]]</f>
-        <v>104913500</v>
+        <v>102841520</v>
       </c>
       <c r="D3" s="7">
         <f>8194442+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8175342</v>
+        <v>7543462</v>
       </c>
       <c r="E3" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>96738158</v>
+        <v>95298058</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>290</v>
@@ -6541,15 +6560,15 @@
       </c>
       <c r="H3" s="1">
         <f>IF(E3&gt;0,ROUNDUP(G3*E3/60000,0),0)</f>
-        <v>32247</v>
+        <v>31767</v>
       </c>
       <c r="I3" s="1">
-        <f>4725+4725+4725+4725+8000+8000+8000+8000+50000</f>
-        <v>100900</v>
+        <f>4725+4725+4725+4725+8000+8000+8000+8000+50000+8000+8000+8000+8100+8000</f>
+        <v>141000</v>
       </c>
       <c r="J3" s="1">
-        <f>60000+60000</f>
-        <v>120000</v>
+        <f>60000+60000+321000+800+30000+37500+17500+17500+17500+25000*3+5000+62340+10000+62840+15000</f>
+        <v>791980</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>226</v>
@@ -6565,11 +6584,11 @@
       </c>
       <c r="D4" s="7">
         <f>57+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-57</v>
+        <v>-53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>289</v>
@@ -6584,7 +6603,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>265</v>
@@ -6594,7 +6614,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 11 meses y 28 días</v>
+        <v>1 año 11 meses y 16 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6606,12 +6626,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>ROUNDDOWN(468+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>479</v>
+        <f>ROUNDDOWN(530+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>219</v>
       </c>
       <c r="E5" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-479</v>
+        <v>-219</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>290</v>
@@ -6626,7 +6646,8 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <f>321</f>
+        <v>321</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
@@ -6641,12 +6662,12 @@
         <v>5537</v>
       </c>
       <c r="D6" s="7">
-        <f>ROUNDDOWN(624+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>743</v>
+        <f>ROUNDDOWN(703+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>757</v>
       </c>
       <c r="E6" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>4794</v>
+        <v>4780</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>290</v>
@@ -6656,7 +6677,7 @@
       </c>
       <c r="H6" s="1">
         <f>IF(E6&gt;0,ROUNDUP(G6*E6/4,0),0)</f>
-        <v>23970</v>
+        <v>23900</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -6674,15 +6695,15 @@
       </c>
       <c r="C7" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B7)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="7">
-        <f>413+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>413</v>
+        <f>439+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>438</v>
       </c>
       <c r="E7" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-413</v>
+        <v>-439</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>290</v>
@@ -6697,7 +6718,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>226</v>
@@ -6709,15 +6731,15 @@
       </c>
       <c r="C8" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B8)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>-304</v>
       </c>
       <c r="D8" s="7">
-        <f>ROUNDDOWN(538+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>620</v>
+        <f>ROUNDDOWN(568+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>351</v>
       </c>
       <c r="E8" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-620</v>
+        <v>-655</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>290</v>
@@ -6732,7 +6754,8 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <f>300+4</f>
+        <v>304</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>226</v>
@@ -6744,15 +6767,15 @@
       </c>
       <c r="C9" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B9)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>13159</v>
+        <v>11977</v>
       </c>
       <c r="D9" s="7">
-        <f>ROUNDDOWN(860+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>994</v>
+        <f>ROUNDDOWN(1156+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1235</v>
       </c>
       <c r="E9" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>12165</v>
+        <v>10742</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>290</v>
@@ -6768,7 +6791,8 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <f>62</f>
+        <v>62</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>226</v>
@@ -6784,11 +6808,11 @@
       </c>
       <c r="D10" s="7">
         <f>40+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>290</v>
@@ -6801,8 +6825,8 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6821,11 +6845,11 @@
       </c>
       <c r="D11" s="7">
         <f>66+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-68</v>
+        <v>-70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>290</v>
@@ -6838,8 +6862,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>1+2</f>
-        <v>3</v>
+        <f>1+2+1+1</f>
+        <v>5</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6858,11 +6882,11 @@
       </c>
       <c r="D12" s="7">
         <f>7+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>290</v>
@@ -6875,8 +6899,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>1+3</f>
-        <v>4</v>
+        <f>1+3+2+2</f>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6895,11 +6919,11 @@
       </c>
       <c r="D13" s="7">
         <f>29+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>290</v>
@@ -6912,8 +6936,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>-27+3+2-6</f>
-        <v>-28</v>
+        <f>-27+3+2-6+2+1</f>
+        <v>-25</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -6932,11 +6956,11 @@
       </c>
       <c r="D14" s="7">
         <f>38+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-41</v>
+        <v>-44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>290</v>
@@ -6949,8 +6973,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>2+3</f>
-        <v>5</v>
+        <f>2+3+3</f>
+        <v>8</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -6969,11 +6993,11 @@
       </c>
       <c r="D15" s="7">
         <f>52+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-54</v>
+        <v>-57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>290</v>
@@ -6986,8 +7010,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>2+1</f>
-        <v>3</v>
+        <f>2+1+2+1</f>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7006,11 +7030,11 @@
       </c>
       <c r="D16" s="7">
         <f>ROUNDDOWN(28+IF(E10&lt;0,-E10/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-53</v>
+        <v>-57</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>290</v>
@@ -7023,8 +7047,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>3+2+1+6</f>
-        <v>12</v>
+        <f>3+2+1+6+3</f>
+        <v>15</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7043,11 +7067,11 @@
       </c>
       <c r="D17" s="7">
         <f>ROUNDDOWN(31+IF(E11&lt;0,-E11/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>290</v>
@@ -7060,8 +7084,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>1+6</f>
-        <v>7</v>
+        <f>1+6+1</f>
+        <v>8</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -7080,11 +7104,11 @@
       </c>
       <c r="D18" s="7">
         <f>ROUNDDOWN(19+IF(E12&lt;0,-E12/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>290</v>
@@ -7097,8 +7121,8 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>1+6</f>
-        <v>7</v>
+        <f>1+6+2</f>
+        <v>9</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -7117,11 +7141,11 @@
       </c>
       <c r="D19" s="7">
         <f>ROUNDDOWN(17+IF(E13&lt;0,-E13/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7134,8 +7158,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>9-12+1+1+2-6+2+4</f>
-        <v>1</v>
+        <f>9-12+1+1+2-6+2+4+2</f>
+        <v>3</v>
       </c>
       <c r="J19" s="1">
         <f>6+6</f>
@@ -7155,11 +7179,11 @@
       </c>
       <c r="D20" s="7">
         <f>ROUNDDOWN(17+IF(E14&lt;0,-E14/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>290</v>
@@ -7192,11 +7216,11 @@
       </c>
       <c r="D21" s="7">
         <f>ROUNDDOWN(26+IF(E15&lt;0,-E15/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E21" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-39</v>
+        <v>-43</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>290</v>
@@ -7209,8 +7233,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>1+1+2</f>
-        <v>4</v>
+        <f>1+1+2+3</f>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7229,11 +7253,11 @@
       </c>
       <c r="D22" s="7">
         <f>ROUNDDOWN(1+IF(E16&lt;0,-E16/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>290</v>
@@ -7301,11 +7325,11 @@
       </c>
       <c r="D24" s="7">
         <f>ROUNDDOWN(1+IF(E18&lt;0,-E18/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>290</v>
@@ -7315,7 +7339,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -7337,11 +7361,11 @@
       </c>
       <c r="D25" s="7">
         <f>ROUNDDOWN(0+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>290</v>
@@ -7351,7 +7375,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="I25" s="1">
         <f>4+2</f>
@@ -7410,11 +7434,11 @@
       </c>
       <c r="D27" s="7">
         <f>ROUNDDOWN(0+IF(E21&lt;0,-E21/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>290</v>
@@ -7424,10 +7448,11 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -8651,11 +8676,11 @@
       </c>
       <c r="C62" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B62)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D62" s="7">
         <f>ROUNDDOWN(82+IF(E61&lt;0,-E61/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E62" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -8674,8 +8699,8 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <f>12</f>
-        <v>12</v>
+        <f>12+6</f>
+        <v>18</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>241</v>
@@ -8757,11 +8782,11 @@
       </c>
       <c r="C65" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B65)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D65" s="7">
         <f>ROUNDDOWN(54+IF(E64&lt;0,-E64/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E65" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -8780,7 +8805,8 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>242</v>
@@ -8827,11 +8853,11 @@
       </c>
       <c r="C67" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B67)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D67" s="7">
         <f>321+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E67" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -8850,7 +8876,8 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <f>3+12</f>
+        <v>15</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>243</v>
@@ -8862,11 +8889,11 @@
       </c>
       <c r="C68" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B68)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D68" s="7">
         <f>ROUNDDOWN(56+IF(E67&lt;0,-E67/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E68" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -8885,7 +8912,8 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>243</v>
@@ -9072,11 +9100,11 @@
       </c>
       <c r="C74" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B74)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D74" s="7">
         <f>ROUNDDOWN(53+IF(E73&lt;0,-E73/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E74" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -9095,7 +9123,8 @@
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <f>3+3+3+4*3</f>
+        <v>21</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>245</v>
@@ -9142,7 +9171,7 @@
       </c>
       <c r="C76" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B76)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D76" s="7">
         <f>210+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9150,7 +9179,7 @@
       </c>
       <c r="E76" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-160</v>
+        <v>-170</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>290</v>
@@ -9177,15 +9206,15 @@
       </c>
       <c r="C77" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B77)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D77" s="7">
         <f>ROUNDDOWN(34+IF(E76&lt;0,-E76/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E77" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>290</v>
@@ -9212,7 +9241,7 @@
       </c>
       <c r="C78" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B78)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D78" s="7">
         <f>ROUNDDOWN(33+IF(E77&lt;0,-E77/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9220,7 +9249,7 @@
       </c>
       <c r="E78" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>290</v>
@@ -9282,7 +9311,7 @@
       </c>
       <c r="C80" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B80)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D80" s="7">
         <f>ROUNDDOWN(39+IF(E79&lt;0,-E79/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9290,7 +9319,7 @@
       </c>
       <c r="E80" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>290</v>
@@ -9317,7 +9346,7 @@
       </c>
       <c r="C81" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B81)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D81" s="7">
         <f>ROUNDDOWN(16+IF(E80&lt;0,-E80/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9325,7 +9354,7 @@
       </c>
       <c r="E81" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>290</v>
@@ -9457,11 +9486,11 @@
       </c>
       <c r="C85" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B85)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D85" s="7">
         <f>87+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E85" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -9480,7 +9509,8 @@
         <v>0</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <f>5+18</f>
+        <v>23</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>248</v>
@@ -9492,15 +9522,15 @@
       </c>
       <c r="C86" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B86)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D86" s="7">
         <f>ROUNDDOWN(50+IF(E85&lt;0,-E85/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E86" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-8</v>
+        <v>-26</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>290</v>
@@ -9515,7 +9545,8 @@
         <v>0</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>248</v>
@@ -9527,15 +9558,15 @@
       </c>
       <c r="C87" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B87)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D87" s="7">
         <f>ROUNDDOWN(9+IF(E86&lt;0,-E86/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E87" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>290</v>
@@ -10192,7 +10223,7 @@
       </c>
       <c r="C106" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B106)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D106" s="7">
         <f>601+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -10200,7 +10231,7 @@
       </c>
       <c r="E106" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-525</v>
+        <v>-540</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>290</v>
@@ -10227,15 +10258,15 @@
       </c>
       <c r="C107" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B107)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D107" s="7">
         <f>ROUNDDOWN(142+IF(E106&lt;0,-E106/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E107" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-227</v>
+        <v>-250</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>290</v>
@@ -10262,15 +10293,15 @@
       </c>
       <c r="C108" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B108)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D108" s="7">
         <f>ROUNDDOWN(27+IF(E107&lt;0,-E107/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E108" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>290</v>
@@ -10699,11 +10730,11 @@
       </c>
       <c r="C121" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B121)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D121" s="7">
         <f>ROUNDDOWN(14+IF(E112&lt;0,-E112/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E121" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -10723,7 +10754,8 @@
         <v>0</v>
       </c>
       <c r="J121" s="1">
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
@@ -10732,11 +10764,11 @@
       </c>
       <c r="C122" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B122)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D122" s="7">
         <f>ROUNDDOWN(7+IF(E113&lt;0,-E113/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E122" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -10756,7 +10788,8 @@
         <v>0</v>
       </c>
       <c r="J122" s="1">
-        <v>0</v>
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
@@ -10864,11 +10897,11 @@
       </c>
       <c r="C126" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B126)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D126" s="7">
         <f>ROUNDDOWN(36+IF(E117&lt;0,-E117/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E126" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -10888,7 +10921,8 @@
         <v>0</v>
       </c>
       <c r="J126" s="1">
-        <v>0</v>
+        <f>2+2+2+4*3</f>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
@@ -11330,11 +11364,11 @@
       </c>
       <c r="D140" s="7">
         <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E140" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -11344,10 +11378,11 @@
       </c>
       <c r="H140" s="1">
         <f>IF(E140&gt;0,ROUNDUP(G140*E140,0),0)</f>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I140" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J140" s="1">
         <v>0</v>
@@ -11363,11 +11398,11 @@
       </c>
       <c r="D141" s="7">
         <f>11+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E141" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -11377,10 +11412,11 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="I141" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J141" s="1">
         <v>0</v>
@@ -11396,11 +11432,11 @@
       </c>
       <c r="D142" s="7">
         <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -11410,10 +11446,11 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="I142" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J142" s="1">
         <v>0</v>
@@ -11463,11 +11500,11 @@
       </c>
       <c r="D144" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -11477,10 +11514,11 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I144" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -11529,11 +11567,11 @@
       </c>
       <c r="D146" s="7">
         <f>4+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E146" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
@@ -11546,8 +11584,8 @@
         <v>0</v>
       </c>
       <c r="I146" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J146" s="1">
         <v>0</v>
@@ -11629,11 +11667,11 @@
       </c>
       <c r="D149" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F149" s="1">
         <v>0</v>
@@ -11646,7 +11684,8 @@
         <v>0</v>
       </c>
       <c r="I149" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J149" s="1">
         <v>0</v>
@@ -11662,11 +11701,11 @@
       </c>
       <c r="D150" s="7">
         <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -11676,11 +11715,11 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I150" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J150" s="1">
         <v>0</v>
@@ -11763,11 +11802,11 @@
       </c>
       <c r="D153" s="7">
         <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -11777,10 +11816,11 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="I153" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J153" s="1">
         <v>0</v>
@@ -11857,7 +11897,7 @@
       </c>
       <c r="C156" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B156)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D156" s="7">
         <f>ROUNDDOWN(4+IF(E155&lt;0,-E155/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -11865,7 +11905,7 @@
       </c>
       <c r="E156" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>287</v>
@@ -11875,7 +11915,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ref="H156:H188" si="4">IF(E156&gt;0,ROUNDUP(G156*E156/2,0),0)</f>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I156" s="1">
         <v>0</v>
@@ -11890,7 +11930,7 @@
       </c>
       <c r="C157" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B157)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D157" s="7">
         <f>ROUNDDOWN(0+IF(E156&lt;0,-E156/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -11898,7 +11938,7 @@
       </c>
       <c r="E157" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>287</v>
@@ -11908,7 +11948,7 @@
       </c>
       <c r="H157" s="1">
         <f>IF(E157&gt;0,ROUNDUP(G157*E157,0),0)</f>
-        <v>740</v>
+        <v>560</v>
       </c>
       <c r="I157" s="1">
         <v>0</v>
@@ -11923,7 +11963,7 @@
       </c>
       <c r="C158" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B158)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D158" s="7">
         <f>ROUNDDOWN(0+IF(E157&lt;0,-E157/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -11931,7 +11971,7 @@
       </c>
       <c r="E158" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>287</v>
@@ -11941,7 +11981,7 @@
       </c>
       <c r="H158" s="1">
         <f>IF(E158&gt;0,ROUNDUP(G158*E158,0),0)</f>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="I158" s="1">
         <v>0</v>
@@ -12088,15 +12128,15 @@
       </c>
       <c r="C163" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B163)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D163" s="7">
         <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E163" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>7</v>
+        <v>-12</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>287</v>
@@ -12106,13 +12146,15 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I163" s="1">
-        <v>0</v>
+        <f>19</f>
+        <v>19</v>
       </c>
       <c r="J163" s="1">
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
@@ -12121,15 +12163,15 @@
       </c>
       <c r="C164" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B164)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D164" s="7">
         <f>ROUNDDOWN(1+IF(E163&lt;0,-E163/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E164" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>287</v>
@@ -12139,13 +12181,15 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I164" s="1">
-        <v>0</v>
+        <f>21</f>
+        <v>21</v>
       </c>
       <c r="J164" s="1">
-        <v>0</v>
+        <f>5+9</f>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
@@ -12158,11 +12202,11 @@
       </c>
       <c r="D165" s="7">
         <f>ROUNDDOWN(0+IF(E164&lt;0,-E164/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E165" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>287</v>
@@ -12172,10 +12216,11 @@
       </c>
       <c r="H165" s="1">
         <f>IF(E165&gt;0,ROUNDUP(G165*E165,0),0)</f>
-        <v>640</v>
+        <v>540</v>
       </c>
       <c r="I165" s="1">
-        <v>0</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="J165" s="1">
         <v>0</v>
@@ -12748,7 +12793,7 @@
       </c>
       <c r="C183" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B183)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D183" s="7">
         <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12756,7 +12801,7 @@
       </c>
       <c r="E183" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>288</v>
@@ -12766,7 +12811,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I183" s="1">
         <v>0</v>
@@ -12781,7 +12826,7 @@
       </c>
       <c r="C184" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B184)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D184" s="7">
         <f>ROUNDDOWN(1+IF(E183&lt;0,-E183/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12789,7 +12834,7 @@
       </c>
       <c r="E184" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>288</v>
@@ -12799,7 +12844,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="I184" s="1">
         <v>0</v>
@@ -12814,7 +12859,7 @@
       </c>
       <c r="C185" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B185)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D185" s="7">
         <f>ROUNDDOWN(0+IF(E184&lt;0,-E184/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12822,7 +12867,7 @@
       </c>
       <c r="E185" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>288</v>
@@ -12832,7 +12877,7 @@
       </c>
       <c r="H185" s="1">
         <f>IF(E185&gt;0,ROUNDUP(G185*E185,0),0)</f>
-        <v>640</v>
+        <v>460</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
@@ -12847,7 +12892,7 @@
       </c>
       <c r="C186" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B186)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D186" s="7">
         <f>ROUNDDOWN(0+IF(E185&lt;0,-E185/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12855,7 +12900,7 @@
       </c>
       <c r="E186" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>288</v>
@@ -12865,7 +12910,7 @@
       </c>
       <c r="H186" s="1">
         <f>IF(E186&gt;0,ROUNDUP(G186*E186,0),0)</f>
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
@@ -13020,7 +13065,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D31 D148 D150:D151 D179 D132 D135 D130 D164 D169 H112 H130 D26 D40 D49" formula="1"/>
+    <ignoredError sqref="D31 D148 D150:D151 D179 D132 D135 D130 D164 D169 H112 H130 D26 D40 D49 I143" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB2753A-94E0-4C65-B8AB-0227BEA31E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED94A6-DC4B-4E4C-AB9F-F8CA1B3EB4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="293">
   <si>
     <t>Material</t>
   </si>
@@ -934,6 +934,9 @@
   </si>
   <si>
     <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Mineral total</t>
   </si>
 </sst>
 </file>
@@ -1040,6 +1043,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1261,36 +1294,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1387,21 +1390,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8192BDAE-2D7E-4873-BCDD-ED55B1FA5209}" name="Tabla2" displayName="Tabla2" ref="B2:K190" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8192BDAE-2D7E-4873-BCDD-ED55B1FA5209}" name="Tabla2" displayName="Tabla2" ref="B2:K190" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B2:K190" xr:uid="{8192BDAE-2D7E-4873-BCDD-ED55B1FA5209}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5F77C36A-483C-4E46-9DD5-4643ED887F2C}" name="Material" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A59CBB83-7569-4AE3-847E-7DED03A3AA8E}" name="Cantidad" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{5DC94487-9397-486A-A92C-100C772E3310}" name="Inventario" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{8170C952-01B5-47CD-BC85-EF93FB795440}" name="Necesario" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{5F77C36A-483C-4E46-9DD5-4643ED887F2C}" name="Material" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{A59CBB83-7569-4AE3-847E-7DED03A3AA8E}" name="Cantidad" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{5DC94487-9397-486A-A92C-100C772E3310}" name="Inventario" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{8170C952-01B5-47CD-BC85-EF93FB795440}" name="Necesario" dataDxfId="9">
       <calculatedColumnFormula>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C056F6E3-398A-40B7-9D36-106CB9C2E415}" name="Días de farmeo" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{5F3925B2-A7BD-4A2B-9EAF-23BCB6CA9B43}" name="Resina" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{69D04F14-6AAC-4B2E-B388-396CCDF3A1F8}" name="Resina total" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{2BC8C4F1-CFA4-4707-8B33-88D8A1861B38}" name="Farmeo" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{56EFF590-C317-40C4-A36F-C5C27C91415B}" name="Inversión" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{5BBB3B3D-8E8E-414C-88ED-617C49494962}" name="Donde conseguir" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C056F6E3-398A-40B7-9D36-106CB9C2E415}" name="Días de farmeo" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{5F3925B2-A7BD-4A2B-9EAF-23BCB6CA9B43}" name="Resina" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{69D04F14-6AAC-4B2E-B388-396CCDF3A1F8}" name="Resina total" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{2BC8C4F1-CFA4-4707-8B33-88D8A1861B38}" name="Farmeo" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{56EFF590-C317-40C4-A36F-C5C27C91415B}" name="Inversión" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5BBB3B3D-8E8E-414C-88ED-617C49494962}" name="Donde conseguir" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1706,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706AD05-E9D7-4C6A-B33A-AF035FA29362}">
   <dimension ref="B2:G434"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C394" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6380,6 +6383,68 @@
     <sortCondition ref="G3:G434"/>
   </sortState>
   <mergeCells count="78">
+    <mergeCell ref="D406:D417"/>
+    <mergeCell ref="E406:E417"/>
+    <mergeCell ref="D418:D426"/>
+    <mergeCell ref="E418:E426"/>
+    <mergeCell ref="D379:D387"/>
+    <mergeCell ref="E379:E387"/>
+    <mergeCell ref="D388:D393"/>
+    <mergeCell ref="E388:E393"/>
+    <mergeCell ref="D394:D405"/>
+    <mergeCell ref="E394:E405"/>
+    <mergeCell ref="D345:D356"/>
+    <mergeCell ref="E345:E356"/>
+    <mergeCell ref="D357:D366"/>
+    <mergeCell ref="E357:E366"/>
+    <mergeCell ref="D367:D378"/>
+    <mergeCell ref="E367:E378"/>
+    <mergeCell ref="D313:D320"/>
+    <mergeCell ref="E313:E320"/>
+    <mergeCell ref="D321:D332"/>
+    <mergeCell ref="E321:E332"/>
+    <mergeCell ref="D333:D344"/>
+    <mergeCell ref="E333:E344"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E197:E223"/>
+    <mergeCell ref="E120:E131"/>
+    <mergeCell ref="E132:E146"/>
+    <mergeCell ref="E147:E161"/>
+    <mergeCell ref="E162:E176"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="E34:E48"/>
+    <mergeCell ref="E49:E59"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="D147:D161"/>
+    <mergeCell ref="D83:D97"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D120:D131"/>
+    <mergeCell ref="D132:D146"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="D197:D223"/>
+    <mergeCell ref="D162:D176"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D224:D228"/>
+    <mergeCell ref="E224:E228"/>
+    <mergeCell ref="D229:D233"/>
+    <mergeCell ref="E229:E233"/>
+    <mergeCell ref="D234:D245"/>
+    <mergeCell ref="E234:E245"/>
     <mergeCell ref="D427:D434"/>
     <mergeCell ref="E427:E434"/>
     <mergeCell ref="D268:D279"/>
@@ -6396,68 +6461,6 @@
     <mergeCell ref="E292:E303"/>
     <mergeCell ref="D304:D312"/>
     <mergeCell ref="E304:E312"/>
-    <mergeCell ref="D224:D228"/>
-    <mergeCell ref="E224:E228"/>
-    <mergeCell ref="D229:D233"/>
-    <mergeCell ref="E229:E233"/>
-    <mergeCell ref="D234:D245"/>
-    <mergeCell ref="E234:E245"/>
-    <mergeCell ref="D197:D223"/>
-    <mergeCell ref="D162:D176"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="D49:D59"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="D147:D161"/>
-    <mergeCell ref="D83:D97"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D120:D131"/>
-    <mergeCell ref="D132:D146"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E23"/>
-    <mergeCell ref="E24:E33"/>
-    <mergeCell ref="E34:E48"/>
-    <mergeCell ref="E49:E59"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="E197:E223"/>
-    <mergeCell ref="E120:E131"/>
-    <mergeCell ref="E132:E146"/>
-    <mergeCell ref="E147:E161"/>
-    <mergeCell ref="E162:E176"/>
-    <mergeCell ref="E177:E187"/>
-    <mergeCell ref="D313:D320"/>
-    <mergeCell ref="E313:E320"/>
-    <mergeCell ref="D321:D332"/>
-    <mergeCell ref="E321:E332"/>
-    <mergeCell ref="D333:D344"/>
-    <mergeCell ref="E333:E344"/>
-    <mergeCell ref="D345:D356"/>
-    <mergeCell ref="E345:E356"/>
-    <mergeCell ref="D357:D366"/>
-    <mergeCell ref="E357:E366"/>
-    <mergeCell ref="D367:D378"/>
-    <mergeCell ref="E367:E378"/>
-    <mergeCell ref="D406:D417"/>
-    <mergeCell ref="E406:E417"/>
-    <mergeCell ref="D418:D426"/>
-    <mergeCell ref="E418:E426"/>
-    <mergeCell ref="D379:D387"/>
-    <mergeCell ref="E379:E387"/>
-    <mergeCell ref="D388:D393"/>
-    <mergeCell ref="E388:E393"/>
-    <mergeCell ref="D394:D405"/>
-    <mergeCell ref="E394:E405"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6474,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6533,7 +6536,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Tabla2[Resina total])</f>
-        <v>114457</v>
+        <v>114054</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6542,15 +6545,15 @@
       </c>
       <c r="C3" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B3)+5000000-Tabla2[[#This Row],[Inversión]]</f>
-        <v>102841520</v>
+        <v>102164000</v>
       </c>
       <c r="D3" s="7">
         <f>8194442+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7543462</v>
+        <v>7397942</v>
       </c>
       <c r="E3" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>95298058</v>
+        <v>94766058</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>290</v>
@@ -6560,15 +6563,15 @@
       </c>
       <c r="H3" s="1">
         <f>IF(E3&gt;0,ROUNDUP(G3*E3/60000,0),0)</f>
-        <v>31767</v>
+        <v>31589</v>
       </c>
       <c r="I3" s="1">
-        <f>4725+4725+4725+4725+8000+8000+8000+8000+50000+8000+8000+8000+8100+8000</f>
-        <v>141000</v>
+        <f>4725+4725+4725+4725+8000+8000+8000+8000+50000+8000+8000+8000+8100+8000+480000+43200+4400+4400</f>
+        <v>673000</v>
       </c>
       <c r="J3" s="1">
-        <f>60000+60000+321000+800+30000+37500+17500+17500+17500+25000*3+5000+62340+10000+62840+15000</f>
-        <v>791980</v>
+        <f>60000+60000+321000+800+30000+37500+17500+17500+17500+25000*3+5000+62340+10000+62840+15000+100000+320000+2000+400+10000+62280+20000+62840+100000</f>
+        <v>1469500</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>226</v>
@@ -6583,12 +6586,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <f>57+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>53</v>
+        <f>116+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>114</v>
       </c>
       <c r="E4" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-53</v>
+        <v>-114</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>289</v>
@@ -6600,11 +6603,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <f>-2</f>
+        <v>-2</v>
       </c>
       <c r="J4" s="1">
-        <f>4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>265</v>
@@ -6614,7 +6617,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 11 meses y 16 días</v>
+        <v>1 año 11 meses y 13 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6626,12 +6629,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>ROUNDDOWN(530+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>219</v>
+        <f>ROUNDDOWN(260+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>280</v>
       </c>
       <c r="E5" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-219</v>
+        <v>-280</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>290</v>
@@ -6643,31 +6646,31 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <f>-2</f>
+        <v>-2</v>
       </c>
       <c r="J5" s="1">
-        <f>321</f>
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B6)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5537</v>
+        <v>5377</v>
       </c>
       <c r="D6" s="7">
-        <f>ROUNDDOWN(703+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>757</v>
+        <f>ROUNDDOWN(664+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>574</v>
       </c>
       <c r="E6" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>4780</v>
+        <v>4803</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>290</v>
@@ -6677,16 +6680,24 @@
       </c>
       <c r="H6" s="1">
         <f>IF(E6&gt;0,ROUNDUP(G6*E6/4,0),0)</f>
-        <v>23900</v>
+        <v>24015</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <f>80+80</f>
+        <v>160</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" s="1">
+        <f>E9</f>
+        <v>10750</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6695,15 +6706,15 @@
       </c>
       <c r="C7" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B7)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>439+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>438</v>
+        <f>489+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-439</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>290</v>
@@ -6715,31 +6726,31 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <f>-1-487-1</f>
+        <v>-489</v>
       </c>
       <c r="J7" s="1">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C8" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B8)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>-304</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>ROUNDDOWN(568+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>351</v>
+        <f>ROUNDDOWN(633+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-655</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>290</v>
@@ -6751,14 +6762,21 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <f>-304-265-64</f>
+        <v>-633</v>
       </c>
       <c r="J8" s="1">
-        <f>300+4</f>
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>226</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f>DATEDIF(0,ROUNDUP(N6/5,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"md")=1," día", " días")</f>
+        <v>5 años 10 meses y 19 días</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -6767,15 +6785,15 @@
       </c>
       <c r="C9" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B9)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11977</v>
+        <v>11834</v>
       </c>
       <c r="D9" s="7">
-        <f>ROUNDDOWN(1156+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1235</v>
+        <f>ROUNDDOWN(1279+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1084</v>
       </c>
       <c r="E9" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10742</v>
+        <v>10750</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>290</v>
@@ -6791,8 +6809,8 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f>62</f>
-        <v>62</v>
+        <f>62+50+93</f>
+        <v>205</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>226</v>
@@ -6845,11 +6863,11 @@
       </c>
       <c r="D11" s="7">
         <f>66+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-70</v>
+        <v>-76</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>290</v>
@@ -6862,8 +6880,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>1+2+1+1</f>
-        <v>5</v>
+        <f>1+2+1+1+6</f>
+        <v>11</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6882,11 +6900,11 @@
       </c>
       <c r="D12" s="7">
         <f>7+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>290</v>
@@ -6899,8 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>1+3+2+2</f>
-        <v>8</v>
+        <f>1+3+2+2+6</f>
+        <v>14</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6919,11 +6937,11 @@
       </c>
       <c r="D13" s="7">
         <f>29+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>290</v>
@@ -6936,8 +6954,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>-27+3+2-6+2+1</f>
-        <v>-25</v>
+        <f>-27+3+2-6+2+1+5</f>
+        <v>-20</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -6956,11 +6974,11 @@
       </c>
       <c r="D14" s="7">
         <f>38+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-44</v>
+        <v>-50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>290</v>
@@ -6973,8 +6991,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>2+3+3</f>
-        <v>8</v>
+        <f>2+3+3+6</f>
+        <v>14</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -6993,11 +7011,11 @@
       </c>
       <c r="D15" s="7">
         <f>52+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E15" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-57</v>
+        <v>-63</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>290</v>
@@ -7010,8 +7028,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>2+1+2+1</f>
-        <v>6</v>
+        <f>2+1+2+1+6</f>
+        <v>12</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7067,11 +7085,11 @@
       </c>
       <c r="D17" s="7">
         <f>ROUNDDOWN(31+IF(E11&lt;0,-E11/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-53</v>
+        <v>-40</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>290</v>
@@ -7084,8 +7102,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>1+6+1</f>
-        <v>8</v>
+        <f>1+6+1-15</f>
+        <v>-7</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -7104,11 +7122,11 @@
       </c>
       <c r="D18" s="7">
         <f>ROUNDDOWN(19+IF(E12&lt;0,-E12/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>290</v>
@@ -7141,11 +7159,11 @@
       </c>
       <c r="D19" s="7">
         <f>ROUNDDOWN(17+IF(E13&lt;0,-E13/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7179,11 +7197,11 @@
       </c>
       <c r="D20" s="7">
         <f>ROUNDDOWN(17+IF(E14&lt;0,-E14/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>290</v>
@@ -7216,11 +7234,11 @@
       </c>
       <c r="D21" s="7">
         <f>ROUNDDOWN(26+IF(E15&lt;0,-E15/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-43</v>
+        <v>-45</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>290</v>
@@ -7285,15 +7303,15 @@
       </c>
       <c r="C23" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B23)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
         <f>ROUNDDOWN(1+IF(E17&lt;0,-E17/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>290</v>
@@ -7306,10 +7324,12 @@
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <f>6</f>
+        <v>6</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>227</v>
@@ -7325,11 +7345,11 @@
       </c>
       <c r="D24" s="7">
         <f>ROUNDDOWN(1+IF(E18&lt;0,-E18/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>290</v>
@@ -7339,7 +7359,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -7357,11 +7377,11 @@
       </c>
       <c r="C25" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B25)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
         <f>ROUNDDOWN(0+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E25" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -7382,7 +7402,8 @@
         <v>6</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <f>6</f>
+        <v>6</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>231</v>
@@ -7398,11 +7419,11 @@
       </c>
       <c r="D26" s="7">
         <f>ROUNDDOWN(5+IF(E20&lt;0,-E20/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>290</v>
@@ -7412,7 +7433,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -7434,11 +7455,11 @@
       </c>
       <c r="D27" s="7">
         <f>ROUNDDOWN(0+IF(E21&lt;0,-E21/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>290</v>
@@ -7448,7 +7469,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I27" s="1">
         <f>1</f>
@@ -7719,15 +7740,15 @@
       </c>
       <c r="C35" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B35)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D35" s="7">
-        <f>19+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>21+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>9</v>
       </c>
       <c r="E35" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>290</v>
@@ -7737,13 +7758,14 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ref="H35:H42" si="1">IF(E35&gt;0,ROUNDUP(G35*E35/2,0),0)</f>
-        <v>1180</v>
+        <v>1140</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>233</v>
@@ -7791,11 +7813,11 @@
       </c>
       <c r="C37" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B37)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D37" s="7">
         <f>16+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -7815,8 +7837,8 @@
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f>4</f>
-        <v>4</v>
+        <f>4+12</f>
+        <v>16</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>234</v>
@@ -8045,15 +8067,15 @@
       </c>
       <c r="C44" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B44)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D44" s="7">
-        <f>18+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>18</v>
+        <f>21+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E44" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
@@ -8065,10 +8087,12 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <f>28</f>
+        <v>28</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <f>45</f>
+        <v>45</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>239</v>
@@ -8150,11 +8174,11 @@
       </c>
       <c r="C47" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B47)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D47" s="7">
         <f>149+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="E47" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -8173,7 +8197,8 @@
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <f>45</f>
+        <v>45</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>239</v>
@@ -8536,15 +8561,15 @@
       </c>
       <c r="C58" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B58)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D58" s="7">
-        <f>372+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>372</v>
+        <f>398+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>383</v>
       </c>
       <c r="E58" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-349</v>
+        <v>-375</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>290</v>
@@ -8559,7 +8584,8 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <f>3+12</f>
+        <v>15</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>240</v>
@@ -8575,11 +8601,11 @@
       </c>
       <c r="D59" s="7">
         <f>ROUNDDOWN(45+IF(E58&lt;0,-E58/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E59" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-114</v>
+        <v>-123</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>290</v>
@@ -8610,11 +8636,11 @@
       </c>
       <c r="D60" s="7">
         <f>ROUNDDOWN(41+IF(E59&lt;0,-E59/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E60" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>290</v>
@@ -8712,15 +8738,15 @@
       </c>
       <c r="C63" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B63)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D63" s="7">
-        <f>ROUNDDOWN(41+IF(E62&lt;0,-E62/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>41</v>
+        <f>ROUNDDOWN(43+IF(E62&lt;0,-E62/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>31</v>
       </c>
       <c r="E63" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>290</v>
@@ -8735,7 +8761,8 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>241</v>
@@ -8963,12 +8990,12 @@
         <v>10</v>
       </c>
       <c r="D70" s="7">
-        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>12+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E70" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>290</v>
@@ -8998,12 +9025,12 @@
         <v>111</v>
       </c>
       <c r="D71" s="7">
-        <f>ROUNDDOWN(1+IF(E70&lt;0,-E70/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>ROUNDDOWN(59+IF(E70&lt;0,-E70/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>53</v>
       </c>
       <c r="E71" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>290</v>
@@ -9015,7 +9042,8 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <f>-6</f>
+        <v>-6</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -9030,15 +9058,15 @@
       </c>
       <c r="C72" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B72)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D72" s="7">
-        <f>ROUNDDOWN(5+IF(E71&lt;0,-E71/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>ROUNDDOWN(10+IF(E71&lt;0,-E71/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E72" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>290</v>
@@ -9050,10 +9078,12 @@
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>244</v>
@@ -10223,11 +10253,11 @@
       </c>
       <c r="C106" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B106)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D106" s="7">
         <f>601+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="E106" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -10246,7 +10276,8 @@
         <v>0</v>
       </c>
       <c r="J106" s="1">
-        <v>0</v>
+        <f>5+18</f>
+        <v>23</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>256</v>
@@ -11996,15 +12027,15 @@
       </c>
       <c r="C159" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B159)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D159" s="7">
-        <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
         <v>3</v>
       </c>
       <c r="E159" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>286</v>
@@ -12014,13 +12045,15 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I159" s="1">
-        <v>0</v>
+        <f>4+4</f>
+        <v>8</v>
       </c>
       <c r="J159" s="1">
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
@@ -12029,15 +12062,15 @@
       </c>
       <c r="C160" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B160)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D160" s="7">
-        <f>ROUNDDOWN(3+IF(E159&lt;0,-E159/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(0+IF(E159&lt;0,-E159/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E160" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>286</v>
@@ -12047,13 +12080,15 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="I160" s="1">
-        <v>0</v>
+        <f>3+3</f>
+        <v>6</v>
       </c>
       <c r="J160" s="1">
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
@@ -12066,11 +12101,11 @@
       </c>
       <c r="D161" s="7">
         <f>ROUNDDOWN(0+IF(E160&lt;0,-E160/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E161" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>286</v>
@@ -12080,10 +12115,11 @@
       </c>
       <c r="H161" s="1">
         <f>IF(E161&gt;0,ROUNDUP(G161*E161,0),0)</f>
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="I161" s="1">
-        <v>0</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
       <c r="J161" s="1">
         <v>0</v>
@@ -12099,11 +12135,11 @@
       </c>
       <c r="D162" s="7">
         <f>ROUNDDOWN(0+IF(E161&lt;0,-E161/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E162" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>286</v>
@@ -12113,10 +12149,11 @@
       </c>
       <c r="H162" s="1">
         <f>IF(E162&gt;0,ROUNDUP(G162*E162,0),0)</f>
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="I162" s="1">
-        <v>0</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="J162" s="1">
         <v>0</v>
@@ -13053,22 +13090,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E190">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D31 D148 D150:D151 D179 D132 D135 D130 D164 D169 H112 H130 D26 D40 D49 I143" formula="1"/>
+    <ignoredError sqref="D31 D148 D150:D151 D179 D132 D135 D130 D164 D169 H112 H130 D26 D40 D49 I143 D159" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giovanni\Desktop\Maestría\Git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED94A6-DC4B-4E4C-AB9F-F8CA1B3EB4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48145F24-926E-4693-8A27-90D537DCCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Personajes y armas" sheetId="2" r:id="rId1"/>
@@ -1043,36 +1043,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1294,6 +1264,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1390,21 +1390,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8192BDAE-2D7E-4873-BCDD-ED55B1FA5209}" name="Tabla2" displayName="Tabla2" ref="B2:K190" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8192BDAE-2D7E-4873-BCDD-ED55B1FA5209}" name="Tabla2" displayName="Tabla2" ref="B2:K190" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B2:K190" xr:uid="{8192BDAE-2D7E-4873-BCDD-ED55B1FA5209}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5F77C36A-483C-4E46-9DD5-4643ED887F2C}" name="Material" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A59CBB83-7569-4AE3-847E-7DED03A3AA8E}" name="Cantidad" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{5DC94487-9397-486A-A92C-100C772E3310}" name="Inventario" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{8170C952-01B5-47CD-BC85-EF93FB795440}" name="Necesario" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{5F77C36A-483C-4E46-9DD5-4643ED887F2C}" name="Material" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A59CBB83-7569-4AE3-847E-7DED03A3AA8E}" name="Cantidad" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{5DC94487-9397-486A-A92C-100C772E3310}" name="Inventario" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{8170C952-01B5-47CD-BC85-EF93FB795440}" name="Necesario" dataDxfId="6">
       <calculatedColumnFormula>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C056F6E3-398A-40B7-9D36-106CB9C2E415}" name="Días de farmeo" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{5F3925B2-A7BD-4A2B-9EAF-23BCB6CA9B43}" name="Resina" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{69D04F14-6AAC-4B2E-B388-396CCDF3A1F8}" name="Resina total" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{2BC8C4F1-CFA4-4707-8B33-88D8A1861B38}" name="Farmeo" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{56EFF590-C317-40C4-A36F-C5C27C91415B}" name="Inversión" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5BBB3B3D-8E8E-414C-88ED-617C49494962}" name="Donde conseguir" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C056F6E3-398A-40B7-9D36-106CB9C2E415}" name="Días de farmeo" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5F3925B2-A7BD-4A2B-9EAF-23BCB6CA9B43}" name="Resina" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{69D04F14-6AAC-4B2E-B388-396CCDF3A1F8}" name="Resina total" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{2BC8C4F1-CFA4-4707-8B33-88D8A1861B38}" name="Farmeo" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{56EFF590-C317-40C4-A36F-C5C27C91415B}" name="Inversión" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{5BBB3B3D-8E8E-414C-88ED-617C49494962}" name="Donde conseguir" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6478,7 +6478,7 @@
   <dimension ref="B2:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Tabla2[Resina total])</f>
-        <v>114054</v>
+        <v>113894</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 11 meses y 13 días</v>
+        <v>1 año 11 meses y 12 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6937,11 +6937,11 @@
       </c>
       <c r="D13" s="7">
         <f>29+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>290</v>
@@ -6954,8 +6954,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>-27+3+2-6+2+1+5</f>
-        <v>-20</v>
+        <f>-27+3+2-6+2+1+5+11-18</f>
+        <v>-27</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -7159,11 +7159,11 @@
       </c>
       <c r="D19" s="7">
         <f>ROUNDDOWN(17+IF(E13&lt;0,-E13/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7176,8 +7176,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>9-12+1+1+2-6+2+4+2</f>
-        <v>3</v>
+        <f>9-12+1+1+2-6+2+4+2+10-18</f>
+        <v>-5</v>
       </c>
       <c r="J19" s="1">
         <f>6+6</f>
@@ -7380,12 +7380,12 @@
         <v>27</v>
       </c>
       <c r="D25" s="7">
-        <f>ROUNDDOWN(0+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(1+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E25" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>290</v>
@@ -7395,11 +7395,11 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="I25" s="1">
-        <f>4+2</f>
-        <v>6</v>
+        <f>4+2+6</f>
+        <v>12</v>
       </c>
       <c r="J25" s="1">
         <f>6</f>
@@ -13090,13 +13090,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E190">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giovanni\Desktop\Maestría\Git\Archivos_publicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48145F24-926E-4693-8A27-90D537DCCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9D8536-D36B-4D6D-9E21-8E4DF592C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Personajes y armas" sheetId="2" r:id="rId1"/>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706AD05-E9D7-4C6A-B33A-AF035FA29362}">
   <dimension ref="B2:G434"/>
   <sheetViews>
-    <sheetView topLeftCell="A389" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C394" sqref="C394"/>
+    <sheetView topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6383,68 +6383,6 @@
     <sortCondition ref="G3:G434"/>
   </sortState>
   <mergeCells count="78">
-    <mergeCell ref="D406:D417"/>
-    <mergeCell ref="E406:E417"/>
-    <mergeCell ref="D418:D426"/>
-    <mergeCell ref="E418:E426"/>
-    <mergeCell ref="D379:D387"/>
-    <mergeCell ref="E379:E387"/>
-    <mergeCell ref="D388:D393"/>
-    <mergeCell ref="E388:E393"/>
-    <mergeCell ref="D394:D405"/>
-    <mergeCell ref="E394:E405"/>
-    <mergeCell ref="D345:D356"/>
-    <mergeCell ref="E345:E356"/>
-    <mergeCell ref="D357:D366"/>
-    <mergeCell ref="E357:E366"/>
-    <mergeCell ref="D367:D378"/>
-    <mergeCell ref="E367:E378"/>
-    <mergeCell ref="D313:D320"/>
-    <mergeCell ref="E313:E320"/>
-    <mergeCell ref="D321:D332"/>
-    <mergeCell ref="E321:E332"/>
-    <mergeCell ref="D333:D344"/>
-    <mergeCell ref="E333:E344"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="E197:E223"/>
-    <mergeCell ref="E120:E131"/>
-    <mergeCell ref="E132:E146"/>
-    <mergeCell ref="E147:E161"/>
-    <mergeCell ref="E162:E176"/>
-    <mergeCell ref="E177:E187"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E23"/>
-    <mergeCell ref="E24:E33"/>
-    <mergeCell ref="E34:E48"/>
-    <mergeCell ref="E49:E59"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="D147:D161"/>
-    <mergeCell ref="D83:D97"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D120:D131"/>
-    <mergeCell ref="D132:D146"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="D49:D59"/>
-    <mergeCell ref="D197:D223"/>
-    <mergeCell ref="D162:D176"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="D224:D228"/>
-    <mergeCell ref="E224:E228"/>
-    <mergeCell ref="D229:D233"/>
-    <mergeCell ref="E229:E233"/>
-    <mergeCell ref="D234:D245"/>
-    <mergeCell ref="E234:E245"/>
     <mergeCell ref="D427:D434"/>
     <mergeCell ref="E427:E434"/>
     <mergeCell ref="D268:D279"/>
@@ -6461,6 +6399,68 @@
     <mergeCell ref="E292:E303"/>
     <mergeCell ref="D304:D312"/>
     <mergeCell ref="E304:E312"/>
+    <mergeCell ref="D224:D228"/>
+    <mergeCell ref="E224:E228"/>
+    <mergeCell ref="D229:D233"/>
+    <mergeCell ref="E229:E233"/>
+    <mergeCell ref="D234:D245"/>
+    <mergeCell ref="E234:E245"/>
+    <mergeCell ref="D197:D223"/>
+    <mergeCell ref="D162:D176"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="D147:D161"/>
+    <mergeCell ref="D83:D97"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D120:D131"/>
+    <mergeCell ref="D132:D146"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="E34:E48"/>
+    <mergeCell ref="E49:E59"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E197:E223"/>
+    <mergeCell ref="E120:E131"/>
+    <mergeCell ref="E132:E146"/>
+    <mergeCell ref="E147:E161"/>
+    <mergeCell ref="E162:E176"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="D313:D320"/>
+    <mergeCell ref="E313:E320"/>
+    <mergeCell ref="D321:D332"/>
+    <mergeCell ref="E321:E332"/>
+    <mergeCell ref="D333:D344"/>
+    <mergeCell ref="E333:E344"/>
+    <mergeCell ref="D345:D356"/>
+    <mergeCell ref="E345:E356"/>
+    <mergeCell ref="D357:D366"/>
+    <mergeCell ref="E357:E366"/>
+    <mergeCell ref="D367:D378"/>
+    <mergeCell ref="E367:E378"/>
+    <mergeCell ref="D406:D417"/>
+    <mergeCell ref="E406:E417"/>
+    <mergeCell ref="D418:D426"/>
+    <mergeCell ref="E418:E426"/>
+    <mergeCell ref="D379:D387"/>
+    <mergeCell ref="E379:E387"/>
+    <mergeCell ref="D388:D393"/>
+    <mergeCell ref="E388:E393"/>
+    <mergeCell ref="D394:D405"/>
+    <mergeCell ref="E394:E405"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Tabla2[Resina total])</f>
-        <v>113894</v>
+        <v>107869</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6545,15 +6545,15 @@
       </c>
       <c r="C3" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B3)+5000000-Tabla2[[#This Row],[Inversión]]</f>
-        <v>102164000</v>
+        <v>100046480</v>
       </c>
       <c r="D3" s="7">
-        <f>8194442+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7397942</v>
+        <f>11415730+2821120+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10710130</v>
       </c>
       <c r="E3" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>94766058</v>
+        <v>89336350</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>290</v>
@@ -6563,15 +6563,15 @@
       </c>
       <c r="H3" s="1">
         <f>IF(E3&gt;0,ROUNDUP(G3*E3/60000,0),0)</f>
-        <v>31589</v>
+        <v>29779</v>
       </c>
       <c r="I3" s="1">
-        <f>4725+4725+4725+4725+8000+8000+8000+8000+50000+8000+8000+8000+8100+8000+480000+43200+4400+4400</f>
-        <v>673000</v>
+        <f>8100*5+4400*4+2200</f>
+        <v>60300</v>
       </c>
       <c r="J3" s="1">
-        <f>60000+60000+321000+800+30000+37500+17500+17500+17500+25000*3+5000+62340+10000+62840+15000+100000+320000+2000+400+10000+62280+20000+62840+100000</f>
-        <v>1469500</v>
+        <f>2626120+37500*2+120000+80000+236000+3000+200+30000*3+37500+80000+236000+3000+200</f>
+        <v>3587020</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>226</v>
@@ -6586,12 +6586,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <f>116+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>114</v>
+        <f>186+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>186</v>
       </c>
       <c r="E4" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-114</v>
+        <v>-186</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>289</v>
@@ -6603,8 +6603,8 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>-2</f>
-        <v>-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 11 meses y 12 días</v>
+        <v>1 año 10 meses y 5 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6629,12 +6629,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>ROUNDDOWN(260+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>280</v>
+        <f>ROUNDDOWN(422+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>459</v>
       </c>
       <c r="E5" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-280</v>
+        <v>-459</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>290</v>
@@ -6646,8 +6646,8 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>-2</f>
-        <v>-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -6662,15 +6662,15 @@
       </c>
       <c r="C6" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B6)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5377</v>
+        <v>5200</v>
       </c>
       <c r="D6" s="7">
-        <f>ROUNDDOWN(664+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>574</v>
+        <f>ROUNDDOWN(750+219+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>746</v>
       </c>
       <c r="E6" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>4803</v>
+        <v>4454</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>290</v>
@@ -6680,14 +6680,14 @@
       </c>
       <c r="H6" s="1">
         <f>IF(E6&gt;0,ROUNDUP(G6*E6/4,0),0)</f>
-        <v>24015</v>
+        <v>22270</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>80+80</f>
-        <v>160</v>
+        <f>80+80+59+59+59</f>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="N6" s="1">
         <f>E9</f>
-        <v>10750</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6709,12 +6709,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>489+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>408+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>408</v>
       </c>
       <c r="E7" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-408</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>290</v>
@@ -6726,8 +6726,8 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>-1-487-1</f>
-        <v>-489</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -6745,12 +6745,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>ROUNDDOWN(633+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(290+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>371</v>
       </c>
       <c r="E8" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-371</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>290</v>
@@ -6762,8 +6762,8 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>-304-265-64</f>
-        <v>-633</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="N8" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N6/5,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"md")=1," día", " días")</f>
-        <v>5 años 10 meses y 19 días</v>
+        <v>5 años 4 meses y 27 días</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -6785,15 +6785,15 @@
       </c>
       <c r="C9" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B9)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11834</v>
+        <v>11705</v>
       </c>
       <c r="D9" s="7">
-        <f>ROUNDDOWN(1279+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1084</v>
+        <f>ROUNDDOWN(1754+334+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1838</v>
       </c>
       <c r="E9" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10750</v>
+        <v>9867</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>290</v>
@@ -6809,8 +6809,8 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f>62+50+93</f>
-        <v>205</v>
+        <f>62+50+93+129</f>
+        <v>334</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>226</v>
@@ -6825,12 +6825,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f>40+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>42</v>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E10" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-42</v>
+        <v>-6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>290</v>
@@ -6843,8 +6843,8 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>2+1+1</f>
+        <v>4</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6862,12 +6862,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <f>66+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>77</v>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E11" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-76</v>
+        <v>-5</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>290</v>
@@ -6880,8 +6880,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>1+2+1+1+6</f>
-        <v>11</v>
+        <f>3+1</f>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6899,12 +6899,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <f>7+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>21</v>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>290</v>
@@ -6917,8 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>1+3+2+2+6</f>
-        <v>14</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="7">
-        <f>29+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
         <v>2</v>
       </c>
       <c r="E13" s="7">
@@ -6954,8 +6954,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>-27+3+2-6+2+1+5+11-18</f>
-        <v>-27</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -6973,12 +6973,12 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <f>38+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>52</v>
+        <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E14" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-50</v>
+        <v>-3</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>290</v>
@@ -6991,8 +6991,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>2+3+3+6</f>
-        <v>14</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -7010,12 +7010,12 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <f>52+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>64</v>
+        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E15" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-63</v>
+        <v>-4</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>290</v>
@@ -7028,8 +7028,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>2+1+2+1+6</f>
-        <v>12</v>
+        <f>1+1+2</f>
+        <v>4</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7047,12 +7047,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>ROUNDDOWN(28+IF(E10&lt;0,-E10/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>57</v>
+        <f>ROUNDDOWN(0+IF(E10&lt;0,-E10/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E16" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-57</v>
+        <v>-5</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>290</v>
@@ -7065,8 +7065,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>3+2+1+6+3</f>
-        <v>15</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7084,12 +7084,12 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <f>ROUNDDOWN(31+IF(E11&lt;0,-E11/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>49</v>
+        <f>ROUNDDOWN(9+IF(E11&lt;0,-E11/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E17" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-40</v>
+        <v>-3</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>290</v>
@@ -7102,8 +7102,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>1+6+1-15</f>
-        <v>-7</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -7121,12 +7121,12 @@
         <v>9</v>
       </c>
       <c r="D18" s="7">
-        <f>ROUNDDOWN(19+IF(E12&lt;0,-E12/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>34</v>
+        <f>ROUNDDOWN(10+IF(E12&lt;0,-E12/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E18" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-25</v>
+        <v>-3</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>290</v>
@@ -7139,8 +7139,8 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>1+6+2</f>
-        <v>9</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -7158,12 +7158,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <f>ROUNDDOWN(17+IF(E13&lt;0,-E13/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(0+IF(E13&lt;0,-E13/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7176,8 +7176,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>9-12+1+1+2-6+2+4+2+10-18</f>
-        <v>-5</v>
+        <f>12+1+1</f>
+        <v>14</v>
       </c>
       <c r="J19" s="1">
         <f>6+6</f>
@@ -7196,12 +7196,12 @@
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <f>ROUNDDOWN(17+IF(E14&lt;0,-E14/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <f>ROUNDDOWN(18+IF(E14&lt;0,-E14/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E20" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>290</v>
@@ -7233,12 +7233,12 @@
         <v>9</v>
       </c>
       <c r="D21" s="7">
-        <f>ROUNDDOWN(26+IF(E15&lt;0,-E15/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>54</v>
+        <f>ROUNDDOWN(10+IF(E15&lt;0,-E15/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>13</v>
       </c>
       <c r="E21" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-45</v>
+        <v>-4</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>290</v>
@@ -7251,8 +7251,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>1+1+2+3</f>
-        <v>7</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7267,11 +7267,11 @@
       </c>
       <c r="C22" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B22)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <f>ROUNDDOWN(1+IF(E16&lt;0,-E16/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>20</v>
+        <f>ROUNDDOWN(18+IF(E16&lt;0,-E16/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>14</v>
       </c>
       <c r="E22" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -7288,10 +7288,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <f>3+3</f>
+        <v>6</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>232</v>
@@ -7306,12 +7308,12 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <f>ROUNDDOWN(1+IF(E17&lt;0,-E17/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>13</v>
+        <f>ROUNDDOWN(17+IF(E17&lt;0,-E17/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E23" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>290</v>
@@ -7324,8 +7326,8 @@
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>5</f>
-        <v>5</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <f>6</f>
@@ -7344,12 +7346,12 @@
         <v>9</v>
       </c>
       <c r="D24" s="7">
-        <f>ROUNDDOWN(1+IF(E18&lt;0,-E18/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <f>ROUNDDOWN(11+IF(E18&lt;0,-E18/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E24" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>290</v>
@@ -7380,12 +7382,12 @@
         <v>27</v>
       </c>
       <c r="D25" s="7">
-        <f>ROUNDDOWN(1+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <f>ROUNDDOWN(11+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E25" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>290</v>
@@ -7395,11 +7397,11 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="I25" s="1">
-        <f>4+2+6</f>
-        <v>12</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <f>6</f>
@@ -7418,12 +7420,12 @@
         <v>24</v>
       </c>
       <c r="D26" s="7">
-        <f>ROUNDDOWN(5+IF(E20&lt;0,-E20/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <f>ROUNDDOWN(9+IF(E20&lt;0,-E20/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>9</v>
       </c>
       <c r="E26" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>290</v>
@@ -7433,7 +7435,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -7454,12 +7456,12 @@
         <v>18</v>
       </c>
       <c r="D27" s="7">
-        <f>ROUNDDOWN(0+IF(E21&lt;0,-E21/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>16</v>
+        <f>ROUNDDOWN(20+IF(E21&lt;0,-E21/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>22</v>
       </c>
       <c r="E27" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>290</v>
@@ -7469,7 +7471,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
         <f>1</f>
@@ -7491,12 +7493,12 @@
         <v>24</v>
       </c>
       <c r="D28" s="7">
-        <f>ROUNDDOWN(8+IF(E22&lt;0,-E22/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <f>ROUNDDOWN(9+IF(E22&lt;0,-E22/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>9</v>
       </c>
       <c r="E28" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>290</v>
@@ -7506,7 +7508,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -7527,12 +7529,12 @@
         <v>12</v>
       </c>
       <c r="D29" s="7">
-        <f>ROUNDDOWN(1+IF(E23&lt;0,-E23/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>ROUNDDOWN(3+IF(E23&lt;0,-E23/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E29" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>290</v>
@@ -7542,7 +7544,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -7564,11 +7566,11 @@
       </c>
       <c r="D30" s="7">
         <f>ROUNDDOWN(0+IF(E24&lt;0,-E24/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>290</v>
@@ -7578,7 +7580,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -7600,11 +7602,11 @@
       </c>
       <c r="D31" s="7">
         <f>ROUNDDOWN(2+IF(E25&lt;0,-E25/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>290</v>
@@ -7614,10 +7616,11 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -7672,11 +7675,11 @@
       </c>
       <c r="D33" s="7">
         <f>ROUNDDOWN(1+IF(E27&lt;0,-E27/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>290</v>
@@ -7686,7 +7689,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -7704,11 +7707,11 @@
       </c>
       <c r="C34" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B34)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D34" s="7">
         <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -7728,7 +7731,8 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <f>8</f>
+        <v>8</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>6</v>
@@ -7743,12 +7747,12 @@
         <v>66</v>
       </c>
       <c r="D35" s="7">
-        <f>21+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <f>24+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E35" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>290</v>
@@ -7758,7 +7762,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ref="H35:H42" si="1">IF(E35&gt;0,ROUNDUP(G35*E35/2,0),0)</f>
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -7780,12 +7784,12 @@
         <v>46</v>
       </c>
       <c r="D36" s="7">
-        <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>3</v>
       </c>
       <c r="E36" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>290</v>
@@ -7795,7 +7799,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -7816,12 +7820,12 @@
         <v>60</v>
       </c>
       <c r="D37" s="7">
-        <f>16+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>21+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E37" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>290</v>
@@ -7831,7 +7835,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -7853,12 +7857,12 @@
         <v>46</v>
       </c>
       <c r="D38" s="7">
-        <f>6+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>10+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E38" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>290</v>
@@ -7868,7 +7872,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -7886,11 +7890,11 @@
       </c>
       <c r="C39" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B39)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D39" s="7">
         <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E39" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -7910,7 +7914,8 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <f>8</f>
+        <v>8</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>236</v>
@@ -7925,12 +7930,12 @@
         <v>80</v>
       </c>
       <c r="D40" s="7">
-        <f>8+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E40" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>290</v>
@@ -7940,11 +7945,11 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>1420</v>
+        <v>1580</v>
       </c>
       <c r="I40" s="1">
-        <f>3+2</f>
-        <v>5</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>4</v>
@@ -7962,12 +7967,12 @@
         <v>78</v>
       </c>
       <c r="D41" s="7">
-        <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>13</v>
+        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E41" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>290</v>
@@ -7977,11 +7982,11 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>1300</v>
+        <v>1540</v>
       </c>
       <c r="I41" s="1">
-        <f>2+2</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -8035,12 +8040,12 @@
         <v>195</v>
       </c>
       <c r="D43" s="7">
-        <f>122+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>102</v>
+        <f>135+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>115</v>
       </c>
       <c r="E43" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
@@ -8070,12 +8075,12 @@
         <v>60</v>
       </c>
       <c r="D44" s="7">
-        <f>21+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>54+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>17</v>
       </c>
       <c r="E44" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
@@ -8087,8 +8092,8 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>28</f>
-        <v>28</v>
+        <f>8</f>
+        <v>8</v>
       </c>
       <c r="J44" s="1">
         <f>45</f>
@@ -8107,12 +8112,12 @@
         <v>60</v>
       </c>
       <c r="D45" s="7">
-        <f>36+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>36</v>
+        <f>57+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>57</v>
       </c>
       <c r="E45" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -8142,12 +8147,12 @@
         <v>168</v>
       </c>
       <c r="D46" s="7">
-        <f>65+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>103+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>103</v>
+      </c>
+      <c r="E46" s="7">
+        <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
         <v>65</v>
-      </c>
-      <c r="E46" s="7">
-        <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>103</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
@@ -8213,12 +8218,12 @@
         <v>135</v>
       </c>
       <c r="D48" s="7">
-        <f>8+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>24+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E48" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -8230,7 +8235,8 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>14</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
         <v>20</v>
@@ -8245,15 +8251,15 @@
       </c>
       <c r="C49" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B49)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D49" s="7">
-        <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <f>41+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>11</v>
       </c>
       <c r="E49" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
@@ -8268,7 +8274,8 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <f>30</f>
+        <v>30</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>239</v>
@@ -8283,12 +8290,12 @@
         <v>168</v>
       </c>
       <c r="D50" s="7">
-        <f>8+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E50" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -8315,15 +8322,15 @@
       </c>
       <c r="C51" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B51)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D51" s="7">
-        <f>42+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>42</v>
+        <f>40+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E51" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -8338,7 +8345,8 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <f>30</f>
+        <v>30</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>239</v>
@@ -8353,12 +8361,12 @@
         <v>135</v>
       </c>
       <c r="D52" s="7">
-        <f>81+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>81</v>
+        <f>86+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>86</v>
       </c>
       <c r="E52" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -8388,12 +8396,12 @@
         <v>168</v>
       </c>
       <c r="D53" s="7">
-        <f>56+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>56</v>
+        <f>70+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>70</v>
       </c>
       <c r="E53" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -8423,12 +8431,12 @@
         <v>168</v>
       </c>
       <c r="D54" s="7">
-        <f>64+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>67</v>
+        <f>84+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>84</v>
       </c>
       <c r="E54" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -8440,8 +8448,8 @@
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f>3</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -8459,12 +8467,12 @@
         <v>168</v>
       </c>
       <c r="D55" s="7">
-        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>4+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E55" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -8494,12 +8502,12 @@
         <v>135</v>
       </c>
       <c r="D56" s="7">
-        <f>43+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>43</v>
+        <f>56+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>56</v>
       </c>
       <c r="E56" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -8529,12 +8537,12 @@
         <v>105</v>
       </c>
       <c r="D57" s="7">
-        <f>78+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>78</v>
+        <f>33+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>33</v>
       </c>
       <c r="E57" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
@@ -8564,12 +8572,12 @@
         <v>8</v>
       </c>
       <c r="D58" s="7">
-        <f>398+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>383</v>
+        <f>20+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E58" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-375</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>290</v>
@@ -8597,15 +8605,15 @@
       </c>
       <c r="C59" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B59)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D59" s="7">
-        <f>ROUNDDOWN(45+IF(E58&lt;0,-E58/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>170</v>
+        <f>ROUNDDOWN(47+IF(E58&lt;0,-E58/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>38</v>
       </c>
       <c r="E59" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>290</v>
@@ -8620,7 +8628,8 @@
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <f>9</f>
+        <v>9</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>240</v>
@@ -8635,12 +8644,12 @@
         <v>126</v>
       </c>
       <c r="D60" s="7">
-        <f>ROUNDDOWN(41+IF(E59&lt;0,-E59/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>82</v>
+        <f>ROUNDDOWN(102+IF(E59&lt;0,-E59/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>102</v>
       </c>
       <c r="E60" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>290</v>
@@ -8670,12 +8679,12 @@
         <v>36</v>
       </c>
       <c r="D61" s="7">
-        <f>477+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>477</v>
+        <f>37+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>37</v>
       </c>
       <c r="E61" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-441</v>
+        <v>-1</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>290</v>
@@ -8702,15 +8711,15 @@
       </c>
       <c r="C62" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B62)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="D62" s="7">
-        <f>ROUNDDOWN(82+IF(E61&lt;0,-E61/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>211</v>
+        <f>ROUNDDOWN(217+39+18+IF(E61&lt;0,-E61/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>208</v>
       </c>
       <c r="E62" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>26</v>
+        <v>-19</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>290</v>
@@ -8725,8 +8734,8 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <f>12+6</f>
-        <v>18</v>
+        <f>12+6+3*3+4*3+18+9</f>
+        <v>66</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>241</v>
@@ -8738,15 +8747,15 @@
       </c>
       <c r="C63" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B63)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D63" s="7">
-        <f>ROUNDDOWN(43+IF(E62&lt;0,-E62/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <f>ROUNDDOWN(64+IF(E62&lt;0,-E62/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>50</v>
       </c>
       <c r="E63" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>290</v>
@@ -8761,8 +8770,8 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <f>12</f>
-        <v>12</v>
+        <f>12+4+4</f>
+        <v>20</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>241</v>
@@ -8777,12 +8786,12 @@
         <v>36</v>
       </c>
       <c r="D64" s="7">
-        <f>213+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>213</v>
+        <f>38+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>38</v>
       </c>
       <c r="E64" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-177</v>
+        <v>-2</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>290</v>
@@ -8812,12 +8821,12 @@
         <v>186</v>
       </c>
       <c r="D65" s="7">
-        <f>ROUNDDOWN(54+IF(E64&lt;0,-E64/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>104</v>
+        <f>ROUNDDOWN(159+IF(E64&lt;0,-E64/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>150</v>
       </c>
       <c r="E65" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>290</v>
@@ -8848,12 +8857,12 @@
         <v>285</v>
       </c>
       <c r="D66" s="7">
-        <f>ROUNDDOWN(8+IF(E65&lt;0,-E65/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <f>ROUNDDOWN(19+IF(E65&lt;0,-E65/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E66" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>290</v>
@@ -8883,12 +8892,12 @@
         <v>51</v>
       </c>
       <c r="D67" s="7">
-        <f>321+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>306</v>
+        <f>67+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>52</v>
       </c>
       <c r="E67" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-255</v>
+        <v>-1</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>290</v>
@@ -8916,15 +8925,15 @@
       </c>
       <c r="C68" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B68)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="D68" s="7">
-        <f>ROUNDDOWN(56+IF(E67&lt;0,-E67/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>132</v>
+        <f>ROUNDDOWN(183+38+IF(E67&lt;0,-E67/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>165</v>
       </c>
       <c r="E68" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>79</v>
+        <v>-1</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>290</v>
@@ -8939,8 +8948,8 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <f>9</f>
-        <v>9</v>
+        <f>9+14+4*3+3+18</f>
+        <v>56</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>243</v>
@@ -8955,12 +8964,12 @@
         <v>369</v>
       </c>
       <c r="D69" s="7">
-        <f>ROUNDDOWN(31+IF(E68&lt;0,-E68/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <f>ROUNDDOWN(35+IF(E68&lt;0,-E68/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>35</v>
       </c>
       <c r="E69" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>290</v>
@@ -8990,12 +8999,12 @@
         <v>10</v>
       </c>
       <c r="D70" s="7">
-        <f>12+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <f>10+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E70" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>290</v>
@@ -9022,15 +9031,15 @@
       </c>
       <c r="C71" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B71)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D71" s="7">
-        <f>ROUNDDOWN(59+IF(E70&lt;0,-E70/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>53</v>
+        <f>ROUNDDOWN(15+39+IF(E70&lt;0,-E70/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>15</v>
       </c>
       <c r="E71" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>290</v>
@@ -9042,11 +9051,12 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>-6</f>
-        <v>-6</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <f>39</f>
+        <v>39</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>244</v>
@@ -9061,7 +9071,7 @@
         <v>210</v>
       </c>
       <c r="D72" s="7">
-        <f>ROUNDDOWN(10+IF(E71&lt;0,-E71/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(12+IF(E71&lt;0,-E71/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
         <v>0</v>
       </c>
       <c r="E72" s="7">
@@ -9078,8 +9088,8 @@
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f>2</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
         <f>12</f>
@@ -9098,12 +9108,12 @@
         <v>15</v>
       </c>
       <c r="D73" s="7">
-        <f>315+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>315</v>
+        <f>16+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>16</v>
       </c>
       <c r="E73" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-300</v>
+        <v>-1</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>290</v>
@@ -9130,15 +9140,15 @@
       </c>
       <c r="C74" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B74)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="D74" s="7">
-        <f>ROUNDDOWN(53+IF(E73&lt;0,-E73/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>132</v>
+        <f>ROUNDDOWN(138+21+IF(E73&lt;0,-E73/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>93</v>
       </c>
       <c r="E74" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>290</v>
@@ -9153,8 +9163,8 @@
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <f>3+3+3+4*3</f>
-        <v>21</v>
+        <f>3+3+3+4*3+18+6*3+9</f>
+        <v>66</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>245</v>
@@ -9169,12 +9179,12 @@
         <v>256</v>
       </c>
       <c r="D75" s="7">
-        <f>ROUNDDOWN(33+IF(E74&lt;0,-E74/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <f>ROUNDDOWN(63+IF(E74&lt;0,-E74/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>63</v>
       </c>
       <c r="E75" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>290</v>
@@ -9204,12 +9214,12 @@
         <v>40</v>
       </c>
       <c r="D76" s="7">
-        <f>210+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>210</v>
+        <f>41+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>41</v>
       </c>
       <c r="E76" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-170</v>
+        <v>-1</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>290</v>
@@ -9236,15 +9246,15 @@
       </c>
       <c r="C77" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B77)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="D77" s="7">
-        <f>ROUNDDOWN(34+IF(E76&lt;0,-E76/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>78</v>
+        <f>ROUNDDOWN(151+IF(E76&lt;0,-E76/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>110</v>
       </c>
       <c r="E77" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>290</v>
@@ -9259,7 +9269,8 @@
         <v>0</v>
       </c>
       <c r="J77" s="1">
-        <v>12</v>
+        <f>12+4*3+3*3+4*2</f>
+        <v>41</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>246</v>
@@ -9274,12 +9285,12 @@
         <v>338</v>
       </c>
       <c r="D78" s="7">
-        <f>ROUNDDOWN(33+IF(E77&lt;0,-E77/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <f>ROUNDDOWN(40+IF(E77&lt;0,-E77/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>40</v>
       </c>
       <c r="E78" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>290</v>
@@ -9309,12 +9320,12 @@
         <v>82</v>
       </c>
       <c r="D79" s="7">
-        <f>208+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>208</v>
+        <f>84+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>84</v>
       </c>
       <c r="E79" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-126</v>
+        <v>-2</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>290</v>
@@ -9344,12 +9355,12 @@
         <v>216</v>
       </c>
       <c r="D80" s="7">
-        <f>ROUNDDOWN(39+IF(E79&lt;0,-E79/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>81</v>
+        <f>ROUNDDOWN(114+IF(E79&lt;0,-E79/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>114</v>
       </c>
       <c r="E80" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>290</v>
@@ -9379,12 +9390,12 @@
         <v>222</v>
       </c>
       <c r="D81" s="7">
-        <f>ROUNDDOWN(16+IF(E80&lt;0,-E80/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>16</v>
+        <f>ROUNDDOWN(18+IF(E80&lt;0,-E80/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>18</v>
       </c>
       <c r="E81" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>290</v>
@@ -9414,12 +9425,12 @@
         <v>46</v>
       </c>
       <c r="D82" s="7">
-        <f>106+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>106</v>
+        <f>46+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>46</v>
       </c>
       <c r="E82" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>290</v>
@@ -9449,12 +9460,12 @@
         <v>54</v>
       </c>
       <c r="D83" s="7">
-        <f>ROUNDDOWN(23+IF(E82&lt;0,-E82/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>43</v>
+        <f>ROUNDDOWN(54+IF(E82&lt;0,-E82/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>54</v>
       </c>
       <c r="E83" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>290</v>
@@ -9519,12 +9530,12 @@
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f>87+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>64</v>
+        <f>24+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E85" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-64</v>
+        <v>-1</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>290</v>
@@ -9552,15 +9563,15 @@
       </c>
       <c r="C86" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B86)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D86" s="7">
-        <f>ROUNDDOWN(50+IF(E85&lt;0,-E85/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>62</v>
+        <f>ROUNDDOWN(19+27+IF(E85&lt;0,-E85/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E86" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-26</v>
+        <v>-1</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>290</v>
@@ -9575,8 +9586,8 @@
         <v>0</v>
       </c>
       <c r="J86" s="1">
-        <f>9</f>
-        <v>9</v>
+        <f>9+18</f>
+        <v>27</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>248</v>
@@ -9591,12 +9602,12 @@
         <v>149</v>
       </c>
       <c r="D87" s="7">
-        <f>ROUNDDOWN(9+IF(E86&lt;0,-E86/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>17</v>
+        <f>ROUNDDOWN(35+IF(E86&lt;0,-E86/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>35</v>
       </c>
       <c r="E87" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>290</v>
@@ -9626,12 +9637,12 @@
         <v>15</v>
       </c>
       <c r="D88" s="7">
-        <f>39+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>39</v>
+        <f>15+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>15</v>
       </c>
       <c r="E88" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>290</v>
@@ -9661,12 +9672,12 @@
         <v>18</v>
       </c>
       <c r="D89" s="7">
-        <f>ROUNDDOWN(13+IF(E88&lt;0,-E88/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>21</v>
+        <f>ROUNDDOWN(20+IF(E88&lt;0,-E88/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>20</v>
       </c>
       <c r="E89" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>290</v>
@@ -9696,12 +9707,12 @@
         <v>54</v>
       </c>
       <c r="D90" s="7">
-        <f>ROUNDDOWN(14+IF(E89&lt;0,-E89/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <f>ROUNDDOWN(18+IF(E89&lt;0,-E89/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>18</v>
       </c>
       <c r="E90" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>290</v>
@@ -9731,12 +9742,12 @@
         <v>10</v>
       </c>
       <c r="D91" s="7">
-        <f>17+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>17</v>
+        <f>11+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>11</v>
       </c>
       <c r="E91" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>290</v>
@@ -9766,7 +9777,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="7">
-        <f>ROUNDDOWN(6+IF(E91&lt;0,-E91/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(8+IF(E91&lt;0,-E91/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
         <v>8</v>
       </c>
       <c r="E92" s="7">
@@ -9836,12 +9847,12 @@
         <v>15</v>
       </c>
       <c r="D94" s="7">
-        <f>48+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>48</v>
+        <f>16+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>16</v>
       </c>
       <c r="E94" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-33</v>
+        <v>-1</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>290</v>
@@ -9871,12 +9882,12 @@
         <v>30</v>
       </c>
       <c r="D95" s="7">
-        <f>ROUNDDOWN(18+IF(E94&lt;0,-E94/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>29</v>
+        <f>ROUNDDOWN(31+IF(E94&lt;0,-E94/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>31</v>
       </c>
       <c r="E95" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>290</v>
@@ -9906,12 +9917,12 @@
         <v>54</v>
       </c>
       <c r="D96" s="7">
-        <f>ROUNDDOWN(4+IF(E95&lt;0,-E95/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>ROUNDDOWN(12+IF(E95&lt;0,-E95/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E96" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>290</v>
@@ -9941,12 +9952,12 @@
         <v>23</v>
       </c>
       <c r="D97" s="7">
-        <f>29+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>29</v>
+        <f>23+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>23</v>
       </c>
       <c r="E97" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>290</v>
@@ -9976,7 +9987,7 @@
         <v>27</v>
       </c>
       <c r="D98" s="7">
-        <f>ROUNDDOWN(7+IF(E97&lt;0,-E97/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(9+IF(E97&lt;0,-E97/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
         <v>9</v>
       </c>
       <c r="E98" s="7">
@@ -10046,12 +10057,12 @@
         <v>0</v>
       </c>
       <c r="D100" s="7">
-        <f>53+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>53</v>
+        <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E100" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>290</v>
@@ -10081,12 +10092,12 @@
         <v>30</v>
       </c>
       <c r="D101" s="7">
-        <f>ROUNDDOWN(22+IF(E100&lt;0,-E100/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>39</v>
+        <f>ROUNDDOWN(32+IF(E100&lt;0,-E100/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>32</v>
       </c>
       <c r="E101" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>290</v>
@@ -10116,12 +10127,12 @@
         <v>54</v>
       </c>
       <c r="D102" s="7">
-        <f>ROUNDDOWN(9+IF(E101&lt;0,-E101/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <f>ROUNDDOWN(22+IF(E101&lt;0,-E101/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>22</v>
       </c>
       <c r="E102" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>290</v>
@@ -10151,12 +10162,12 @@
         <v>15</v>
       </c>
       <c r="D103" s="7">
-        <f>45+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>45</v>
+        <f>15+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>15</v>
       </c>
       <c r="E103" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>290</v>
@@ -10186,7 +10197,7 @@
         <v>18</v>
       </c>
       <c r="D104" s="7">
-        <f>ROUNDDOWN(10+IF(E103&lt;0,-E103/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(20+IF(E103&lt;0,-E103/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
         <v>20</v>
       </c>
       <c r="E104" s="7">
@@ -10256,12 +10267,12 @@
         <v>38</v>
       </c>
       <c r="D106" s="7">
-        <f>601+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>578</v>
+        <f>39+23+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>39</v>
       </c>
       <c r="E106" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-540</v>
+        <v>-1</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>290</v>
@@ -10292,12 +10303,12 @@
         <v>72</v>
       </c>
       <c r="D107" s="7">
-        <f>ROUNDDOWN(142+IF(E106&lt;0,-E106/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>322</v>
+        <f>ROUNDDOWN(72+IF(E106&lt;0,-E106/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>72</v>
       </c>
       <c r="E107" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>290</v>
@@ -10327,12 +10338,12 @@
         <v>109</v>
       </c>
       <c r="D108" s="7">
-        <f>ROUNDDOWN(27+IF(E107&lt;0,-E107/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>110</v>
+        <f>ROUNDDOWN(144+IF(E107&lt;0,-E107/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>144</v>
       </c>
       <c r="E108" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-35</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>290</v>
@@ -10362,12 +10373,12 @@
         <v>0</v>
       </c>
       <c r="D109" s="7">
-        <f>130+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>130</v>
+        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E109" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-130</v>
+        <v>-1</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>290</v>
@@ -10397,12 +10408,12 @@
         <v>18</v>
       </c>
       <c r="D110" s="7">
-        <f>ROUNDDOWN(31+IF(E109&lt;0,-E109/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>74</v>
+        <f>ROUNDDOWN(18+IF(E109&lt;0,-E109/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>18</v>
       </c>
       <c r="E110" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>290</v>
@@ -10432,12 +10443,12 @@
         <v>27</v>
       </c>
       <c r="D111" s="7">
-        <f>ROUNDDOWN(5+IF(E110&lt;0,-E110/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <f>ROUNDDOWN(37+IF(E110&lt;0,-E110/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>37</v>
       </c>
       <c r="E111" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>290</v>
@@ -10467,12 +10478,12 @@
         <v>18</v>
       </c>
       <c r="D112" s="7">
-        <f>17+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>17</v>
+        <f>19+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E112" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>286</v>
@@ -10482,7 +10493,7 @@
       </c>
       <c r="H112" s="1">
         <f>IF(E112&gt;0,ROUNDUP(G112*E112/2,0),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
@@ -10500,12 +10511,12 @@
         <v>9</v>
       </c>
       <c r="D113" s="7">
-        <f>17+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>17</v>
+        <f>11+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>11</v>
       </c>
       <c r="E113" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>287</v>
@@ -10533,12 +10544,12 @@
         <v>0</v>
       </c>
       <c r="D114" s="7">
-        <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E114" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>287</v>
@@ -10566,12 +10577,12 @@
         <v>0</v>
       </c>
       <c r="D115" s="7">
-        <f>15+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E115" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>286</v>
@@ -10599,12 +10610,12 @@
         <v>18</v>
       </c>
       <c r="D116" s="7">
-        <f>21+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>21</v>
+        <f>19+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E116" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>286</v>
@@ -10632,12 +10643,12 @@
         <v>0</v>
       </c>
       <c r="D117" s="7">
-        <f>10+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E117" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>288</v>
@@ -10665,12 +10676,12 @@
         <v>0</v>
       </c>
       <c r="D118" s="7">
-        <f>31+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E118" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-31</v>
+        <v>-2</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>287</v>
@@ -10698,12 +10709,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="7">
-        <f>7+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E119" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>288</v>
@@ -10731,12 +10742,12 @@
         <v>0</v>
       </c>
       <c r="D120" s="7">
-        <f>6+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E120" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>288</v>
@@ -10761,15 +10772,15 @@
       </c>
       <c r="C121" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B121)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D121" s="7">
-        <f>ROUNDDOWN(14+IF(E112&lt;0,-E112/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>ROUNDDOWN(18+IF(E112&lt;0,-E112/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E121" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>286</v>
@@ -10779,14 +10790,14 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" si="2"/>
-        <v>1840</v>
+        <v>1800</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
       </c>
       <c r="J121" s="1">
-        <f>9</f>
-        <v>9</v>
+        <f>9+9</f>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
@@ -10795,15 +10806,15 @@
       </c>
       <c r="C122" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B122)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D122" s="7">
-        <f>ROUNDDOWN(7+IF(E113&lt;0,-E113/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(19+18+IF(E113&lt;0,-E113/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E122" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>287</v>
@@ -10813,14 +10824,14 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" si="2"/>
-        <v>1320</v>
+        <v>1040</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
       </c>
       <c r="J122" s="1">
-        <f>6</f>
-        <v>6</v>
+        <f>6+18+9</f>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
@@ -10829,15 +10840,15 @@
       </c>
       <c r="C123" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B123)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D123" s="7">
-        <f>ROUNDDOWN(60+IF(E114&lt;0,-E114/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>61</v>
+        <f>ROUNDDOWN(31+39+IF(E114&lt;0,-E114/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>31</v>
       </c>
       <c r="E123" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>287</v>
@@ -10853,7 +10864,8 @@
         <v>0</v>
       </c>
       <c r="J123" s="1">
-        <v>0</v>
+        <f>39</f>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
@@ -10862,15 +10874,15 @@
       </c>
       <c r="C124" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B124)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D124" s="7">
-        <f>ROUNDDOWN(18+IF(E115&lt;0,-E115/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <f>ROUNDDOWN(48+IF(E115&lt;0,-E115/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>30</v>
       </c>
       <c r="E124" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>286</v>
@@ -10880,13 +10892,14 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" si="2"/>
-        <v>670</v>
+        <v>420</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
       </c>
       <c r="J124" s="1">
-        <v>0</v>
+        <f>2*3+4*3</f>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
@@ -10895,15 +10908,15 @@
       </c>
       <c r="C125" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B125)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D125" s="7">
-        <f>ROUNDDOWN(37+IF(E116&lt;0,-E116/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>38</v>
+        <f>ROUNDDOWN(58+IF(E116&lt;0,-E116/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>44</v>
       </c>
       <c r="E125" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>286</v>
@@ -10913,13 +10926,14 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" si="2"/>
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
       </c>
       <c r="J125" s="1">
-        <v>0</v>
+        <f>4*2+2+4</f>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
@@ -10928,15 +10942,15 @@
       </c>
       <c r="C126" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B126)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D126" s="7">
-        <f>ROUNDDOWN(36+IF(E117&lt;0,-E117/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>21</v>
+        <f>ROUNDDOWN(34+18+IF(E117&lt;0,-E117/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E126" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>288</v>
@@ -10946,14 +10960,14 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
       </c>
       <c r="J126" s="1">
-        <f>2+2+2+4*3</f>
-        <v>18</v>
+        <f>2+2+2+4*3+6*3+9</f>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
@@ -10962,15 +10976,15 @@
       </c>
       <c r="C127" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B127)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D127" s="7">
-        <f>ROUNDDOWN(12+IF(E118&lt;0,-E118/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>22</v>
+        <f>ROUNDDOWN(24+IF(E118&lt;0,-E118/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E127" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>287</v>
@@ -10980,13 +10994,14 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
       </c>
       <c r="J127" s="1">
-        <v>0</v>
+        <f>2*3+4*2</f>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
@@ -10995,15 +11010,15 @@
       </c>
       <c r="C128" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B128)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D128" s="7">
-        <f>ROUNDDOWN(38+IF(E119&lt;0,-E119/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>40</v>
+        <f>ROUNDDOWN(43+IF(E119&lt;0,-E119/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>31</v>
       </c>
       <c r="E128" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>288</v>
@@ -11013,13 +11028,14 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
       </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <f>4*3</f>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
@@ -11031,12 +11047,12 @@
         <v>0</v>
       </c>
       <c r="D129" s="7">
-        <f>ROUNDDOWN(4+IF(E120&lt;0,-E120/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>ROUNDDOWN(2+IF(E120&lt;0,-E120/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E129" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>288</v>
@@ -11094,15 +11110,15 @@
       </c>
       <c r="C131" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B131)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D131" s="7">
-        <f>ROUNDDOWN(4+IF(E122&lt;0,-E122/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>ROUNDDOWN(6+4+IF(E122&lt;0,-E122/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E131" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>287</v>
@@ -11112,13 +11128,14 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H153" si="3">IF(E131&gt;0,ROUNDUP(G131*E131,0),0)</f>
-        <v>4680</v>
+        <v>4560</v>
       </c>
       <c r="I131" s="1">
         <v>0</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <f>4+4</f>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
@@ -11130,12 +11147,12 @@
         <v>126</v>
       </c>
       <c r="D132" s="7">
-        <f>ROUNDDOWN(28+IF(E123&lt;0,-E123/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <f>ROUNDDOWN(30+IF(E123&lt;0,-E123/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>36</v>
       </c>
       <c r="E132" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>287</v>
@@ -11145,7 +11162,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
@@ -11163,12 +11180,12 @@
         <v>102</v>
       </c>
       <c r="D133" s="7">
-        <f>ROUNDDOWN(4+IF(E124&lt;0,-E124/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>ROUNDDOWN(11+IF(E124&lt;0,-E124/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>11</v>
       </c>
       <c r="E133" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>286</v>
@@ -11178,7 +11195,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" si="3"/>
-        <v>1960</v>
+        <v>1820</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -11229,12 +11246,12 @@
         <v>84</v>
       </c>
       <c r="D135" s="7">
-        <f>ROUNDDOWN(3+IF(E126&lt;0,-E126/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(5+IF(E126&lt;0,-E126/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E135" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>288</v>
@@ -11244,7 +11261,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" si="3"/>
-        <v>1620</v>
+        <v>1580</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -11328,12 +11345,12 @@
         <v>12</v>
       </c>
       <c r="D138" s="7">
-        <f>ROUNDDOWN(7+IF(E129&lt;0,-E129/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <f>ROUNDDOWN(11+IF(E129&lt;0,-E129/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>11</v>
       </c>
       <c r="E138" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>288</v>
@@ -11343,7 +11360,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
@@ -11362,11 +11379,11 @@
       </c>
       <c r="D139" s="7">
         <f>7+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E139" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -11376,10 +11393,11 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="I139" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J139" s="1">
         <v>0</v>
@@ -11395,11 +11413,11 @@
       </c>
       <c r="D140" s="7">
         <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E140" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -11409,11 +11427,11 @@
       </c>
       <c r="H140" s="1">
         <f>IF(E140&gt;0,ROUNDUP(G140*E140,0),0)</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I140" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+2</f>
+        <v>3</v>
       </c>
       <c r="J140" s="1">
         <v>0</v>
@@ -11429,11 +11447,11 @@
       </c>
       <c r="D141" s="7">
         <f>11+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E141" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -11443,11 +11461,11 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="I141" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J141" s="1">
         <v>0</v>
@@ -11459,15 +11477,15 @@
       </c>
       <c r="C142" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B142)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D142" s="7">
-        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E142" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -11477,14 +11495,15 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" si="3"/>
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="I142" s="1">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="J142" s="1">
-        <v>0</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
@@ -11531,11 +11550,11 @@
       </c>
       <c r="D144" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E144" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -11545,11 +11564,11 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I144" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1+2</f>
+        <v>4</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -11565,11 +11584,11 @@
       </c>
       <c r="D145" s="7">
         <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E145" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -11579,10 +11598,11 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="I145" s="1">
-        <v>0</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="J145" s="1">
         <v>0</v>
@@ -11632,11 +11652,11 @@
       </c>
       <c r="D147" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -11646,10 +11666,11 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I147" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J147" s="1">
         <v>0</v>
@@ -11665,11 +11686,11 @@
       </c>
       <c r="D148" s="7">
         <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -11679,10 +11700,11 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I148" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J148" s="1">
         <v>0</v>
@@ -11698,11 +11720,11 @@
       </c>
       <c r="D149" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E149" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F149" s="1">
         <v>0</v>
@@ -11715,8 +11737,8 @@
         <v>0</v>
       </c>
       <c r="I149" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="J149" s="1">
         <v>0</v>
@@ -11732,11 +11754,11 @@
       </c>
       <c r="D150" s="7">
         <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E150" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -11746,11 +11768,11 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I150" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="J150" s="1">
         <v>0</v>
@@ -11766,11 +11788,11 @@
       </c>
       <c r="D151" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -11780,10 +11802,11 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I151" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J151" s="1">
         <v>0</v>
@@ -11799,11 +11822,11 @@
       </c>
       <c r="D152" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E152" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
@@ -11816,8 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I152" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -11833,11 +11856,11 @@
       </c>
       <c r="D153" s="7">
         <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -11847,11 +11870,11 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="I153" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J153" s="1">
         <v>0</v>
@@ -11898,12 +11921,12 @@
         <v>10</v>
       </c>
       <c r="D155" s="7">
-        <f>4+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E155" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>287</v>
@@ -11913,10 +11936,11 @@
       </c>
       <c r="H155" s="1">
         <f>IF(E155&gt;0,ROUNDUP(G155*E155/2,0),0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I155" s="1">
-        <v>0</v>
+        <f>4+6+2+4+5-20</f>
+        <v>1</v>
       </c>
       <c r="J155" s="1">
         <v>0</v>
@@ -11931,12 +11955,12 @@
         <v>28</v>
       </c>
       <c r="D156" s="7">
-        <f>ROUNDDOWN(4+IF(E155&lt;0,-E155/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>ROUNDDOWN(14+IF(E155&lt;0,-E155/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>33</v>
       </c>
       <c r="E156" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>24</v>
+        <v>-5</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>287</v>
@@ -11946,10 +11970,11 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ref="H156:H188" si="4">IF(E156&gt;0,ROUNDUP(G156*E156/2,0),0)</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I156" s="1">
-        <v>0</v>
+        <f>4+5+2+4+4</f>
+        <v>19</v>
       </c>
       <c r="J156" s="1">
         <v>0</v>
@@ -11964,12 +11989,12 @@
         <v>28</v>
       </c>
       <c r="D157" s="7">
-        <f>ROUNDDOWN(0+IF(E156&lt;0,-E156/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(2+IF(E156&lt;0,-E156/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E157" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>287</v>
@@ -11979,10 +12004,11 @@
       </c>
       <c r="H157" s="1">
         <f>IF(E157&gt;0,ROUNDUP(G157*E157,0),0)</f>
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I157" s="1">
-        <v>0</v>
+        <f>2+1+1+2+1</f>
+        <v>7</v>
       </c>
       <c r="J157" s="1">
         <v>0</v>
@@ -11998,11 +12024,11 @@
       </c>
       <c r="D158" s="7">
         <f>ROUNDDOWN(0+IF(E157&lt;0,-E157/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>287</v>
@@ -12012,10 +12038,11 @@
       </c>
       <c r="H158" s="1">
         <f>IF(E158&gt;0,ROUNDUP(G158*E158,0),0)</f>
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I158" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J158" s="1">
         <v>0</v>
@@ -12030,12 +12057,12 @@
         <v>0</v>
       </c>
       <c r="D159" s="7">
-        <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>0+5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>8</v>
       </c>
       <c r="E159" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>286</v>
@@ -12065,12 +12092,12 @@
         <v>15</v>
       </c>
       <c r="D160" s="7">
-        <f>ROUNDDOWN(0+IF(E159&lt;0,-E159/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>ROUNDDOWN(1+IF(E159&lt;0,-E159/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E160" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>286</v>
@@ -12080,7 +12107,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I160" s="1">
         <f>3+3</f>
@@ -12168,12 +12195,12 @@
         <v>3</v>
       </c>
       <c r="D163" s="7">
-        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E163" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>287</v>
@@ -12203,12 +12230,12 @@
         <v>9</v>
       </c>
       <c r="D164" s="7">
-        <f>ROUNDDOWN(1+IF(E163&lt;0,-E163/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <f>ROUNDDOWN(24+IF(E163&lt;0,-E163/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>15</v>
       </c>
       <c r="E164" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>287</v>
@@ -12221,8 +12248,8 @@
         <v>0</v>
       </c>
       <c r="I164" s="1">
-        <f>21</f>
-        <v>21</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J164" s="1">
         <f>5+9</f>
@@ -12235,15 +12262,15 @@
       </c>
       <c r="C165" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B165)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D165" s="7">
-        <f>ROUNDDOWN(0+IF(E164&lt;0,-E164/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>ROUNDDOWN(5+IF(E164&lt;0,-E164/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E165" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>287</v>
@@ -12253,14 +12280,14 @@
       </c>
       <c r="H165" s="1">
         <f>IF(E165&gt;0,ROUNDUP(G165*E165,0),0)</f>
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="I165" s="1">
-        <f>4</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J165" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
@@ -12272,12 +12299,12 @@
         <v>14</v>
       </c>
       <c r="D166" s="7">
-        <f>ROUNDDOWN(0+IF(E165&lt;0,-E165/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(1+IF(E165&lt;0,-E165/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E166" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>287</v>
@@ -12287,7 +12314,7 @@
       </c>
       <c r="H166" s="1">
         <f>IF(E166&gt;0,ROUNDUP(G166*E166,0),0)</f>
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I166" s="1">
         <v>0</v>
@@ -12437,12 +12464,12 @@
         <v>5</v>
       </c>
       <c r="D171" s="7">
-        <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>6+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E171" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>286</v>
@@ -12452,7 +12479,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I171" s="1">
         <v>0</v>
@@ -12701,12 +12728,12 @@
         <v>3</v>
       </c>
       <c r="D179" s="7">
-        <f>4+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>6+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E179" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>288</v>
@@ -12735,11 +12762,11 @@
       </c>
       <c r="D180" s="7">
         <f>ROUNDDOWN(0+IF(E179&lt;0,-E179/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>288</v>
@@ -12749,7 +12776,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I180" s="1">
         <v>0</v>
@@ -12833,12 +12860,12 @@
         <v>8</v>
       </c>
       <c r="D183" s="7">
-        <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>4+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E183" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>288</v>
@@ -12848,7 +12875,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I183" s="1">
         <v>0</v>
@@ -12965,12 +12992,12 @@
         <v>0</v>
       </c>
       <c r="D187" s="7">
-        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E187" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>286</v>
@@ -12999,11 +13026,11 @@
       </c>
       <c r="D188" s="7">
         <f>ROUNDDOWN(1+IF(E187&lt;0,-E187/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>286</v>
@@ -13013,7 +13040,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I188" s="1">
         <v>0</v>
@@ -13103,7 +13130,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D31 D148 D150:D151 D179 D132 D135 D130 D164 D169 H112 H130 D26 D40 D49 I143 D159" formula="1"/>
+    <ignoredError sqref="D31 D148 D150:D151 D130 D169 H112 H130 I143 I9 D21 D27 D40 D116 D135 D159 D179 D143 I22 I151 I145" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9D8536-D36B-4D6D-9E21-8E4DF592C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517F478-9E4C-4BE3-ABF9-057DC66717B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Personajes y armas" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="304">
   <si>
     <t>Material</t>
   </si>
@@ -937,6 +937,39 @@
   </si>
   <si>
     <t>Mineral total</t>
+  </si>
+  <si>
+    <t>Completar encargos diarios</t>
+  </si>
+  <si>
+    <t>Derrotar 10 jefes por semana</t>
+  </si>
+  <si>
+    <t>20 líneas ley por semana</t>
+  </si>
+  <si>
+    <t>20 platos por semana</t>
+  </si>
+  <si>
+    <t>3 peticiones ciudadanas</t>
+  </si>
+  <si>
+    <t>3 cacerías recompensadas</t>
+  </si>
+  <si>
+    <t>10 piezas de decoración</t>
+  </si>
+  <si>
+    <t>15 dominios</t>
+  </si>
+  <si>
+    <t>20 encargos de forja</t>
+  </si>
+  <si>
+    <t>1000 intramoras</t>
+  </si>
+  <si>
+    <t>5 jefes semanales</t>
   </si>
 </sst>
 </file>
@@ -6383,6 +6416,68 @@
     <sortCondition ref="G3:G434"/>
   </sortState>
   <mergeCells count="78">
+    <mergeCell ref="D406:D417"/>
+    <mergeCell ref="E406:E417"/>
+    <mergeCell ref="D418:D426"/>
+    <mergeCell ref="E418:E426"/>
+    <mergeCell ref="D379:D387"/>
+    <mergeCell ref="E379:E387"/>
+    <mergeCell ref="D388:D393"/>
+    <mergeCell ref="E388:E393"/>
+    <mergeCell ref="D394:D405"/>
+    <mergeCell ref="E394:E405"/>
+    <mergeCell ref="D345:D356"/>
+    <mergeCell ref="E345:E356"/>
+    <mergeCell ref="D357:D366"/>
+    <mergeCell ref="E357:E366"/>
+    <mergeCell ref="D367:D378"/>
+    <mergeCell ref="E367:E378"/>
+    <mergeCell ref="D313:D320"/>
+    <mergeCell ref="E313:E320"/>
+    <mergeCell ref="D321:D332"/>
+    <mergeCell ref="E321:E332"/>
+    <mergeCell ref="D333:D344"/>
+    <mergeCell ref="E333:E344"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E197:E223"/>
+    <mergeCell ref="E120:E131"/>
+    <mergeCell ref="E132:E146"/>
+    <mergeCell ref="E147:E161"/>
+    <mergeCell ref="E162:E176"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="E34:E48"/>
+    <mergeCell ref="E49:E59"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="D147:D161"/>
+    <mergeCell ref="D83:D97"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D120:D131"/>
+    <mergeCell ref="D132:D146"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="D197:D223"/>
+    <mergeCell ref="D162:D176"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D224:D228"/>
+    <mergeCell ref="E224:E228"/>
+    <mergeCell ref="D229:D233"/>
+    <mergeCell ref="E229:E233"/>
+    <mergeCell ref="D234:D245"/>
+    <mergeCell ref="E234:E245"/>
     <mergeCell ref="D427:D434"/>
     <mergeCell ref="E427:E434"/>
     <mergeCell ref="D268:D279"/>
@@ -6399,68 +6494,6 @@
     <mergeCell ref="E292:E303"/>
     <mergeCell ref="D304:D312"/>
     <mergeCell ref="E304:E312"/>
-    <mergeCell ref="D224:D228"/>
-    <mergeCell ref="E224:E228"/>
-    <mergeCell ref="D229:D233"/>
-    <mergeCell ref="E229:E233"/>
-    <mergeCell ref="D234:D245"/>
-    <mergeCell ref="E234:E245"/>
-    <mergeCell ref="D197:D223"/>
-    <mergeCell ref="D162:D176"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="D49:D59"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="D147:D161"/>
-    <mergeCell ref="D83:D97"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D120:D131"/>
-    <mergeCell ref="D132:D146"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E23"/>
-    <mergeCell ref="E24:E33"/>
-    <mergeCell ref="E34:E48"/>
-    <mergeCell ref="E49:E59"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="E197:E223"/>
-    <mergeCell ref="E120:E131"/>
-    <mergeCell ref="E132:E146"/>
-    <mergeCell ref="E147:E161"/>
-    <mergeCell ref="E162:E176"/>
-    <mergeCell ref="E177:E187"/>
-    <mergeCell ref="D313:D320"/>
-    <mergeCell ref="E313:E320"/>
-    <mergeCell ref="D321:D332"/>
-    <mergeCell ref="E321:E332"/>
-    <mergeCell ref="D333:D344"/>
-    <mergeCell ref="E333:E344"/>
-    <mergeCell ref="D345:D356"/>
-    <mergeCell ref="E345:E356"/>
-    <mergeCell ref="D357:D366"/>
-    <mergeCell ref="E357:E366"/>
-    <mergeCell ref="D367:D378"/>
-    <mergeCell ref="E367:E378"/>
-    <mergeCell ref="D406:D417"/>
-    <mergeCell ref="E406:E417"/>
-    <mergeCell ref="D418:D426"/>
-    <mergeCell ref="E418:E426"/>
-    <mergeCell ref="D379:D387"/>
-    <mergeCell ref="E379:E387"/>
-    <mergeCell ref="D388:D393"/>
-    <mergeCell ref="E388:E393"/>
-    <mergeCell ref="D394:D405"/>
-    <mergeCell ref="E394:E405"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6477,8 +6510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6536,7 +6569,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Tabla2[Resina total])</f>
-        <v>107869</v>
+        <v>106912</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6549,11 +6582,11 @@
       </c>
       <c r="D3" s="7">
         <f>11415730+2821120+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10710130</v>
+        <v>11288325</v>
       </c>
       <c r="E3" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>89336350</v>
+        <v>88758155</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>290</v>
@@ -6563,11 +6596,11 @@
       </c>
       <c r="H3" s="1">
         <f>IF(E3&gt;0,ROUNDUP(G3*E3/60000,0),0)</f>
-        <v>29779</v>
+        <v>29587</v>
       </c>
       <c r="I3" s="1">
-        <f>8100*5+4400*4+2200</f>
-        <v>60300</v>
+        <f>638495</f>
+        <v>638495</v>
       </c>
       <c r="J3" s="1">
         <f>2626120+37500*2+120000+80000+236000+3000+200+30000*3+37500+80000+236000+3000+200</f>
@@ -6586,12 +6619,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <f>186+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>186</v>
+        <f>260+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>260</v>
       </c>
       <c r="E4" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-186</v>
+        <v>-260</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>289</v>
@@ -6617,7 +6650,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 10 meses y 5 días</v>
+        <v>1 año 9 meses y 30 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6629,12 +6662,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>ROUNDDOWN(422+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>459</v>
+        <f>ROUNDDOWN(721+IF(E4&lt;0,-E4/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>773</v>
       </c>
       <c r="E5" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-459</v>
+        <v>-773</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>290</v>
@@ -6665,12 +6698,12 @@
         <v>5200</v>
       </c>
       <c r="D6" s="7">
-        <f>ROUNDDOWN(750+219+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>746</v>
+        <f>ROUNDDOWN(752+219+IF(E5&lt;0,-E5/4,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>827</v>
       </c>
       <c r="E6" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>4454</v>
+        <v>4373</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>290</v>
@@ -6680,7 +6713,7 @@
       </c>
       <c r="H6" s="1">
         <f>IF(E6&gt;0,ROUNDUP(G6*E6/4,0),0)</f>
-        <v>22270</v>
+        <v>21865</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -6697,7 +6730,7 @@
       </c>
       <c r="N6" s="1">
         <f>E9</f>
-        <v>9867</v>
+        <v>9262</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6709,12 +6742,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>408+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>408</v>
+        <f>981+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>981</v>
       </c>
       <c r="E7" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-408</v>
+        <v>-981</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>290</v>
@@ -6745,12 +6778,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>ROUNDDOWN(290+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>371</v>
+        <f>ROUNDDOWN(771+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>967</v>
       </c>
       <c r="E8" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-371</v>
+        <v>-967</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>290</v>
@@ -6776,7 +6809,7 @@
       </c>
       <c r="N8" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N6/5,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"md")=1," día", " días")</f>
-        <v>5 años 4 meses y 27 días</v>
+        <v>5 años 0 meses y 26 días</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -6788,12 +6821,12 @@
         <v>11705</v>
       </c>
       <c r="D9" s="7">
-        <f>ROUNDDOWN(1754+334+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1838</v>
+        <f>ROUNDDOWN(1906+334+334+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>2443</v>
       </c>
       <c r="E9" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>9867</v>
+        <v>9262</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>290</v>
@@ -6825,12 +6858,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>7+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E10" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>290</v>
@@ -6843,8 +6876,8 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>2+1+1</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6862,12 +6895,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>8+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>290</v>
@@ -6880,8 +6913,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>3+1</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6899,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
         <v>3</v>
       </c>
       <c r="E12" s="7">
@@ -6917,8 +6950,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6973,12 +7006,12 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <f>3+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>6+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E14" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>290</v>
@@ -6991,8 +7024,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>2</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -7010,12 +7043,12 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <f>1+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>10+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E15" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>290</v>
@@ -7028,8 +7061,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>1+1+2</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7085,11 +7118,11 @@
       </c>
       <c r="D17" s="7">
         <f>ROUNDDOWN(9+IF(E11&lt;0,-E11/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>290</v>
@@ -7159,11 +7192,11 @@
       </c>
       <c r="D19" s="7">
         <f>ROUNDDOWN(0+IF(E13&lt;0,-E13/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7176,8 +7209,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>12+1+1</f>
-        <v>14</v>
+        <f>12+1+1+2</f>
+        <v>16</v>
       </c>
       <c r="J19" s="1">
         <f>6+6</f>
@@ -7234,11 +7267,11 @@
       </c>
       <c r="D21" s="7">
         <f>ROUNDDOWN(10+IF(E15&lt;0,-E15/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>290</v>
@@ -7251,8 +7284,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7383,11 +7416,11 @@
       </c>
       <c r="D25" s="7">
         <f>ROUNDDOWN(11+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>290</v>
@@ -7397,7 +7430,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="I25" s="1">
         <f>0</f>
@@ -7457,11 +7490,11 @@
       </c>
       <c r="D27" s="7">
         <f>ROUNDDOWN(20+IF(E21&lt;0,-E21/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>290</v>
@@ -7858,11 +7891,11 @@
       </c>
       <c r="D38" s="7">
         <f>10+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>290</v>
@@ -7872,10 +7905,11 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -8075,12 +8109,12 @@
         <v>60</v>
       </c>
       <c r="D44" s="7">
-        <f>54+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>17</v>
+        <f>52+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>50</v>
       </c>
       <c r="E44" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
@@ -8092,8 +8126,8 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>8</f>
-        <v>8</v>
+        <f>8+35</f>
+        <v>43</v>
       </c>
       <c r="J44" s="1">
         <f>45</f>
@@ -8148,11 +8182,11 @@
       </c>
       <c r="D46" s="7">
         <f>103+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="E46" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
@@ -8164,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
@@ -8182,12 +8216,12 @@
         <v>60</v>
       </c>
       <c r="D47" s="7">
-        <f>149+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>104</v>
+        <f>146+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>101</v>
       </c>
       <c r="E47" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-44</v>
+        <v>-41</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
@@ -8219,11 +8253,11 @@
       </c>
       <c r="D48" s="7">
         <f>24+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E48" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -8235,8 +8269,8 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="J48" s="1">
         <v>20</v>
@@ -8255,11 +8289,11 @@
       </c>
       <c r="D49" s="7">
         <f>41+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E49" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
@@ -8271,7 +8305,8 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <f>42</f>
+        <v>42</v>
       </c>
       <c r="J49" s="1">
         <f>30</f>
@@ -8290,12 +8325,12 @@
         <v>168</v>
       </c>
       <c r="D50" s="7">
-        <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>12+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E50" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -8326,11 +8361,11 @@
       </c>
       <c r="D51" s="7">
         <f>40+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -8342,7 +8377,8 @@
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J51" s="1">
         <f>30</f>
@@ -8361,12 +8397,12 @@
         <v>135</v>
       </c>
       <c r="D52" s="7">
-        <f>86+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>86</v>
+        <f>101+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>101</v>
       </c>
       <c r="E52" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -8396,12 +8432,12 @@
         <v>168</v>
       </c>
       <c r="D53" s="7">
-        <f>70+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>70</v>
+        <f>75+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>75</v>
       </c>
       <c r="E53" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -8431,12 +8467,12 @@
         <v>168</v>
       </c>
       <c r="D54" s="7">
-        <f>84+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>84</v>
+        <f>115+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>115</v>
       </c>
       <c r="E54" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -8573,11 +8609,11 @@
       </c>
       <c r="D58" s="7">
         <f>20+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E58" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>3</v>
+        <v>-22</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>290</v>
@@ -8589,7 +8625,8 @@
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <f>25</f>
+        <v>25</v>
       </c>
       <c r="J58" s="1">
         <f>3+12</f>
@@ -8608,12 +8645,12 @@
         <v>38</v>
       </c>
       <c r="D59" s="7">
-        <f>ROUNDDOWN(47+IF(E58&lt;0,-E58/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>38</v>
+        <f>ROUNDDOWN(44+9+IF(E58&lt;0,-E58/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>51</v>
       </c>
       <c r="E59" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>290</v>
@@ -8644,12 +8681,12 @@
         <v>126</v>
       </c>
       <c r="D60" s="7">
-        <f>ROUNDDOWN(102+IF(E59&lt;0,-E59/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>102</v>
+        <f>ROUNDDOWN(107+IF(E59&lt;0,-E59/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>111</v>
       </c>
       <c r="E60" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>290</v>
@@ -8679,12 +8716,12 @@
         <v>36</v>
       </c>
       <c r="D61" s="7">
-        <f>37+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>37</v>
+        <f>110+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>110</v>
       </c>
       <c r="E61" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-74</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>290</v>
@@ -8714,12 +8751,12 @@
         <v>189</v>
       </c>
       <c r="D62" s="7">
-        <f>ROUNDDOWN(217+39+18+IF(E61&lt;0,-E61/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>208</v>
+        <f>ROUNDDOWN(233+66+IF(E61&lt;0,-E61/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>257</v>
       </c>
       <c r="E62" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-19</v>
+        <v>-68</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>290</v>
@@ -8750,12 +8787,12 @@
         <v>295</v>
       </c>
       <c r="D63" s="7">
-        <f>ROUNDDOWN(64+IF(E62&lt;0,-E62/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>50</v>
+        <f>ROUNDDOWN(71+IF(E62&lt;0,-E62/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>73</v>
       </c>
       <c r="E63" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>290</v>
@@ -8786,12 +8823,12 @@
         <v>36</v>
       </c>
       <c r="D64" s="7">
-        <f>38+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>38</v>
+        <f>141+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>141</v>
       </c>
       <c r="E64" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-105</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>290</v>
@@ -8821,12 +8858,12 @@
         <v>186</v>
       </c>
       <c r="D65" s="7">
-        <f>ROUNDDOWN(159+IF(E64&lt;0,-E64/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>150</v>
+        <f>ROUNDDOWN(186+IF(E64&lt;0,-E64/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>212</v>
       </c>
       <c r="E65" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>36</v>
+        <v>-26</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>290</v>
@@ -8857,12 +8894,12 @@
         <v>285</v>
       </c>
       <c r="D66" s="7">
-        <f>ROUNDDOWN(19+IF(E65&lt;0,-E65/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>ROUNDDOWN(26+IF(E65&lt;0,-E65/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>34</v>
       </c>
       <c r="E66" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>290</v>
@@ -8892,12 +8929,12 @@
         <v>51</v>
       </c>
       <c r="D67" s="7">
-        <f>67+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>52</v>
+        <f>207+15+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>207</v>
       </c>
       <c r="E67" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-156</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>290</v>
@@ -8928,12 +8965,12 @@
         <v>164</v>
       </c>
       <c r="D68" s="7">
-        <f>ROUNDDOWN(183+38+IF(E67&lt;0,-E67/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>165</v>
+        <f>ROUNDDOWN(205+56+IF(E67&lt;0,-E67/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>257</v>
       </c>
       <c r="E68" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-93</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>290</v>
@@ -8964,12 +9001,12 @@
         <v>369</v>
       </c>
       <c r="D69" s="7">
-        <f>ROUNDDOWN(35+IF(E68&lt;0,-E68/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>35</v>
+        <f>ROUNDDOWN(49+IF(E68&lt;0,-E68/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>80</v>
       </c>
       <c r="E69" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>290</v>
@@ -8999,12 +9036,12 @@
         <v>10</v>
       </c>
       <c r="D70" s="7">
-        <f>10+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <f>72+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>72</v>
       </c>
       <c r="E70" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>290</v>
@@ -9034,12 +9071,12 @@
         <v>72</v>
       </c>
       <c r="D71" s="7">
-        <f>ROUNDDOWN(15+39+IF(E70&lt;0,-E70/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <f>ROUNDDOWN(26+39+IF(E70&lt;0,-E70/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>46</v>
       </c>
       <c r="E71" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>290</v>
@@ -9071,12 +9108,12 @@
         <v>210</v>
       </c>
       <c r="D72" s="7">
-        <f>ROUNDDOWN(12+IF(E71&lt;0,-E71/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(7+12+IF(E71&lt;0,-E71/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E72" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>290</v>
@@ -9108,12 +9145,12 @@
         <v>15</v>
       </c>
       <c r="D73" s="7">
-        <f>16+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>16</v>
+        <f>78+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>78</v>
       </c>
       <c r="E73" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-63</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>290</v>
@@ -9143,12 +9180,12 @@
         <v>93</v>
       </c>
       <c r="D74" s="7">
-        <f>ROUNDDOWN(138+21+IF(E73&lt;0,-E73/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>93</v>
+        <f>ROUNDDOWN(112+66+IF(E73&lt;0,-E73/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>133</v>
       </c>
       <c r="E74" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>290</v>
@@ -9179,12 +9216,12 @@
         <v>256</v>
       </c>
       <c r="D75" s="7">
-        <f>ROUNDDOWN(63+IF(E74&lt;0,-E74/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>63</v>
+        <f>ROUNDDOWN(65+IF(E74&lt;0,-E74/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>78</v>
       </c>
       <c r="E75" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>290</v>
@@ -9214,12 +9251,12 @@
         <v>40</v>
       </c>
       <c r="D76" s="7">
-        <f>41+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>41</v>
+        <f>94+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>94</v>
       </c>
       <c r="E76" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-54</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>290</v>
@@ -9249,12 +9286,12 @@
         <v>200</v>
       </c>
       <c r="D77" s="7">
-        <f>ROUNDDOWN(151+IF(E76&lt;0,-E76/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>110</v>
+        <f>ROUNDDOWN(126+41+IF(E76&lt;0,-E76/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>144</v>
       </c>
       <c r="E77" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>290</v>
@@ -9285,12 +9322,12 @@
         <v>338</v>
       </c>
       <c r="D78" s="7">
-        <f>ROUNDDOWN(40+IF(E77&lt;0,-E77/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>40</v>
+        <f>ROUNDDOWN(44+IF(E77&lt;0,-E77/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>44</v>
       </c>
       <c r="E78" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>290</v>
@@ -9320,12 +9357,12 @@
         <v>82</v>
       </c>
       <c r="D79" s="7">
-        <f>84+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>84</v>
+        <f>114+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>114</v>
       </c>
       <c r="E79" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-32</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>290</v>
@@ -9355,12 +9392,12 @@
         <v>216</v>
       </c>
       <c r="D80" s="7">
-        <f>ROUNDDOWN(114+IF(E79&lt;0,-E79/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>114</v>
+        <f>ROUNDDOWN(122+IF(E79&lt;0,-E79/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>132</v>
       </c>
       <c r="E80" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>290</v>
@@ -9390,12 +9427,12 @@
         <v>222</v>
       </c>
       <c r="D81" s="7">
-        <f>ROUNDDOWN(18+IF(E80&lt;0,-E80/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>18</v>
+        <f>ROUNDDOWN(21+IF(E80&lt;0,-E80/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>21</v>
       </c>
       <c r="E81" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>290</v>
@@ -9425,12 +9462,12 @@
         <v>46</v>
       </c>
       <c r="D82" s="7">
-        <f>46+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>46</v>
+        <f>66+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>66</v>
       </c>
       <c r="E82" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>290</v>
@@ -9460,12 +9497,12 @@
         <v>54</v>
       </c>
       <c r="D83" s="7">
-        <f>ROUNDDOWN(54+IF(E82&lt;0,-E82/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>54</v>
+        <f>ROUNDDOWN(59+IF(E82&lt;0,-E82/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>65</v>
       </c>
       <c r="E83" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>290</v>
@@ -9495,12 +9532,12 @@
         <v>100</v>
       </c>
       <c r="D84" s="7">
-        <f>ROUNDDOWN(3+IF(E83&lt;0,-E83/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(4+IF(E83&lt;0,-E83/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E84" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>290</v>
@@ -9530,12 +9567,12 @@
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f>24+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>23+23+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>23</v>
       </c>
       <c r="E85" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-23</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>290</v>
@@ -9566,12 +9603,12 @@
         <v>18</v>
       </c>
       <c r="D86" s="7">
-        <f>ROUNDDOWN(19+27+IF(E85&lt;0,-E85/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>ROUNDDOWN(26+27+IF(E85&lt;0,-E85/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>33</v>
       </c>
       <c r="E86" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>290</v>
@@ -9602,12 +9639,12 @@
         <v>149</v>
       </c>
       <c r="D87" s="7">
-        <f>ROUNDDOWN(35+IF(E86&lt;0,-E86/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>35</v>
+        <f>ROUNDDOWN(36+IF(E86&lt;0,-E86/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>41</v>
       </c>
       <c r="E87" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>290</v>
@@ -9847,12 +9884,12 @@
         <v>15</v>
       </c>
       <c r="D94" s="7">
-        <f>16+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>16</v>
+        <f>62+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>62</v>
       </c>
       <c r="E94" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-47</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>290</v>
@@ -9882,12 +9919,12 @@
         <v>30</v>
       </c>
       <c r="D95" s="7">
-        <f>ROUNDDOWN(31+IF(E94&lt;0,-E94/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <f>ROUNDDOWN(41+IF(E94&lt;0,-E94/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>56</v>
       </c>
       <c r="E95" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-26</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>290</v>
@@ -9917,12 +9954,12 @@
         <v>54</v>
       </c>
       <c r="D96" s="7">
-        <f>ROUNDDOWN(12+IF(E95&lt;0,-E95/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <f>ROUNDDOWN(14+IF(E95&lt;0,-E95/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>22</v>
       </c>
       <c r="E96" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>290</v>
@@ -10775,12 +10812,12 @@
         <v>180</v>
       </c>
       <c r="D121" s="7">
-        <f>ROUNDDOWN(18+IF(E112&lt;0,-E112/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(20+18+IF(E112&lt;0,-E112/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>20</v>
       </c>
       <c r="E121" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>286</v>
@@ -10790,7 +10827,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -10911,12 +10948,12 @@
         <v>180</v>
       </c>
       <c r="D125" s="7">
-        <f>ROUNDDOWN(58+IF(E116&lt;0,-E116/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>44</v>
+        <f>ROUNDDOWN(46+14+IF(E116&lt;0,-E116/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>46</v>
       </c>
       <c r="E125" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>286</v>
@@ -10926,7 +10963,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" si="2"/>
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -11047,12 +11084,12 @@
         <v>0</v>
       </c>
       <c r="D129" s="7">
-        <f>ROUNDDOWN(2+IF(E120&lt;0,-E120/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>ROUNDDOWN(3+IF(E120&lt;0,-E120/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>3</v>
       </c>
       <c r="E129" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>288</v>
@@ -11081,11 +11118,11 @@
       </c>
       <c r="D130" s="7">
         <f>ROUNDDOWN(2+IF(E121&lt;0,-E121/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>286</v>
@@ -11095,10 +11132,11 @@
       </c>
       <c r="H130" s="1">
         <f>IF(E130&gt;0,ROUNDUP(G130*E130,0),0)</f>
-        <v>6200</v>
+        <v>6180</v>
       </c>
       <c r="I130" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J130" s="1">
         <v>0</v>
@@ -11147,12 +11185,12 @@
         <v>126</v>
       </c>
       <c r="D132" s="7">
-        <f>ROUNDDOWN(30+IF(E123&lt;0,-E123/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>36</v>
+        <f>ROUNDDOWN(32+IF(E123&lt;0,-E123/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>38</v>
       </c>
       <c r="E132" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>287</v>
@@ -11162,7 +11200,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>1760</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
@@ -11346,11 +11384,11 @@
       </c>
       <c r="D138" s="7">
         <f>ROUNDDOWN(11+IF(E129&lt;0,-E129/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>288</v>
@@ -11360,7 +11398,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
@@ -11922,11 +11960,11 @@
       </c>
       <c r="D155" s="7">
         <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E155" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>287</v>
@@ -11939,8 +11977,8 @@
         <v>0</v>
       </c>
       <c r="I155" s="1">
-        <f>4+6+2+4+5-20</f>
-        <v>1</v>
+        <f>4+6+2+4+5-20+2</f>
+        <v>3</v>
       </c>
       <c r="J155" s="1">
         <v>0</v>
@@ -12265,12 +12303,12 @@
         <v>27</v>
       </c>
       <c r="D165" s="7">
-        <f>ROUNDDOWN(5+IF(E164&lt;0,-E164/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>ROUNDDOWN(3+IF(E164&lt;0,-E164/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E165" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>287</v>
@@ -12280,7 +12318,7 @@
       </c>
       <c r="H165" s="1">
         <f>IF(E165&gt;0,ROUNDUP(G165*E165,0),0)</f>
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="I165" s="1">
         <f>0</f>
@@ -13130,7 +13168,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D31 D148 D150:D151 D130 D169 H112 H130 I143 I9 D21 D27 D40 D116 D135 D159 D179 D143 I22 I151 I145" formula="1"/>
+    <ignoredError sqref="D31 D148 D150:D151 D130 D169 H112 H130 I143 I9 D21 D27 D40 D116 D135 D159 D179 D143 I22 I151 I145 D13" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -13140,12 +13178,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A25C3D3-6E38-499A-9FF6-5969E449CBB8}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>420*7</f>
+        <v>2940</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>450</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>450</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>360</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>450</v>
+      </c>
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>450</v>
+      </c>
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>450</v>
+      </c>
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>450</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>675</v>
+      </c>
+      <c r="B11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>SUM(A2:A12)*6</f>
+        <v>50310</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giovanni\Desktop\Maestría\Git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517F478-9E4C-4BE3-ABF9-057DC66717B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF43DFA-AE57-4C7E-83DC-CB73D93302F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Personajes y armas" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="305">
   <si>
     <t>Material</t>
   </si>
@@ -970,6 +970,10 @@
   </si>
   <si>
     <t>5 jefes semanales</t>
+  </si>
+  <si>
+    <t>Arco de la Cazadora
+Esmeralda</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1416,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}" name="Tabla1" displayName="Tabla1" ref="B2:C434" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B2:C434" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}" name="Tabla1" displayName="Tabla1" ref="B2:C446" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="B2:C446" xr:uid="{279ADBCD-BB26-402B-AAE9-C060D80B27BC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AE56AA23-0831-4871-97DA-CCAFFAC51AB9}" name="Material" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{AADF59F2-6477-4DF1-B64E-C9F196F7D95D}" name="Cantidad" dataDxfId="15"/>
@@ -1740,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706AD05-E9D7-4C6A-B33A-AF035FA29362}">
-  <dimension ref="B2:G434"/>
+  <dimension ref="B2:G446"/>
   <sheetViews>
-    <sheetView topLeftCell="A416" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C282" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4772,8 +4776,8 @@
         <v>9</v>
       </c>
       <c r="C280" s="1">
-        <f>605000+5000+15000+20000+30000+35000+45000</f>
-        <v>755000</v>
+        <f>(605000+5000+15000+20000+30000+35000+45000)*0</f>
+        <v>0</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>71</v>
@@ -4787,7 +4791,8 @@
         <v>139</v>
       </c>
       <c r="C281" s="1">
-        <v>605</v>
+        <f>605*0</f>
+        <v>0</v>
       </c>
       <c r="D281" s="9"/>
       <c r="E281" s="10"/>
@@ -4797,7 +4802,8 @@
         <v>146</v>
       </c>
       <c r="C282" s="1">
-        <v>3</v>
+        <f>3*0</f>
+        <v>0</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="10"/>
@@ -4807,7 +4813,8 @@
         <v>147</v>
       </c>
       <c r="C283" s="1">
-        <v>9</v>
+        <f>9*0</f>
+        <v>0</v>
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="10"/>
@@ -4817,7 +4824,8 @@
         <v>148</v>
       </c>
       <c r="C284" s="1">
-        <v>9</v>
+        <f>9*0</f>
+        <v>0</v>
       </c>
       <c r="D284" s="9"/>
       <c r="E284" s="10"/>
@@ -4827,7 +4835,8 @@
         <v>149</v>
       </c>
       <c r="C285" s="1">
-        <v>4</v>
+        <f>4*0</f>
+        <v>0</v>
       </c>
       <c r="D285" s="9"/>
       <c r="E285" s="10"/>
@@ -4837,7 +4846,8 @@
         <v>172</v>
       </c>
       <c r="C286" s="1">
-        <v>15</v>
+        <f>15*0</f>
+        <v>0</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="10"/>
@@ -4847,7 +4857,8 @@
         <v>174</v>
       </c>
       <c r="C287" s="1">
-        <v>18</v>
+        <f>18*0</f>
+        <v>0</v>
       </c>
       <c r="D287" s="9"/>
       <c r="E287" s="10"/>
@@ -4857,7 +4868,8 @@
         <v>173</v>
       </c>
       <c r="C288" s="1">
-        <v>27</v>
+        <f>27*0</f>
+        <v>0</v>
       </c>
       <c r="D288" s="9"/>
       <c r="E288" s="10"/>
@@ -4867,7 +4879,8 @@
         <v>100</v>
       </c>
       <c r="C289" s="1">
-        <v>10</v>
+        <f>10*0</f>
+        <v>0</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="10"/>
@@ -4877,7 +4890,8 @@
         <v>101</v>
       </c>
       <c r="C290" s="1">
-        <v>15</v>
+        <f>15*0</f>
+        <v>0</v>
       </c>
       <c r="D290" s="9"/>
       <c r="E290" s="10"/>
@@ -4887,7 +4901,8 @@
         <v>102</v>
       </c>
       <c r="C291" s="1">
-        <v>18</v>
+        <f>18*0</f>
+        <v>0</v>
       </c>
       <c r="D291" s="9"/>
       <c r="E291" s="10"/>
@@ -5452,14 +5467,13 @@
         <v>9</v>
       </c>
       <c r="C345" s="1">
-        <f>907000+10000+20000+30000+45000+55000+65000</f>
-        <v>1132000</v>
+        <v>755000</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E345" s="10" t="s">
-        <v>208</v>
+        <v>89</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,7 +5481,7 @@
         <v>139</v>
       </c>
       <c r="C346" s="1">
-        <v>907</v>
+        <v>605</v>
       </c>
       <c r="D346" s="9"/>
       <c r="E346" s="10"/>
@@ -5477,7 +5491,7 @@
         <v>201</v>
       </c>
       <c r="C347" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D347" s="9"/>
       <c r="E347" s="10"/>
@@ -5487,7 +5501,7 @@
         <v>202</v>
       </c>
       <c r="C348" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D348" s="9"/>
       <c r="E348" s="10"/>
@@ -5497,7 +5511,7 @@
         <v>203</v>
       </c>
       <c r="C349" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D349" s="9"/>
       <c r="E349" s="10"/>
@@ -5507,7 +5521,7 @@
         <v>204</v>
       </c>
       <c r="C350" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D350" s="9"/>
       <c r="E350" s="10"/>
@@ -5517,7 +5531,7 @@
         <v>205</v>
       </c>
       <c r="C351" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D351" s="9"/>
       <c r="E351" s="10"/>
@@ -5527,7 +5541,7 @@
         <v>206</v>
       </c>
       <c r="C352" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D352" s="9"/>
       <c r="E352" s="10"/>
@@ -5537,7 +5551,7 @@
         <v>207</v>
       </c>
       <c r="C353" s="1">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D353" s="9"/>
       <c r="E353" s="10"/>
@@ -5547,7 +5561,7 @@
         <v>183</v>
       </c>
       <c r="C354" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D354" s="9"/>
       <c r="E354" s="10"/>
@@ -5557,7 +5571,7 @@
         <v>84</v>
       </c>
       <c r="C355" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D355" s="9"/>
       <c r="E355" s="10"/>
@@ -5567,7 +5581,7 @@
         <v>85</v>
       </c>
       <c r="C356" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D356" s="9"/>
       <c r="E356" s="10"/>
@@ -5577,14 +5591,14 @@
         <v>9</v>
       </c>
       <c r="C357" s="1">
-        <f>515000+20000+30000+35000+45000</f>
-        <v>645000</v>
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
       </c>
       <c r="D357" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="358" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5592,212 +5606,212 @@
         <v>139</v>
       </c>
       <c r="C358" s="1">
-        <v>515</v>
+        <v>907</v>
       </c>
       <c r="D358" s="9"/>
       <c r="E358" s="10"/>
     </row>
     <row r="359" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C359" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D359" s="9"/>
       <c r="E359" s="10"/>
     </row>
     <row r="360" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C360" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D360" s="9"/>
       <c r="E360" s="10"/>
     </row>
     <row r="361" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C361" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D361" s="9"/>
       <c r="E361" s="10"/>
     </row>
     <row r="362" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C362" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D362" s="9"/>
       <c r="E362" s="10"/>
     </row>
     <row r="363" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C363" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D363" s="9"/>
       <c r="E363" s="10"/>
     </row>
     <row r="364" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C364" s="1">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D364" s="9"/>
       <c r="E364" s="10"/>
     </row>
     <row r="365" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C365" s="1">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D365" s="9"/>
       <c r="E365" s="10"/>
     </row>
     <row r="366" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="1" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C366" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D366" s="9"/>
       <c r="E366" s="10"/>
     </row>
     <row r="367" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C367" s="1">
-        <f>907000+10000+20000+30000+45000+55000+65000</f>
-        <v>1132000</v>
-      </c>
-      <c r="D367" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E367" s="10" t="s">
-        <v>128</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D367" s="9"/>
+      <c r="E367" s="10"/>
     </row>
     <row r="368" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="1" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C368" s="1">
-        <v>907</v>
+        <v>27</v>
       </c>
       <c r="D368" s="9"/>
       <c r="E368" s="10"/>
     </row>
     <row r="369" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="1" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="C369" s="1">
-        <v>5</v>
-      </c>
-      <c r="D369" s="9"/>
-      <c r="E369" s="10"/>
+        <f>515000+20000+30000+35000+45000</f>
+        <v>645000</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E369" s="10" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="370" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C370" s="1">
-        <v>14</v>
+        <v>515</v>
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="10"/>
     </row>
     <row r="371" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="1" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C371" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D371" s="9"/>
       <c r="E371" s="10"/>
     </row>
     <row r="372" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="1" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="C372" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D372" s="9"/>
       <c r="E372" s="10"/>
     </row>
     <row r="373" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="1" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="C373" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D373" s="9"/>
       <c r="E373" s="10"/>
     </row>
     <row r="374" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="1" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C374" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D374" s="9"/>
       <c r="E374" s="10"/>
     </row>
     <row r="375" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="1" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="C375" s="1">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D375" s="9"/>
       <c r="E375" s="10"/>
     </row>
     <row r="376" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="1" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="C376" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D376" s="9"/>
       <c r="E376" s="10"/>
     </row>
     <row r="377" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="1" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="C377" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D377" s="9"/>
       <c r="E377" s="10"/>
     </row>
     <row r="378" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="1" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="C378" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D378" s="9"/>
       <c r="E378" s="10"/>
@@ -5807,14 +5821,14 @@
         <v>9</v>
       </c>
       <c r="C379" s="1">
-        <f>515000+20000+30000+35000+45000</f>
-        <v>645000</v>
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E379" s="11" t="s">
-        <v>220</v>
+        <v>104</v>
+      </c>
+      <c r="E379" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="380" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5822,267 +5836,267 @@
         <v>139</v>
       </c>
       <c r="C380" s="1">
-        <v>515</v>
+        <v>907</v>
       </c>
       <c r="D380" s="9"/>
       <c r="E380" s="10"/>
     </row>
     <row r="381" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="1" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="C381" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D381" s="9"/>
       <c r="E381" s="10"/>
     </row>
     <row r="382" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="1" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="C382" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D382" s="9"/>
       <c r="E382" s="10"/>
     </row>
     <row r="383" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C383" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D383" s="9"/>
       <c r="E383" s="10"/>
     </row>
     <row r="384" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C384" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D384" s="9"/>
       <c r="E384" s="10"/>
     </row>
     <row r="385" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="1" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C385" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D385" s="9"/>
       <c r="E385" s="10"/>
     </row>
     <row r="386" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="1" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="C386" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D386" s="9"/>
       <c r="E386" s="10"/>
     </row>
     <row r="387" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="1" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C387" s="1">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D387" s="9"/>
       <c r="E387" s="10"/>
     </row>
     <row r="388" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C388" s="1">
+        <v>15</v>
+      </c>
+      <c r="D388" s="9"/>
+      <c r="E388" s="10"/>
+    </row>
+    <row r="389" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B389" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C389" s="1">
+        <v>23</v>
+      </c>
+      <c r="D389" s="9"/>
+      <c r="E389" s="10"/>
+    </row>
+    <row r="390" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C390" s="1">
+        <v>27</v>
+      </c>
+      <c r="D390" s="9"/>
+      <c r="E390" s="10"/>
+    </row>
+    <row r="391" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B391" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C388" s="1">
+      <c r="C391" s="1">
+        <f>515000+20000+30000+35000+45000</f>
+        <v>645000</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C392" s="1">
+        <v>515</v>
+      </c>
+      <c r="D392" s="9"/>
+      <c r="E392" s="10"/>
+    </row>
+    <row r="393" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C393" s="1">
+        <v>6</v>
+      </c>
+      <c r="D393" s="9"/>
+      <c r="E393" s="10"/>
+    </row>
+    <row r="394" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B394" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C394" s="1">
+        <v>9</v>
+      </c>
+      <c r="D394" s="9"/>
+      <c r="E394" s="10"/>
+    </row>
+    <row r="395" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B395" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C395" s="1">
+        <v>4</v>
+      </c>
+      <c r="D395" s="9"/>
+      <c r="E395" s="10"/>
+    </row>
+    <row r="396" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C396" s="1">
+        <v>18</v>
+      </c>
+      <c r="D396" s="9"/>
+      <c r="E396" s="10"/>
+    </row>
+    <row r="397" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C397" s="1">
+        <v>27</v>
+      </c>
+      <c r="D397" s="9"/>
+      <c r="E397" s="10"/>
+    </row>
+    <row r="398" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C398" s="1">
+        <v>15</v>
+      </c>
+      <c r="D398" s="9"/>
+      <c r="E398" s="10"/>
+    </row>
+    <row r="399" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C399" s="1">
+        <v>18</v>
+      </c>
+      <c r="D399" s="9"/>
+      <c r="E399" s="10"/>
+    </row>
+    <row r="400" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C400" s="1">
         <f>368000+35000+45000</f>
         <v>448000</v>
       </c>
-      <c r="D388" s="9" t="s">
+      <c r="D400" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E388" s="11" t="s">
+      <c r="E400" s="11" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="389" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C389" s="1">
-        <v>368</v>
-      </c>
-      <c r="D389" s="9"/>
-      <c r="E389" s="10"/>
-    </row>
-    <row r="390" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C390" s="1">
-        <v>6</v>
-      </c>
-      <c r="D390" s="9"/>
-      <c r="E390" s="10"/>
-    </row>
-    <row r="391" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C391" s="1">
-        <v>4</v>
-      </c>
-      <c r="D391" s="9"/>
-      <c r="E391" s="10"/>
-    </row>
-    <row r="392" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C392" s="1">
-        <v>27</v>
-      </c>
-      <c r="D392" s="9"/>
-      <c r="E392" s="10"/>
-    </row>
-    <row r="393" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C393" s="1">
-        <v>18</v>
-      </c>
-      <c r="D393" s="9"/>
-      <c r="E393" s="10"/>
-    </row>
-    <row r="394" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C394" s="1">
-        <f>907000+10000+20000+30000+45000+55000+65000</f>
-        <v>1132000</v>
-      </c>
-      <c r="D394" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E394" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="395" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C395" s="1">
-        <v>907</v>
-      </c>
-      <c r="D395" s="9"/>
-      <c r="E395" s="10"/>
-    </row>
-    <row r="396" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C396" s="1">
-        <v>5</v>
-      </c>
-      <c r="D396" s="9"/>
-      <c r="E396" s="10"/>
-    </row>
-    <row r="397" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C397" s="1">
-        <v>14</v>
-      </c>
-      <c r="D397" s="9"/>
-      <c r="E397" s="10"/>
-    </row>
-    <row r="398" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C398" s="1">
-        <v>14</v>
-      </c>
-      <c r="D398" s="9"/>
-      <c r="E398" s="10"/>
-    </row>
-    <row r="399" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C399" s="1">
-        <v>6</v>
-      </c>
-      <c r="D399" s="9"/>
-      <c r="E399" s="10"/>
-    </row>
-    <row r="400" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C400" s="1">
-        <v>23</v>
-      </c>
-      <c r="D400" s="9"/>
-      <c r="E400" s="10"/>
     </row>
     <row r="401" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="1" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="C401" s="1">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="D401" s="9"/>
       <c r="E401" s="10"/>
     </row>
     <row r="402" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C402" s="1">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D402" s="9"/>
       <c r="E402" s="10"/>
     </row>
     <row r="403" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="1" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C403" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D403" s="9"/>
       <c r="E403" s="10"/>
     </row>
     <row r="404" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="C404" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D404" s="9"/>
       <c r="E404" s="10"/>
     </row>
     <row r="405" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="1" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="C405" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D405" s="9"/>
       <c r="E405" s="10"/>
@@ -6092,14 +6106,14 @@
         <v>9</v>
       </c>
       <c r="C406" s="1">
-        <f>(605000+5000+15000+20000+30000+35000+45000)*0</f>
-        <v>0</v>
+        <f>907000+10000+20000+30000+45000+55000+65000</f>
+        <v>1132000</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E406" s="10" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6107,52 +6121,47 @@
         <v>139</v>
       </c>
       <c r="C407" s="1">
-        <f>605*0</f>
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="D407" s="9"/>
       <c r="E407" s="10"/>
     </row>
     <row r="408" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="1" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C408" s="1">
-        <f>3*0</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D408" s="9"/>
       <c r="E408" s="10"/>
     </row>
     <row r="409" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C409" s="1">
-        <f>9*0</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D409" s="9"/>
       <c r="E409" s="10"/>
     </row>
     <row r="410" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C410" s="1">
-        <f>9*0</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D410" s="9"/>
       <c r="E410" s="10"/>
     </row>
     <row r="411" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="1" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="C411" s="1">
-        <f>4*0</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D411" s="9"/>
       <c r="E411" s="10"/>
@@ -6162,8 +6171,7 @@
         <v>205</v>
       </c>
       <c r="C412" s="1">
-        <f>15*0</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D412" s="9"/>
       <c r="E412" s="10"/>
@@ -6173,8 +6181,7 @@
         <v>206</v>
       </c>
       <c r="C413" s="1">
-        <f>18*0</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D413" s="9"/>
       <c r="E413" s="10"/>
@@ -6184,41 +6191,37 @@
         <v>207</v>
       </c>
       <c r="C414" s="1">
-        <f>27*0</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D414" s="9"/>
       <c r="E414" s="10"/>
     </row>
     <row r="415" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="1" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C415" s="1">
-        <f>10*0</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D415" s="9"/>
       <c r="E415" s="10"/>
     </row>
     <row r="416" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="C416" s="1">
-        <f>15*0</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D416" s="9"/>
       <c r="E416" s="10"/>
     </row>
     <row r="417" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="1" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="C417" s="1">
-        <f>18*0</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D417" s="9"/>
       <c r="E417" s="10"/>
@@ -6228,14 +6231,14 @@
         <v>9</v>
       </c>
       <c r="C418" s="1">
-        <f>(515000+20000+30000+35000+45000)*0</f>
+        <f>(605000+5000+15000+20000+30000+35000+45000)*0</f>
         <v>0</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E418" s="11" t="s">
-        <v>224</v>
+      <c r="E418" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="419" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6243,201 +6246,333 @@
         <v>139</v>
       </c>
       <c r="C419" s="1">
-        <f>515*0</f>
+        <f>605*0</f>
         <v>0</v>
       </c>
       <c r="D419" s="9"/>
-      <c r="E419" s="11"/>
+      <c r="E419" s="10"/>
     </row>
     <row r="420" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C420" s="1">
-        <f>6*0</f>
+        <f>3*0</f>
         <v>0</v>
       </c>
       <c r="D420" s="9"/>
-      <c r="E420" s="11"/>
+      <c r="E420" s="10"/>
     </row>
     <row r="421" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="1" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C421" s="1">
         <f>9*0</f>
         <v>0</v>
       </c>
       <c r="D421" s="9"/>
-      <c r="E421" s="11"/>
+      <c r="E421" s="10"/>
     </row>
     <row r="422" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="1" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="C422" s="1">
-        <f>4*0</f>
+        <f>9*0</f>
         <v>0</v>
       </c>
       <c r="D422" s="9"/>
-      <c r="E422" s="11"/>
+      <c r="E422" s="10"/>
     </row>
     <row r="423" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="1" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="C423" s="1">
-        <f>18*0</f>
+        <f>4*0</f>
         <v>0</v>
       </c>
       <c r="D423" s="9"/>
-      <c r="E423" s="11"/>
+      <c r="E423" s="10"/>
     </row>
     <row r="424" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="C424" s="1">
-        <f>27*0</f>
+        <f>15*0</f>
         <v>0</v>
       </c>
       <c r="D424" s="9"/>
-      <c r="E424" s="11"/>
+      <c r="E424" s="10"/>
     </row>
     <row r="425" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="1" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="C425" s="1">
-        <f>15*0</f>
+        <f>18*0</f>
         <v>0</v>
       </c>
       <c r="D425" s="9"/>
-      <c r="E425" s="11"/>
+      <c r="E425" s="10"/>
     </row>
     <row r="426" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="1" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="C426" s="1">
-        <f>18*0</f>
+        <f>27*0</f>
         <v>0</v>
       </c>
       <c r="D426" s="9"/>
-      <c r="E426" s="11"/>
+      <c r="E426" s="10"/>
     </row>
     <row r="427" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C427" s="1">
+        <f>10*0</f>
+        <v>0</v>
+      </c>
+      <c r="D427" s="9"/>
+      <c r="E427" s="10"/>
+    </row>
+    <row r="428" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B428" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C428" s="1">
+        <f>15*0</f>
+        <v>0</v>
+      </c>
+      <c r="D428" s="9"/>
+      <c r="E428" s="10"/>
+    </row>
+    <row r="429" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B429" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C429" s="1">
+        <f>18*0</f>
+        <v>0</v>
+      </c>
+      <c r="D429" s="9"/>
+      <c r="E429" s="10"/>
+    </row>
+    <row r="430" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B430" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C427" s="1">
+      <c r="C430" s="1">
+        <f>(515000+20000+30000+35000+45000)*0</f>
+        <v>0</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E430" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B431" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C431" s="1">
+        <f>515*0</f>
+        <v>0</v>
+      </c>
+      <c r="D431" s="9"/>
+      <c r="E431" s="11"/>
+    </row>
+    <row r="432" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B432" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C432" s="1">
+        <f>6*0</f>
+        <v>0</v>
+      </c>
+      <c r="D432" s="9"/>
+      <c r="E432" s="11"/>
+    </row>
+    <row r="433" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B433" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C433" s="1">
+        <f>9*0</f>
+        <v>0</v>
+      </c>
+      <c r="D433" s="9"/>
+      <c r="E433" s="11"/>
+    </row>
+    <row r="434" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C434" s="1">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="D434" s="9"/>
+      <c r="E434" s="11"/>
+    </row>
+    <row r="435" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B435" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C435" s="1">
+        <f>18*0</f>
+        <v>0</v>
+      </c>
+      <c r="D435" s="9"/>
+      <c r="E435" s="11"/>
+    </row>
+    <row r="436" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C436" s="1">
+        <f>27*0</f>
+        <v>0</v>
+      </c>
+      <c r="D436" s="9"/>
+      <c r="E436" s="11"/>
+    </row>
+    <row r="437" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B437" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C437" s="1">
+        <f>15*0</f>
+        <v>0</v>
+      </c>
+      <c r="D437" s="9"/>
+      <c r="E437" s="11"/>
+    </row>
+    <row r="438" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C438" s="1">
+        <f>18*0</f>
+        <v>0</v>
+      </c>
+      <c r="D438" s="9"/>
+      <c r="E438" s="11"/>
+    </row>
+    <row r="439" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B439" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439" s="1">
         <f>454000+30000+35000+45000</f>
         <v>564000</v>
       </c>
-      <c r="D427" s="9" t="s">
+      <c r="D439" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E427" s="10" t="s">
+      <c r="E439" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="428" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="1" t="s">
+    <row r="440" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C428" s="1">
+      <c r="C440" s="1">
         <v>454</v>
       </c>
-      <c r="D428" s="9"/>
-      <c r="E428" s="10"/>
-    </row>
-    <row r="429" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="1" t="s">
+      <c r="D440" s="9"/>
+      <c r="E440" s="10"/>
+    </row>
+    <row r="441" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B441" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C429" s="1">
+      <c r="C441" s="1">
         <v>9</v>
       </c>
-      <c r="D429" s="9"/>
-      <c r="E429" s="10"/>
-    </row>
-    <row r="430" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="1" t="s">
+      <c r="D441" s="9"/>
+      <c r="E441" s="10"/>
+    </row>
+    <row r="442" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B442" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C430" s="1">
+      <c r="C442" s="1">
         <v>4</v>
       </c>
-      <c r="D430" s="9"/>
-      <c r="E430" s="10"/>
-    </row>
-    <row r="431" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="1" t="s">
+      <c r="D442" s="9"/>
+      <c r="E442" s="10"/>
+    </row>
+    <row r="443" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B443" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C431" s="1">
+      <c r="C443" s="1">
         <v>12</v>
       </c>
-      <c r="D431" s="9"/>
-      <c r="E431" s="10"/>
-    </row>
-    <row r="432" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="1" t="s">
+      <c r="D443" s="9"/>
+      <c r="E443" s="10"/>
+    </row>
+    <row r="444" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C432" s="1">
+      <c r="C444" s="1">
         <v>27</v>
       </c>
-      <c r="D432" s="9"/>
-      <c r="E432" s="10"/>
-    </row>
-    <row r="433" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="1" t="s">
+      <c r="D444" s="9"/>
+      <c r="E444" s="10"/>
+    </row>
+    <row r="445" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B445" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C433" s="1">
+      <c r="C445" s="1">
         <v>9</v>
       </c>
-      <c r="D433" s="9"/>
-      <c r="E433" s="10"/>
-    </row>
-    <row r="434" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="1" t="s">
+      <c r="D445" s="9"/>
+      <c r="E445" s="10"/>
+    </row>
+    <row r="446" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B446" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C434" s="1">
+      <c r="C446" s="1">
         <v>18</v>
       </c>
-      <c r="D434" s="9"/>
-      <c r="E434" s="10"/>
+      <c r="D446" s="9"/>
+      <c r="E446" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G434">
-    <sortCondition ref="G3:G434"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G446">
+    <sortCondition ref="G3:G446"/>
   </sortState>
-  <mergeCells count="78">
+  <mergeCells count="80">
+    <mergeCell ref="D379:D390"/>
+    <mergeCell ref="E379:E390"/>
+    <mergeCell ref="D418:D429"/>
+    <mergeCell ref="E418:E429"/>
+    <mergeCell ref="D430:D438"/>
+    <mergeCell ref="E430:E438"/>
+    <mergeCell ref="D391:D399"/>
+    <mergeCell ref="E391:E399"/>
+    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="E400:E405"/>
     <mergeCell ref="D406:D417"/>
     <mergeCell ref="E406:E417"/>
-    <mergeCell ref="D418:D426"/>
-    <mergeCell ref="E418:E426"/>
-    <mergeCell ref="D379:D387"/>
-    <mergeCell ref="E379:E387"/>
-    <mergeCell ref="D388:D393"/>
-    <mergeCell ref="E388:E393"/>
-    <mergeCell ref="D394:D405"/>
-    <mergeCell ref="E394:E405"/>
+    <mergeCell ref="D357:D368"/>
+    <mergeCell ref="E357:E368"/>
+    <mergeCell ref="D369:D378"/>
+    <mergeCell ref="E369:E378"/>
     <mergeCell ref="D345:D356"/>
     <mergeCell ref="E345:E356"/>
-    <mergeCell ref="D357:D366"/>
-    <mergeCell ref="E357:E366"/>
-    <mergeCell ref="D367:D378"/>
-    <mergeCell ref="E367:E378"/>
-    <mergeCell ref="D313:D320"/>
-    <mergeCell ref="E313:E320"/>
-    <mergeCell ref="D321:D332"/>
-    <mergeCell ref="E321:E332"/>
-    <mergeCell ref="D333:D344"/>
-    <mergeCell ref="E333:E344"/>
     <mergeCell ref="E188:E196"/>
     <mergeCell ref="E197:E223"/>
     <mergeCell ref="E120:E131"/>
@@ -6478,22 +6613,28 @@
     <mergeCell ref="E229:E233"/>
     <mergeCell ref="D234:D245"/>
     <mergeCell ref="E234:E245"/>
-    <mergeCell ref="D427:D434"/>
-    <mergeCell ref="E427:E434"/>
-    <mergeCell ref="D268:D279"/>
-    <mergeCell ref="E268:E279"/>
     <mergeCell ref="D246:D250"/>
     <mergeCell ref="E246:E250"/>
     <mergeCell ref="D251:D255"/>
     <mergeCell ref="E251:E255"/>
     <mergeCell ref="D256:D267"/>
     <mergeCell ref="E256:E267"/>
+    <mergeCell ref="D439:D446"/>
+    <mergeCell ref="E439:E446"/>
+    <mergeCell ref="D268:D279"/>
+    <mergeCell ref="E268:E279"/>
     <mergeCell ref="D280:D291"/>
     <mergeCell ref="E280:E291"/>
     <mergeCell ref="D292:D303"/>
     <mergeCell ref="E292:E303"/>
     <mergeCell ref="D304:D312"/>
     <mergeCell ref="E304:E312"/>
+    <mergeCell ref="D313:D320"/>
+    <mergeCell ref="E313:E320"/>
+    <mergeCell ref="D321:D332"/>
+    <mergeCell ref="E321:E332"/>
+    <mergeCell ref="D333:D344"/>
+    <mergeCell ref="E333:E344"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6510,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6569,7 +6710,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Tabla2[Resina total])</f>
-        <v>106912</v>
+        <v>106054</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6578,15 +6719,15 @@
       </c>
       <c r="C3" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B3)+5000000-Tabla2[[#This Row],[Inversión]]</f>
-        <v>100046480</v>
+        <v>99433740</v>
       </c>
       <c r="D3" s="7">
         <f>11415730+2821120+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11288325</v>
+        <v>10937185</v>
       </c>
       <c r="E3" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>88758155</v>
+        <v>88496555</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>290</v>
@@ -6596,15 +6737,15 @@
       </c>
       <c r="H3" s="1">
         <f>IF(E3&gt;0,ROUNDUP(G3*E3/60000,0),0)</f>
-        <v>29587</v>
+        <v>29499</v>
       </c>
       <c r="I3" s="1">
-        <f>638495</f>
-        <v>638495</v>
+        <f>638495+5200*3+5200*5+20000*11</f>
+        <v>900095</v>
       </c>
       <c r="J3" s="1">
-        <f>2626120+37500*2+120000+80000+236000+3000+200+30000*3+37500+80000+236000+3000+200</f>
-        <v>3587020</v>
+        <f>2626120+37500*2+120000+80000+236000+3000+200+30000*3+37500+80000+236000+3000+200+1200*10+180+5000+1980+2400*4+3180+3600*5+900+28640+10000+63000+15000+92800+22500+10960+119000+100000+100000</f>
+        <v>4199760</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>226</v>
@@ -6650,7 +6791,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 9 meses y 30 días</v>
+        <v>1 año 9 meses y 24 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6730,7 +6871,7 @@
       </c>
       <c r="N6" s="1">
         <f>E9</f>
-        <v>9262</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6742,12 +6883,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>981+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>981</v>
+        <f>0+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-981</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>290</v>
@@ -6778,12 +6919,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>ROUNDDOWN(771+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>967</v>
+        <f>ROUNDDOWN(0+IF(E7&lt;0,-E7/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-967</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>290</v>
@@ -6809,7 +6950,7 @@
       </c>
       <c r="N8" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N6/5,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"md")=1," día", " días")</f>
-        <v>5 años 0 meses y 26 días</v>
+        <v>5 años 3 meses y 29 días</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -6818,15 +6959,15 @@
       </c>
       <c r="C9" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B9)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11705</v>
+        <v>11586</v>
       </c>
       <c r="D9" s="7">
-        <f>ROUNDDOWN(1906+334+334+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2443</v>
+        <f>ROUNDDOWN(1979+334+IF(E8&lt;0,-E8/5,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>1860</v>
       </c>
       <c r="E9" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>9262</v>
+        <v>9726</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>290</v>
@@ -6838,12 +6979,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>10</f>
-        <v>10</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f>62+50+93+129</f>
-        <v>334</v>
+        <f>62+50+93+129+119</f>
+        <v>453</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>226</v>
@@ -6859,11 +7000,11 @@
       </c>
       <c r="D10" s="7">
         <f>7+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>290</v>
@@ -6876,8 +7017,8 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>2+1+2</f>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6970,11 +7111,11 @@
       </c>
       <c r="D13" s="7">
         <f>2+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>290</v>
@@ -6987,8 +7128,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>14</f>
+        <v>14</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -7081,11 +7222,11 @@
       </c>
       <c r="D16" s="7">
         <f>ROUNDDOWN(0+IF(E10&lt;0,-E10/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>290</v>
@@ -7098,8 +7239,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7192,11 +7333,11 @@
       </c>
       <c r="D19" s="7">
         <f>ROUNDDOWN(0+IF(E13&lt;0,-E13/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E19" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7209,8 +7350,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>12+1+1+2</f>
-        <v>16</v>
+        <f>21</f>
+        <v>21</v>
       </c>
       <c r="J19" s="1">
         <f>6+6</f>
@@ -7267,11 +7408,11 @@
       </c>
       <c r="D21" s="7">
         <f>ROUNDDOWN(10+IF(E15&lt;0,-E15/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>290</v>
@@ -7284,8 +7425,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7300,15 +7441,15 @@
       </c>
       <c r="C22" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B22)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
         <f>ROUNDDOWN(18+IF(E16&lt;0,-E16/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>290</v>
@@ -7321,12 +7462,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="J22" s="1">
-        <f>3+3</f>
-        <v>6</v>
+        <f>3+3+6</f>
+        <v>12</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>232</v>
@@ -7412,15 +7553,15 @@
       </c>
       <c r="C25" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B25)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D25" s="7">
         <f>ROUNDDOWN(11+IF(E19&lt;0,-E19/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>290</v>
@@ -7430,15 +7571,15 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="I25" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
-        <f>6</f>
-        <v>6</v>
+        <f>6+6</f>
+        <v>12</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>231</v>
@@ -7490,11 +7631,11 @@
       </c>
       <c r="D27" s="7">
         <f>ROUNDDOWN(20+IF(E21&lt;0,-E21/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>290</v>
@@ -7527,11 +7668,11 @@
       </c>
       <c r="D28" s="7">
         <f>ROUNDDOWN(9+IF(E22&lt;0,-E22/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>290</v>
@@ -7541,7 +7682,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -7708,11 +7849,11 @@
       </c>
       <c r="D33" s="7">
         <f>ROUNDDOWN(1+IF(E27&lt;0,-E27/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>290</v>
@@ -7722,7 +7863,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -7924,15 +8065,15 @@
       </c>
       <c r="C39" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B39)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D39" s="7">
         <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>290</v>
@@ -7942,14 +8083,15 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <f>6+2+3</f>
+        <v>11</v>
       </c>
       <c r="J39" s="1">
-        <f>8</f>
-        <v>8</v>
+        <f>8+12</f>
+        <v>20</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>236</v>
@@ -7961,7 +8103,7 @@
       </c>
       <c r="C40" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B40)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D40" s="7">
         <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -7969,7 +8111,7 @@
       </c>
       <c r="E40" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>290</v>
@@ -7979,14 +8121,15 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>1580</v>
+        <v>1340</v>
       </c>
       <c r="I40" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>2+3+2+2+3</f>
+        <v>12</v>
       </c>
       <c r="J40" s="1">
-        <v>4</v>
+        <f>4+12</f>
+        <v>16</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>237</v>
@@ -8357,15 +8500,15 @@
       </c>
       <c r="C51" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B51)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D51" s="7">
         <f>40+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -8377,12 +8520,12 @@
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>1+34</f>
+        <v>35</v>
       </c>
       <c r="J51" s="1">
-        <f>30</f>
-        <v>30</v>
+        <f>30+45</f>
+        <v>75</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>239</v>
@@ -8394,15 +8537,15 @@
       </c>
       <c r="C52" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B52)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D52" s="7">
-        <f>101+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>101</v>
+        <f>106+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>61</v>
       </c>
       <c r="E52" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -8417,7 +8560,8 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <f>45</f>
+        <v>45</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>239</v>
@@ -8891,15 +9035,15 @@
       </c>
       <c r="C66" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B66)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D66" s="7">
-        <f>ROUNDDOWN(26+IF(E65&lt;0,-E65/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>34</v>
+        <f>ROUNDDOWN(29+IF(E65&lt;0,-E65/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
+        <v>25</v>
       </c>
       <c r="E66" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>290</v>
@@ -8914,7 +9058,8 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>242</v>
@@ -9037,11 +9182,11 @@
       </c>
       <c r="D70" s="7">
         <f>72+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E70" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-62</v>
+        <v>-77</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>290</v>
@@ -9053,7 +9198,8 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <f>15</f>
+        <v>15</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -9072,11 +9218,11 @@
       </c>
       <c r="D71" s="7">
         <f>ROUNDDOWN(26+39+IF(E70&lt;0,-E70/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E71" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>26</v>
+        <v>-14</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>290</v>
@@ -9088,8 +9234,8 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>35</f>
+        <v>35</v>
       </c>
       <c r="J71" s="1">
         <f>39</f>
@@ -9109,11 +9255,11 @@
       </c>
       <c r="D72" s="7">
         <f>ROUNDDOWN(7+12+IF(E71&lt;0,-E71/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E72" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>290</v>
@@ -9142,11 +9288,11 @@
       </c>
       <c r="C73" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B73)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D73" s="7">
         <f>78+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E73" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -9165,7 +9311,8 @@
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <f>3+12</f>
+        <v>15</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>245</v>
@@ -9177,11 +9324,11 @@
       </c>
       <c r="C74" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B74)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D74" s="7">
         <f>ROUNDDOWN(112+66+IF(E73&lt;0,-E73/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E74" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -9200,8 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <f>3+3+3+4*3+18+6*3+9</f>
-        <v>66</v>
+        <f>3+3+3+4*3+18+6*3+9+9+14</f>
+        <v>89</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>245</v>
@@ -9213,11 +9360,11 @@
       </c>
       <c r="C75" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B75)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D75" s="7">
         <f>ROUNDDOWN(65+IF(E74&lt;0,-E74/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E75" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -9236,7 +9383,8 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>245</v>
@@ -9248,7 +9396,7 @@
       </c>
       <c r="C76" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B76)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D76" s="7">
         <f>94+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9256,7 +9404,7 @@
       </c>
       <c r="E76" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-54</v>
+        <v>-44</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>290</v>
@@ -9283,15 +9431,15 @@
       </c>
       <c r="C77" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B77)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D77" s="7">
         <f>ROUNDDOWN(126+41+IF(E76&lt;0,-E76/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E77" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>290</v>
@@ -9319,7 +9467,7 @@
       </c>
       <c r="C78" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B78)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="D78" s="7">
         <f>ROUNDDOWN(44+IF(E77&lt;0,-E77/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9327,7 +9475,7 @@
       </c>
       <c r="E78" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>290</v>
@@ -9354,7 +9502,7 @@
       </c>
       <c r="C79" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B79)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D79" s="7">
         <f>114+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9362,7 +9510,7 @@
       </c>
       <c r="E79" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>290</v>
@@ -9389,15 +9537,15 @@
       </c>
       <c r="C80" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B80)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D80" s="7">
         <f>ROUNDDOWN(122+IF(E79&lt;0,-E79/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E80" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>290</v>
@@ -9424,7 +9572,7 @@
       </c>
       <c r="C81" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B81)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D81" s="7">
         <f>ROUNDDOWN(21+IF(E80&lt;0,-E80/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9432,7 +9580,7 @@
       </c>
       <c r="E81" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>290</v>
@@ -9459,11 +9607,11 @@
       </c>
       <c r="C82" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B82)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D82" s="7">
         <f>66+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E82" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -9482,7 +9630,8 @@
         <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <f>5+18</f>
+        <v>23</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>247</v>
@@ -9494,11 +9643,11 @@
       </c>
       <c r="C83" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B83)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D83" s="7">
         <f>ROUNDDOWN(59+IF(E82&lt;0,-E82/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E83" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -9517,7 +9666,8 @@
         <v>0</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <f>9+18</f>
+        <v>27</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>247</v>
@@ -9881,7 +10031,7 @@
       </c>
       <c r="C94" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B94)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D94" s="7">
         <f>62+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -9889,7 +10039,7 @@
       </c>
       <c r="E94" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-47</v>
+        <v>-62</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>290</v>
@@ -9916,15 +10066,15 @@
       </c>
       <c r="C95" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B95)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D95" s="7">
         <f>ROUNDDOWN(41+IF(E94&lt;0,-E94/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E95" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-26</v>
+        <v>-49</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>290</v>
@@ -9951,15 +10101,15 @@
       </c>
       <c r="C96" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B96)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D96" s="7">
         <f>ROUNDDOWN(14+IF(E95&lt;0,-E95/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E96" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>32</v>
+        <v>-3</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>290</v>
@@ -10301,7 +10451,7 @@
       </c>
       <c r="C106" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B106)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D106" s="7">
         <f>39+23+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -10309,7 +10459,7 @@
       </c>
       <c r="E106" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>290</v>
@@ -10337,7 +10487,7 @@
       </c>
       <c r="C107" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B107)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D107" s="7">
         <f>ROUNDDOWN(72+IF(E106&lt;0,-E106/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -10345,7 +10495,7 @@
       </c>
       <c r="E107" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>290</v>
@@ -10372,7 +10522,7 @@
       </c>
       <c r="C108" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B108)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D108" s="7">
         <f>ROUNDDOWN(144+IF(E107&lt;0,-E107/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -10380,7 +10530,7 @@
       </c>
       <c r="E108" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>290</v>
@@ -10813,11 +10963,11 @@
       </c>
       <c r="D121" s="7">
         <f>ROUNDDOWN(20+18+IF(E112&lt;0,-E112/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E121" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>286</v>
@@ -10827,10 +10977,11 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>1570</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="J121" s="1">
         <f>9+9</f>
@@ -10847,11 +10998,11 @@
       </c>
       <c r="D122" s="7">
         <f>ROUNDDOWN(19+18+IF(E113&lt;0,-E113/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E122" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>287</v>
@@ -10861,10 +11012,11 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="I122" s="1">
-        <v>0</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="J122" s="1">
         <f>6+18+9</f>
@@ -11051,11 +11203,11 @@
       </c>
       <c r="D128" s="7">
         <f>ROUNDDOWN(43+IF(E119&lt;0,-E119/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E128" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>288</v>
@@ -11065,10 +11217,11 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="I128" s="1">
-        <v>0</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="J128" s="1">
         <f>4*3</f>
@@ -11085,11 +11238,11 @@
       </c>
       <c r="D129" s="7">
         <f>ROUNDDOWN(3+IF(E120&lt;0,-E120/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E129" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>288</v>
@@ -11102,7 +11255,8 @@
         <v>0</v>
       </c>
       <c r="I129" s="1">
-        <v>0</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="J129" s="1">
         <v>0</v>
@@ -11956,11 +12110,11 @@
       </c>
       <c r="C155" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B155)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D155" s="7">
         <f>9+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E155" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -11981,7 +12135,8 @@
         <v>3</v>
       </c>
       <c r="J155" s="1">
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
@@ -11990,11 +12145,11 @@
       </c>
       <c r="C156" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B156)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D156" s="7">
         <f>ROUNDDOWN(14+IF(E155&lt;0,-E155/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E156" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -12015,7 +12170,8 @@
         <v>19</v>
       </c>
       <c r="J156" s="1">
-        <v>0</v>
+        <f>5+9</f>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
@@ -12024,11 +12180,11 @@
       </c>
       <c r="C157" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B157)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D157" s="7">
         <f>ROUNDDOWN(2+IF(E156&lt;0,-E156/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E157" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
@@ -12049,7 +12205,8 @@
         <v>7</v>
       </c>
       <c r="J157" s="1">
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
@@ -12230,7 +12387,7 @@
       </c>
       <c r="C163" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B163)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D163" s="7">
         <f>5+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12238,7 +12395,7 @@
       </c>
       <c r="E163" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>287</v>
@@ -12265,15 +12422,15 @@
       </c>
       <c r="C164" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B164)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D164" s="7">
         <f>ROUNDDOWN(24+IF(E163&lt;0,-E163/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E164" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>287</v>
@@ -12300,15 +12457,15 @@
       </c>
       <c r="C165" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B165)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D165" s="7">
         <f>ROUNDDOWN(3+IF(E164&lt;0,-E164/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E165" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>287</v>
@@ -12318,7 +12475,7 @@
       </c>
       <c r="H165" s="1">
         <f>IF(E165&gt;0,ROUNDUP(G165*E165,0),0)</f>
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="I165" s="1">
         <f>0</f>
@@ -12334,7 +12491,7 @@
       </c>
       <c r="C166" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B166)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D166" s="7">
         <f>ROUNDDOWN(1+IF(E165&lt;0,-E165/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12342,7 +12499,7 @@
       </c>
       <c r="E166" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>287</v>
@@ -12352,7 +12509,7 @@
       </c>
       <c r="H166" s="1">
         <f>IF(E166&gt;0,ROUNDUP(G166*E166,0),0)</f>
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="I166" s="1">
         <v>0</v>
@@ -12895,7 +13052,7 @@
       </c>
       <c r="C183" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B183)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D183" s="7">
         <f>4+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12903,7 +13060,7 @@
       </c>
       <c r="E183" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>288</v>
@@ -12913,7 +13070,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I183" s="1">
         <v>0</v>
@@ -12928,7 +13085,7 @@
       </c>
       <c r="C184" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B184)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D184" s="7">
         <f>ROUNDDOWN(1+IF(E183&lt;0,-E183/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12936,7 +13093,7 @@
       </c>
       <c r="E184" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>288</v>
@@ -12946,7 +13103,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="I184" s="1">
         <v>0</v>
@@ -12961,7 +13118,7 @@
       </c>
       <c r="C185" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B185)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D185" s="7">
         <f>ROUNDDOWN(0+IF(E184&lt;0,-E184/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -12969,7 +13126,7 @@
       </c>
       <c r="E185" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>288</v>
@@ -12979,7 +13136,7 @@
       </c>
       <c r="H185" s="1">
         <f>IF(E185&gt;0,ROUNDUP(G185*E185,0),0)</f>
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
@@ -12994,7 +13151,7 @@
       </c>
       <c r="C186" s="7">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[Material],B186)-Tabla2[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D186" s="7">
         <f>ROUNDDOWN(0+IF(E185&lt;0,-E185/3,0),0)+Tabla2[[#This Row],[Farmeo]]-Tabla2[[#This Row],[Inversión]]</f>
@@ -13002,7 +13159,7 @@
       </c>
       <c r="E186" s="7">
         <f>Tabla2[[#This Row],[Cantidad]]-Tabla2[[#This Row],[Inventario]]</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>288</v>
@@ -13012,7 +13169,7 @@
       </c>
       <c r="H186" s="1">
         <f>IF(E186&gt;0,ROUNDUP(G186*E186,0),0)</f>
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="I186" s="1">
         <v>0</v>
@@ -13168,7 +13325,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D31 D148 D150:D151 D130 D169 H112 H130 I143 I9 D21 D27 D40 D116 D135 D159 D179 D143 I22 I151 I145 D13" formula="1"/>
+    <ignoredError sqref="D31 D148 D150:D151 D130 D169 H112 H130 I143 D21 D27 D40 D116 D135 D159 D179 D143 I151 I145 D13 I10 I13" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -13180,7 +13337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A25C3D3-6E38-499A-9FF6-5969E449CBB8}">
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44F264-FE29-4F6D-88CD-DC485D9A2B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E8A71-BDD8-425E-9606-604D6DEAA190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
@@ -1163,14 +1163,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,7 +1882,7 @@
         <f>804600+37500+(120000+260000+450000)*3</f>
         <v>3332100</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1896,7 +1896,7 @@
       <c r="C4" s="1">
         <v>192</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1906,7 +1906,7 @@
       <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
       <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1936,7 +1936,7 @@
       <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1947,7 +1947,7 @@
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1968,7 +1968,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <f>422200+804600+30000+(37500+120000+260000+450000)*3</f>
         <v>3859300</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2005,7 +2005,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
       <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
       <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
       <c r="C17" s="1">
         <v>32</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
       <c r="C18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,7 +2067,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2099,7 @@
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <f>804600+(37500+120000+260000+450000)*3</f>
         <v>3407100</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2124,7 +2124,7 @@
       <c r="C25" s="1">
         <v>192</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
       <c r="C27" s="1">
         <v>20</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2154,7 +2154,7 @@
       <c r="C28" s="1">
         <v>60</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,7 +2208,7 @@
       <c r="C33" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -2233,7 +2233,7 @@
       <c r="C35" s="1">
         <v>450</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
       <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,7 +2263,7 @@
       <c r="C38" s="1">
         <v>9</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
       <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
       <c r="C40" s="1">
         <v>46</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
       <c r="C41" s="1">
         <v>168</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <f>18+18</f>
         <v>36</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2336,7 +2336,7 @@
       <c r="C45" s="1">
         <v>9</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,7 +2347,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,7 +2368,7 @@
       <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <f>422200+804600+30000*2+(37500+120000+260000+450000)*3</f>
         <v>3889300</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -2394,7 +2394,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,7 +2415,7 @@
       <c r="C52" s="1">
         <v>6</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
       <c r="C53" s="1">
         <v>32</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
       <c r="C54" s="1">
         <v>105</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,7 +2468,7 @@
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,7 +2489,7 @@
       <c r="C59" s="1">
         <v>12</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,7 +2500,7 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -2515,7 +2515,7 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2525,7 +2525,7 @@
       <c r="C62" s="1">
         <v>6</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
       <c r="C63" s="1">
         <v>9</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
       <c r="C64" s="1">
         <v>6</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
       <c r="C65" s="1">
         <v>44</v>
       </c>
-      <c r="D65" s="12"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,7 +2565,7 @@
       <c r="C66" s="1">
         <v>155</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <f>30+66</f>
         <v>96</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,7 +2587,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D68" s="12"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2598,7 +2598,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
       <c r="C71" s="1">
         <v>12</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <f>319000+422200+804600+17500+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4330800</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -2645,7 +2645,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,7 +2655,7 @@
       <c r="C74" s="1">
         <v>9</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
       <c r="C75" s="1">
         <v>6</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,7 +2675,7 @@
       <c r="C76" s="1">
         <v>40</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
       <c r="C77" s="1">
         <v>135</v>
       </c>
-      <c r="D77" s="12"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2696,7 +2696,7 @@
         <f>18+3+19*3</f>
         <v>78</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2707,7 +2707,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <f>2+19*3</f>
         <v>59</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D81" s="12"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="10"/>
     </row>
     <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
       <c r="C82" s="1">
         <v>12</v>
       </c>
-      <c r="D82" s="12"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="10"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       <c r="C84" s="1">
         <v>450</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="10"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
       <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="12"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="10"/>
     </row>
     <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
       <c r="C86" s="1">
         <v>9</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="10"/>
     </row>
     <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,7 +2794,7 @@
       <c r="C87" s="1">
         <v>9</v>
       </c>
-      <c r="D87" s="12"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="10"/>
     </row>
     <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
       <c r="C88" s="1">
         <v>6</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="10"/>
     </row>
     <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,7 +2815,7 @@
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="D89" s="12"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
       <c r="C90" s="1">
         <v>168</v>
       </c>
-      <c r="D90" s="12"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="10"/>
     </row>
     <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D91" s="12"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="10"/>
     </row>
     <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2847,7 +2847,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D92" s="12"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2858,7 +2858,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D93" s="12"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="10"/>
     </row>
     <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,7 @@
       <c r="C94" s="1">
         <v>9</v>
       </c>
-      <c r="D94" s="12"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="10"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,7 +2879,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D95" s="12"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="10"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2890,7 +2890,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D96" s="12"/>
+      <c r="D96" s="14"/>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
       <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D97" s="12"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="10"/>
     </row>
     <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,10 +2911,10 @@
         <f>319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4365800</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D99" s="12"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="10"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,7 +2936,7 @@
       <c r="C100" s="1">
         <v>9</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="14"/>
       <c r="E100" s="10"/>
     </row>
     <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2946,7 +2946,7 @@
       <c r="C101" s="1">
         <v>6</v>
       </c>
-      <c r="D101" s="12"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,7 +2956,7 @@
       <c r="C102" s="1">
         <v>40</v>
       </c>
-      <c r="D102" s="12"/>
+      <c r="D102" s="14"/>
       <c r="E102" s="10"/>
     </row>
     <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
       <c r="C103" s="1">
         <v>135</v>
       </c>
-      <c r="D103" s="12"/>
+      <c r="D103" s="14"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
         <f>18+22*3</f>
         <v>84</v>
       </c>
-      <c r="D104" s="12"/>
+      <c r="D104" s="14"/>
       <c r="E104" s="10"/>
     </row>
     <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D105" s="12"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="10"/>
     </row>
     <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2999,7 +2999,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D106" s="12"/>
+      <c r="D106" s="14"/>
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3010,7 +3010,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D107" s="12"/>
+      <c r="D107" s="14"/>
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
       <c r="C108" s="1">
         <v>12</v>
       </c>
-      <c r="D108" s="12"/>
+      <c r="D108" s="14"/>
       <c r="E108" s="10"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,10 +3031,10 @@
         <f>319000+422200+804600+(30000+37500+120000+260000+450000)*3</f>
         <v>4238300</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D110" s="12"/>
+      <c r="D110" s="14"/>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3056,7 +3056,7 @@
       <c r="C111" s="1">
         <v>9</v>
       </c>
-      <c r="D111" s="12"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="10"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
       <c r="C112" s="1">
         <v>6</v>
       </c>
-      <c r="D112" s="12"/>
+      <c r="D112" s="14"/>
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
       <c r="C113" s="1">
         <v>40</v>
       </c>
-      <c r="D113" s="12"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,7 +3086,7 @@
       <c r="C114" s="1">
         <v>135</v>
       </c>
-      <c r="D114" s="12"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3097,7 +3097,7 @@
         <f>18+15*3</f>
         <v>63</v>
       </c>
-      <c r="D115" s="12"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D116" s="12"/>
+      <c r="D116" s="14"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <f>15*3</f>
         <v>45</v>
       </c>
-      <c r="D117" s="12"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,7 +3130,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D118" s="12"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="10"/>
     </row>
     <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
       <c r="C119" s="1">
         <v>12</v>
       </c>
-      <c r="D119" s="12"/>
+      <c r="D119" s="14"/>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,7 +3151,7 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E120" s="10" t="s">
@@ -3166,7 +3166,7 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D121" s="12"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
       <c r="C122" s="1">
         <v>6</v>
       </c>
-      <c r="D122" s="12"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="10"/>
     </row>
     <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3186,7 +3186,7 @@
       <c r="C123" s="1">
         <v>9</v>
       </c>
-      <c r="D123" s="12"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="10"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
       <c r="C124" s="1">
         <v>6</v>
       </c>
-      <c r="D124" s="12"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="10"/>
     </row>
     <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
       <c r="C125" s="1">
         <v>44</v>
       </c>
-      <c r="D125" s="12"/>
+      <c r="D125" s="14"/>
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3216,7 +3216,7 @@
       <c r="C126" s="1">
         <v>155</v>
       </c>
-      <c r="D126" s="12"/>
+      <c r="D126" s="14"/>
       <c r="E126" s="10"/>
     </row>
     <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3227,7 +3227,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D127" s="12"/>
+      <c r="D127" s="14"/>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D128" s="12"/>
+      <c r="D128" s="14"/>
       <c r="E128" s="10"/>
     </row>
     <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D129" s="12"/>
+      <c r="D129" s="14"/>
       <c r="E129" s="10"/>
     </row>
     <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3260,7 +3260,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D130" s="12"/>
+      <c r="D130" s="14"/>
       <c r="E130" s="10"/>
     </row>
     <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
       <c r="C131" s="1">
         <v>12</v>
       </c>
-      <c r="D131" s="12"/>
+      <c r="D131" s="14"/>
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3281,10 +3281,10 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       <c r="C133" s="1">
         <v>450</v>
       </c>
-      <c r="D133" s="12"/>
+      <c r="D133" s="14"/>
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,7 +3305,7 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="12"/>
+      <c r="D134" s="14"/>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
       <c r="C135" s="1">
         <v>9</v>
       </c>
-      <c r="D135" s="12"/>
+      <c r="D135" s="14"/>
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
       <c r="C136" s="1">
         <v>9</v>
       </c>
-      <c r="D136" s="12"/>
+      <c r="D136" s="14"/>
       <c r="E136" s="10"/>
     </row>
     <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3335,7 +3335,7 @@
       <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="12"/>
+      <c r="D137" s="14"/>
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3345,7 +3345,7 @@
       <c r="C138" s="1">
         <v>46</v>
       </c>
-      <c r="D138" s="12"/>
+      <c r="D138" s="14"/>
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3355,7 +3355,7 @@
       <c r="C139" s="1">
         <v>168</v>
       </c>
-      <c r="D139" s="12"/>
+      <c r="D139" s="14"/>
       <c r="E139" s="10"/>
     </row>
     <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3366,7 +3366,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D140" s="12"/>
+      <c r="D140" s="14"/>
       <c r="E140" s="10"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,7 +3377,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D141" s="12"/>
+      <c r="D141" s="14"/>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D142" s="12"/>
+      <c r="D142" s="14"/>
       <c r="E142" s="10"/>
     </row>
     <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3399,7 +3399,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D143" s="12"/>
+      <c r="D143" s="14"/>
       <c r="E143" s="10"/>
     </row>
     <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,7 +3410,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D144" s="12"/>
+      <c r="D144" s="14"/>
       <c r="E144" s="10"/>
     </row>
     <row r="145" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3421,7 +3421,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D145" s="12"/>
+      <c r="D145" s="14"/>
       <c r="E145" s="10"/>
     </row>
     <row r="146" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3431,7 +3431,7 @@
       <c r="C146" s="1">
         <v>12</v>
       </c>
-      <c r="D146" s="12"/>
+      <c r="D146" s="14"/>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,7 +3442,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="14" t="s">
         <v>104</v>
       </c>
       <c r="E147" s="10" t="s">
@@ -3456,7 +3456,7 @@
       <c r="C148" s="1">
         <v>450</v>
       </c>
-      <c r="D148" s="12"/>
+      <c r="D148" s="14"/>
       <c r="E148" s="10"/>
     </row>
     <row r="149" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
       <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D149" s="12"/>
+      <c r="D149" s="14"/>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,7 +3476,7 @@
       <c r="C150" s="1">
         <v>9</v>
       </c>
-      <c r="D150" s="12"/>
+      <c r="D150" s="14"/>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
       <c r="C151" s="1">
         <v>9</v>
       </c>
-      <c r="D151" s="12"/>
+      <c r="D151" s="14"/>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3496,7 +3496,7 @@
       <c r="C152" s="1">
         <v>6</v>
       </c>
-      <c r="D152" s="12"/>
+      <c r="D152" s="14"/>
       <c r="E152" s="10"/>
     </row>
     <row r="153" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
       <c r="C153" s="1">
         <v>46</v>
       </c>
-      <c r="D153" s="12"/>
+      <c r="D153" s="14"/>
       <c r="E153" s="10"/>
     </row>
     <row r="154" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
       <c r="C154" s="1">
         <v>168</v>
       </c>
-      <c r="D154" s="12"/>
+      <c r="D154" s="14"/>
       <c r="E154" s="10"/>
     </row>
     <row r="155" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3527,7 +3527,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D155" s="12"/>
+      <c r="D155" s="14"/>
       <c r="E155" s="10"/>
     </row>
     <row r="156" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3538,7 +3538,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D156" s="12"/>
+      <c r="D156" s="14"/>
       <c r="E156" s="10"/>
     </row>
     <row r="157" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D157" s="12"/>
+      <c r="D157" s="14"/>
       <c r="E157" s="10"/>
     </row>
     <row r="158" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3560,7 +3560,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D158" s="12"/>
+      <c r="D158" s="14"/>
       <c r="E158" s="10"/>
     </row>
     <row r="159" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,7 +3571,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D159" s="12"/>
+      <c r="D159" s="14"/>
       <c r="E159" s="10"/>
     </row>
     <row r="160" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D160" s="12"/>
+      <c r="D160" s="14"/>
       <c r="E160" s="10"/>
     </row>
     <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
       <c r="C161" s="1">
         <v>12</v>
       </c>
-      <c r="D161" s="12"/>
+      <c r="D161" s="14"/>
       <c r="E161" s="10"/>
     </row>
     <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="D162" s="14" t="s">
         <v>109</v>
       </c>
       <c r="E162" s="10" t="s">
@@ -3617,7 +3617,7 @@
       <c r="C163" s="1">
         <v>450</v>
       </c>
-      <c r="D163" s="12"/>
+      <c r="D163" s="14"/>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
       <c r="C164" s="1">
         <v>1</v>
       </c>
-      <c r="D164" s="12"/>
+      <c r="D164" s="14"/>
       <c r="E164" s="10"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,7 +3637,7 @@
       <c r="C165" s="1">
         <v>9</v>
       </c>
-      <c r="D165" s="12"/>
+      <c r="D165" s="14"/>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
       <c r="C166" s="1">
         <v>9</v>
       </c>
-      <c r="D166" s="12"/>
+      <c r="D166" s="14"/>
       <c r="E166" s="10"/>
     </row>
     <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
       <c r="C167" s="1">
         <v>6</v>
       </c>
-      <c r="D167" s="12"/>
+      <c r="D167" s="14"/>
       <c r="E167" s="10"/>
     </row>
     <row r="168" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
       <c r="C168" s="1">
         <v>46</v>
       </c>
-      <c r="D168" s="12"/>
+      <c r="D168" s="14"/>
       <c r="E168" s="10"/>
     </row>
     <row r="169" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,7 +3677,7 @@
       <c r="C169" s="1">
         <v>168</v>
       </c>
-      <c r="D169" s="12"/>
+      <c r="D169" s="14"/>
       <c r="E169" s="10"/>
     </row>
     <row r="170" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3688,7 +3688,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D170" s="12"/>
+      <c r="D170" s="14"/>
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D171" s="12"/>
+      <c r="D171" s="14"/>
       <c r="E171" s="10"/>
     </row>
     <row r="172" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D172" s="12"/>
+      <c r="D172" s="14"/>
       <c r="E172" s="10"/>
     </row>
     <row r="173" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D173" s="12"/>
+      <c r="D173" s="14"/>
       <c r="E173" s="10"/>
     </row>
     <row r="174" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D174" s="12"/>
+      <c r="D174" s="14"/>
       <c r="E174" s="10"/>
     </row>
     <row r="175" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D175" s="12"/>
+      <c r="D175" s="14"/>
       <c r="E175" s="10"/>
     </row>
     <row r="176" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
       <c r="C176" s="1">
         <v>12</v>
       </c>
-      <c r="D176" s="12"/>
+      <c r="D176" s="14"/>
       <c r="E176" s="10"/>
     </row>
     <row r="177" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <f>319000+422200+804600+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4313300</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="D177" s="14" t="s">
         <v>114</v>
       </c>
       <c r="E177" s="10" t="s">
@@ -3779,7 +3779,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D178" s="12"/>
+      <c r="D178" s="14"/>
       <c r="E178" s="10"/>
     </row>
     <row r="179" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
       <c r="C179" s="1">
         <v>9</v>
       </c>
-      <c r="D179" s="12"/>
+      <c r="D179" s="14"/>
       <c r="E179" s="10"/>
     </row>
     <row r="180" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
       <c r="C180" s="1">
         <v>6</v>
       </c>
-      <c r="D180" s="12"/>
+      <c r="D180" s="14"/>
       <c r="E180" s="10"/>
     </row>
     <row r="181" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
       <c r="C181" s="1">
         <v>40</v>
       </c>
-      <c r="D181" s="12"/>
+      <c r="D181" s="14"/>
       <c r="E181" s="10"/>
     </row>
     <row r="182" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3819,7 +3819,7 @@
       <c r="C182" s="1">
         <v>135</v>
       </c>
-      <c r="D182" s="12"/>
+      <c r="D182" s="14"/>
       <c r="E182" s="10"/>
     </row>
     <row r="183" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <f>18+19*3</f>
         <v>75</v>
       </c>
-      <c r="D183" s="12"/>
+      <c r="D183" s="14"/>
       <c r="E183" s="10"/>
     </row>
     <row r="184" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D184" s="12"/>
+      <c r="D184" s="14"/>
       <c r="E184" s="10"/>
     </row>
     <row r="185" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D185" s="12"/>
+      <c r="D185" s="14"/>
       <c r="E185" s="10"/>
     </row>
     <row r="186" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D186" s="12"/>
+      <c r="D186" s="14"/>
       <c r="E186" s="10"/>
     </row>
     <row r="187" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
       <c r="C187" s="1">
         <v>12</v>
       </c>
-      <c r="D187" s="12"/>
+      <c r="D187" s="14"/>
       <c r="E187" s="10"/>
     </row>
     <row r="188" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3884,10 +3884,10 @@
         <f>422200+804600+(120000+260000+450000)*3</f>
         <v>3716800</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D188" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E188" s="14" t="s">
+      <c r="E188" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D189" s="12"/>
+      <c r="D189" s="14"/>
       <c r="E189" s="10"/>
     </row>
     <row r="190" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,7 +3909,7 @@
       <c r="C190" s="1">
         <v>6</v>
       </c>
-      <c r="D190" s="12"/>
+      <c r="D190" s="14"/>
       <c r="E190" s="10"/>
     </row>
     <row r="191" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
       <c r="C191" s="1">
         <v>6</v>
       </c>
-      <c r="D191" s="12"/>
+      <c r="D191" s="14"/>
       <c r="E191" s="10"/>
     </row>
     <row r="192" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
       <c r="C192" s="1">
         <v>32</v>
       </c>
-      <c r="D192" s="12"/>
+      <c r="D192" s="14"/>
       <c r="E192" s="10"/>
     </row>
     <row r="193" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
       <c r="C193" s="1">
         <v>105</v>
       </c>
-      <c r="D193" s="12"/>
+      <c r="D193" s="14"/>
       <c r="E193" s="10"/>
     </row>
     <row r="194" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D194" s="12"/>
+      <c r="D194" s="14"/>
       <c r="E194" s="10"/>
     </row>
     <row r="195" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D195" s="12"/>
+      <c r="D195" s="14"/>
       <c r="E195" s="10"/>
     </row>
     <row r="196" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
       <c r="C196" s="1">
         <v>12</v>
       </c>
-      <c r="D196" s="12"/>
+      <c r="D196" s="14"/>
       <c r="E196" s="10"/>
     </row>
     <row r="197" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="D197" s="14" t="s">
         <v>335</v>
       </c>
       <c r="E197" s="10" t="s">
@@ -3996,7 +3996,7 @@
       <c r="C198" s="1">
         <v>450</v>
       </c>
-      <c r="D198" s="12"/>
+      <c r="D198" s="14"/>
       <c r="E198" s="10"/>
     </row>
     <row r="199" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
       <c r="C199" s="1">
         <v>1</v>
       </c>
-      <c r="D199" s="12"/>
+      <c r="D199" s="14"/>
       <c r="E199" s="10"/>
     </row>
     <row r="200" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,7 +4016,7 @@
       <c r="C200" s="1">
         <v>9</v>
       </c>
-      <c r="D200" s="12"/>
+      <c r="D200" s="14"/>
       <c r="E200" s="10"/>
     </row>
     <row r="201" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
       <c r="C201" s="1">
         <v>9</v>
       </c>
-      <c r="D201" s="12"/>
+      <c r="D201" s="14"/>
       <c r="E201" s="10"/>
     </row>
     <row r="202" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4036,7 +4036,7 @@
       <c r="C202" s="1">
         <v>6</v>
       </c>
-      <c r="D202" s="12"/>
+      <c r="D202" s="14"/>
       <c r="E202" s="10"/>
     </row>
     <row r="203" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
       <c r="C203" s="1">
         <v>46</v>
       </c>
-      <c r="D203" s="12"/>
+      <c r="D203" s="14"/>
       <c r="E203" s="10"/>
     </row>
     <row r="204" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,7 +4056,7 @@
       <c r="C204" s="1">
         <v>168</v>
       </c>
-      <c r="D204" s="12"/>
+      <c r="D204" s="14"/>
       <c r="E204" s="10"/>
     </row>
     <row r="205" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4067,7 +4067,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D205" s="12"/>
+      <c r="D205" s="14"/>
       <c r="E205" s="10"/>
     </row>
     <row r="206" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D206" s="12"/>
+      <c r="D206" s="14"/>
       <c r="E206" s="10"/>
     </row>
     <row r="207" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4089,7 +4089,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D207" s="12"/>
+      <c r="D207" s="14"/>
       <c r="E207" s="10"/>
     </row>
     <row r="208" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D208" s="12"/>
+      <c r="D208" s="14"/>
       <c r="E208" s="10"/>
     </row>
     <row r="209" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D209" s="12"/>
+      <c r="D209" s="14"/>
       <c r="E209" s="10"/>
     </row>
     <row r="210" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D210" s="12"/>
+      <c r="D210" s="14"/>
       <c r="E210" s="10"/>
     </row>
     <row r="211" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
       <c r="C211" s="1">
         <v>12</v>
       </c>
-      <c r="D211" s="12"/>
+      <c r="D211" s="14"/>
       <c r="E211" s="10"/>
     </row>
     <row r="212" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <f>30000+(37500+120000+260000+450000+700000)*3+25000+30000+37500*2+(120000+260000+450000+700000)*3+(25000+30000+37500+120000+260000+450000+700000)*3</f>
         <v>14320000</v>
       </c>
-      <c r="D212" s="12" t="s">
+      <c r="D212" s="14" t="s">
         <v>119</v>
       </c>
       <c r="E212" s="10" t="s">
@@ -4158,7 +4158,7 @@
         <f>6+9*3+4+6+9</f>
         <v>52</v>
       </c>
-      <c r="D213" s="12"/>
+      <c r="D213" s="14"/>
       <c r="E213" s="10"/>
     </row>
     <row r="214" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <f>31*3+31</f>
         <v>124</v>
       </c>
-      <c r="D214" s="12"/>
+      <c r="D214" s="14"/>
       <c r="E214" s="10"/>
     </row>
     <row r="215" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D215" s="12"/>
+      <c r="D215" s="14"/>
       <c r="E215" s="10"/>
     </row>
     <row r="216" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <f>31+31</f>
         <v>62</v>
       </c>
-      <c r="D216" s="12"/>
+      <c r="D216" s="14"/>
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4202,7 +4202,7 @@
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D217" s="12"/>
+      <c r="D217" s="14"/>
       <c r="E217" s="10"/>
     </row>
     <row r="218" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4213,7 +4213,7 @@
         <f>31*3</f>
         <v>93</v>
       </c>
-      <c r="D218" s="12"/>
+      <c r="D218" s="14"/>
       <c r="E218" s="10"/>
     </row>
     <row r="219" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,7 +4224,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D219" s="12"/>
+      <c r="D219" s="14"/>
       <c r="E219" s="10"/>
     </row>
     <row r="220" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,7 +4235,7 @@
         <f>6*3+6</f>
         <v>24</v>
       </c>
-      <c r="D220" s="12"/>
+      <c r="D220" s="14"/>
       <c r="E220" s="10"/>
     </row>
     <row r="221" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <f>9*3+9</f>
         <v>36</v>
       </c>
-      <c r="D221" s="12"/>
+      <c r="D221" s="14"/>
       <c r="E221" s="10"/>
     </row>
     <row r="222" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <f>12*3+12</f>
         <v>48</v>
       </c>
-      <c r="D222" s="12"/>
+      <c r="D222" s="14"/>
       <c r="E222" s="10"/>
     </row>
     <row r="223" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D223" s="12"/>
+      <c r="D223" s="14"/>
       <c r="E223" s="10"/>
     </row>
     <row r="224" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <f>20*3+20</f>
         <v>80</v>
       </c>
-      <c r="D224" s="12"/>
+      <c r="D224" s="14"/>
       <c r="E224" s="10"/>
     </row>
     <row r="225" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4290,7 +4290,7 @@
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D225" s="12"/>
+      <c r="D225" s="14"/>
       <c r="E225" s="10"/>
     </row>
     <row r="226" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4301,7 +4301,7 @@
         <f>12+12</f>
         <v>24</v>
       </c>
-      <c r="D226" s="12"/>
+      <c r="D226" s="14"/>
       <c r="E226" s="10"/>
     </row>
     <row r="227" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D227" s="12"/>
+      <c r="D227" s="14"/>
       <c r="E227" s="10"/>
     </row>
     <row r="228" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4323,7 +4323,7 @@
         <f>20*3</f>
         <v>60</v>
       </c>
-      <c r="D228" s="12"/>
+      <c r="D228" s="14"/>
       <c r="E228" s="10"/>
     </row>
     <row r="229" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D229" s="12"/>
+      <c r="D229" s="14"/>
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4345,7 +4345,7 @@
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D230" s="12"/>
+      <c r="D230" s="14"/>
       <c r="E230" s="10"/>
     </row>
     <row r="231" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4356,7 +4356,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D231" s="12"/>
+      <c r="D231" s="14"/>
       <c r="E231" s="10"/>
     </row>
     <row r="232" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="D232" s="12"/>
+      <c r="D232" s="14"/>
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
         <f>20+20</f>
         <v>40</v>
       </c>
-      <c r="D233" s="12"/>
+      <c r="D233" s="14"/>
       <c r="E233" s="10"/>
     </row>
     <row r="234" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4389,7 +4389,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D234" s="12"/>
+      <c r="D234" s="14"/>
       <c r="E234" s="10"/>
     </row>
     <row r="235" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D235" s="12"/>
+      <c r="D235" s="14"/>
       <c r="E235" s="10"/>
     </row>
     <row r="236" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4411,7 +4411,7 @@
         <f>18+6</f>
         <v>24</v>
       </c>
-      <c r="D236" s="12"/>
+      <c r="D236" s="14"/>
       <c r="E236" s="10"/>
     </row>
     <row r="237" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
       <c r="C237" s="1">
         <v>18</v>
       </c>
-      <c r="D237" s="12"/>
+      <c r="D237" s="14"/>
       <c r="E237" s="10"/>
     </row>
     <row r="238" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
       <c r="C238" s="1">
         <v>9</v>
       </c>
-      <c r="D238" s="12"/>
+      <c r="D238" s="14"/>
       <c r="E238" s="10"/>
     </row>
     <row r="239" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4445,7 +4445,7 @@
       <c r="D239" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E239" s="13" t="s">
+      <c r="E239" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
       <c r="D244" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E244" s="13" t="s">
+      <c r="E244" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4677,10 +4677,10 @@
         <f>372000+65000</f>
         <v>437000</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D261" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E261" s="13" t="s">
+      <c r="E261" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="D266" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E266" s="13" t="s">
+      <c r="E266" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       <c r="D283" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E283" s="13" t="s">
+      <c r="E283" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       <c r="D307" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E307" s="13" t="s">
+      <c r="E307" s="12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       <c r="D328" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E328" s="13" t="s">
+      <c r="E328" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       <c r="D360" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E360" s="13" t="s">
+      <c r="E360" s="12" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="D406" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E406" s="13" t="s">
+      <c r="E406" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       <c r="D415" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E415" s="13" t="s">
+      <c r="E415" s="12" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       <c r="D445" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E445" s="13" t="s">
+      <c r="E445" s="12" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="D446" s="10"/>
-      <c r="E446" s="13"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="10"/>
-      <c r="E447" s="13"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="s">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="10"/>
-      <c r="E448" s="13"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="1" t="s">
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="10"/>
-      <c r="E449" s="13"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="s">
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="10"/>
-      <c r="E450" s="13"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="1" t="s">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="10"/>
-      <c r="E451" s="13"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="1" t="s">
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="10"/>
-      <c r="E452" s="13"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="1" t="s">
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="10"/>
-      <c r="E453" s="13"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="1" t="s">
@@ -6944,74 +6944,6 @@
     <sortCondition ref="G3:G461"/>
   </sortState>
   <mergeCells count="84">
-    <mergeCell ref="D394:D405"/>
-    <mergeCell ref="E394:E405"/>
-    <mergeCell ref="D433:D444"/>
-    <mergeCell ref="E433:E444"/>
-    <mergeCell ref="D445:D453"/>
-    <mergeCell ref="E445:E453"/>
-    <mergeCell ref="D406:D414"/>
-    <mergeCell ref="E406:E414"/>
-    <mergeCell ref="D415:D420"/>
-    <mergeCell ref="E415:E420"/>
-    <mergeCell ref="D421:D432"/>
-    <mergeCell ref="E421:E432"/>
-    <mergeCell ref="D372:D383"/>
-    <mergeCell ref="E372:E383"/>
-    <mergeCell ref="D384:D393"/>
-    <mergeCell ref="E384:E393"/>
-    <mergeCell ref="D360:D371"/>
-    <mergeCell ref="E360:E371"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E120:E131"/>
-    <mergeCell ref="E132:E146"/>
-    <mergeCell ref="E147:E161"/>
-    <mergeCell ref="E162:E176"/>
-    <mergeCell ref="E177:E187"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E23"/>
-    <mergeCell ref="E24:E33"/>
-    <mergeCell ref="E34:E48"/>
-    <mergeCell ref="E49:E59"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="D147:D161"/>
-    <mergeCell ref="D83:D97"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D120:D131"/>
-    <mergeCell ref="D132:D146"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="D49:D59"/>
-    <mergeCell ref="D212:D238"/>
-    <mergeCell ref="D162:D176"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="D239:D243"/>
-    <mergeCell ref="E239:E243"/>
-    <mergeCell ref="D244:D248"/>
-    <mergeCell ref="E244:E248"/>
-    <mergeCell ref="D249:D260"/>
-    <mergeCell ref="E249:E260"/>
-    <mergeCell ref="D336:D347"/>
-    <mergeCell ref="E336:E347"/>
-    <mergeCell ref="D348:D359"/>
-    <mergeCell ref="E348:E359"/>
-    <mergeCell ref="D261:D265"/>
-    <mergeCell ref="E261:E265"/>
-    <mergeCell ref="D266:D270"/>
-    <mergeCell ref="E266:E270"/>
-    <mergeCell ref="D271:D282"/>
-    <mergeCell ref="E271:E282"/>
     <mergeCell ref="D462:D473"/>
     <mergeCell ref="E462:E473"/>
     <mergeCell ref="D197:D211"/>
@@ -7028,6 +6960,74 @@
     <mergeCell ref="E319:E327"/>
     <mergeCell ref="D328:D335"/>
     <mergeCell ref="E328:E335"/>
+    <mergeCell ref="D336:D347"/>
+    <mergeCell ref="E336:E347"/>
+    <mergeCell ref="D348:D359"/>
+    <mergeCell ref="E348:E359"/>
+    <mergeCell ref="D261:D265"/>
+    <mergeCell ref="E261:E265"/>
+    <mergeCell ref="D266:D270"/>
+    <mergeCell ref="E266:E270"/>
+    <mergeCell ref="D271:D282"/>
+    <mergeCell ref="E271:E282"/>
+    <mergeCell ref="D239:D243"/>
+    <mergeCell ref="E239:E243"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="E244:E248"/>
+    <mergeCell ref="D249:D260"/>
+    <mergeCell ref="E249:E260"/>
+    <mergeCell ref="D212:D238"/>
+    <mergeCell ref="D162:D176"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="D147:D161"/>
+    <mergeCell ref="D83:D97"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D120:D131"/>
+    <mergeCell ref="D132:D146"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="E34:E48"/>
+    <mergeCell ref="E49:E59"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E120:E131"/>
+    <mergeCell ref="E132:E146"/>
+    <mergeCell ref="E147:E161"/>
+    <mergeCell ref="E162:E176"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="D372:D383"/>
+    <mergeCell ref="E372:E383"/>
+    <mergeCell ref="D384:D393"/>
+    <mergeCell ref="E384:E393"/>
+    <mergeCell ref="D360:D371"/>
+    <mergeCell ref="E360:E371"/>
+    <mergeCell ref="D394:D405"/>
+    <mergeCell ref="E394:E405"/>
+    <mergeCell ref="D433:D444"/>
+    <mergeCell ref="E433:E444"/>
+    <mergeCell ref="D445:D453"/>
+    <mergeCell ref="E445:E453"/>
+    <mergeCell ref="D406:D414"/>
+    <mergeCell ref="E406:E414"/>
+    <mergeCell ref="D415:D420"/>
+    <mergeCell ref="E415:E420"/>
+    <mergeCell ref="D421:D432"/>
+    <mergeCell ref="E421:E432"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7044,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Datos[Resina total])</f>
-        <v>113611</v>
+        <v>110300</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -7112,15 +7112,15 @@
       </c>
       <c r="C3" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B3)+5000000-Datos[[#This Row],[Inversión]]</f>
-        <v>104468440</v>
+        <v>103930940</v>
       </c>
       <c r="D3" s="7">
-        <f>11415730+2821120+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>10325585</v>
+        <f>11383653+5407260+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>11383653</v>
       </c>
       <c r="E3" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>94142855</v>
+        <v>92547287</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>290</v>
@@ -7130,15 +7130,15 @@
       </c>
       <c r="H3" s="1">
         <f>IF(E3&gt;0,ROUNDUP(G3*E3/60000,0),0)</f>
-        <v>31381</v>
+        <v>30850</v>
       </c>
       <c r="I3" s="1">
-        <f>638495+5200*3+5200*5+20000*11+8100*4+5200*5</f>
-        <v>958495</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <f>2626120+37500*2+120000+80000+236000+3000+200+30000*3+37500+80000+236000+3000+200+1200*10+180+5000+1980+2400*4+3180+3600*5+900+28640+10000+63000+15000+92800+22500+10960+119000+100000+100000+120000*2+28000+87000+40000+115000+60000+100000</f>
-        <v>4869760</v>
+        <f>5407260</f>
+        <v>5407260</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>226</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 11 meses y 11 días</v>
+        <v>1 año 10 meses y 20 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -7196,12 +7196,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>ROUNDDOWN(721+IF(E4&lt;0,-E4/5,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>721</v>
+        <f>ROUNDDOWN(451+IF(E4&lt;0,-E4/5,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>451</v>
       </c>
       <c r="E5" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-721</v>
+        <v>-451</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>290</v>
@@ -7232,12 +7232,12 @@
         <v>5650</v>
       </c>
       <c r="D6" s="7">
-        <f>ROUNDDOWN(752+219+IF(E5&lt;0,-E5/4,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>858</v>
+        <f>ROUNDDOWN(934+337+IF(E5&lt;0,-E5/4,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>1046</v>
       </c>
       <c r="E6" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>4792</v>
+        <v>4604</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>290</v>
@@ -7247,11 +7247,11 @@
       </c>
       <c r="H6" s="1">
         <f>IF(E6&gt;0,ROUNDUP(G6*E6/4,0),0)</f>
-        <v>23960</v>
+        <v>23020</v>
       </c>
       <c r="I6" s="1">
-        <f>18+16+10</f>
-        <v>44</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <f>80+80+59+59+59</f>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="N6" s="1">
         <f>E9</f>
-        <v>9971</v>
+        <v>9829</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -7313,12 +7313,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>ROUNDDOWN(122+IF(E7&lt;0,-E7/5,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>132</v>
+        <f>ROUNDDOWN(127+IF(E7&lt;0,-E7/5,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>137</v>
       </c>
       <c r="E8" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-132</v>
+        <v>-137</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>290</v>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="N8" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N6/5,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N6/5,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N6/5,0),"md")=1," día", " días")</f>
-        <v>5 años 5 meses y 17 días</v>
+        <v>5 años 4 meses y 19 días</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -7356,12 +7356,12 @@
         <v>12191</v>
       </c>
       <c r="D9" s="7">
-        <f>ROUNDDOWN(2194+453+IF(E8&lt;0,-E8/5,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2220</v>
+        <f>ROUNDDOWN(2335+453+IF(E8&lt;0,-E8/5,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>2362</v>
       </c>
       <c r="E9" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>9971</v>
+        <v>9829</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>290</v>
@@ -7393,12 +7393,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <f>30+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>30</v>
       </c>
       <c r="E10" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-12</v>
+        <v>-30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>290</v>
@@ -7411,8 +7411,8 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>4+1</f>
-        <v>5</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7430,12 +7430,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <f>8+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <f>12+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E11" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>290</v>
@@ -7448,8 +7448,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>2+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7467,12 +7467,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <f>13+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>290</v>
@@ -7485,8 +7485,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>1+1+3</f>
-        <v>5</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -7504,12 +7504,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>17</v>
+        <f>26+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>26</v>
       </c>
       <c r="E13" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-17</v>
+        <v>-26</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>290</v>
@@ -7522,8 +7522,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>14+1</f>
-        <v>15</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -7541,12 +7541,12 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <f>6+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>10+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>10</v>
       </c>
       <c r="E14" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>290</v>
@@ -7578,12 +7578,12 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <f>10+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>14</v>
+        <f>19+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E15" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>290</v>
@@ -7596,8 +7596,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>1+1+2</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7615,12 +7615,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>ROUNDDOWN(0+IF(E10&lt;0,-E10/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>27</v>
+        <f>ROUNDDOWN(27+IF(E10&lt;0,-E10/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>37</v>
       </c>
       <c r="E16" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-27</v>
+        <v>-37</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>290</v>
@@ -7633,8 +7633,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>12+1+1+2+1+3+3</f>
-        <v>23</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <f>ROUNDDOWN(9+IF(E11&lt;0,-E11/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(11+IF(E11&lt;0,-E11/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>14</v>
       </c>
       <c r="E17" s="7">
@@ -7670,8 +7670,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -7689,12 +7689,12 @@
         <v>9</v>
       </c>
       <c r="D18" s="7">
-        <f>ROUNDDOWN(10+IF(E12&lt;0,-E12/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <f>ROUNDDOWN(15+9+IF(E12&lt;0,-E12/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>18</v>
       </c>
       <c r="E18" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>290</v>
@@ -7707,8 +7707,8 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>1+1+2+2+1</f>
-        <v>7</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <f>3+6</f>
@@ -7727,12 +7727,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
-        <f>ROUNDDOWN(0+IF(E13&lt;0,-E13/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>14</v>
+        <f>ROUNDDOWN(15+12+IF(E13&lt;0,-E13/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>23</v>
       </c>
       <c r="E19" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-14</v>
+        <v>-23</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7745,8 +7745,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>21</f>
-        <v>21</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <f>6+6</f>
@@ -7765,12 +7765,12 @@
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <f>ROUNDDOWN(18+IF(E14&lt;0,-E14/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>ROUNDDOWN(23+IF(E14&lt;0,-E14/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>25</v>
       </c>
       <c r="E20" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>290</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f>2+1-3</f>
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J20" s="1">
@@ -7802,12 +7802,12 @@
         <v>9</v>
       </c>
       <c r="D21" s="7">
-        <f>ROUNDDOWN(10+IF(E15&lt;0,-E15/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>22</v>
+        <f>ROUNDDOWN(20+IF(E15&lt;0,-E15/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>26</v>
       </c>
       <c r="E21" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>290</v>
@@ -7820,8 +7820,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>5+1+1+1</f>
-        <v>8</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7839,12 +7839,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <f>ROUNDDOWN(18+IF(E16&lt;0,-E16/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <f>ROUNDDOWN(4+18+IF(E16&lt;0,-E16/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>16</v>
       </c>
       <c r="E22" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>290</v>
@@ -7857,8 +7857,8 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <f>3+3+6+6</f>
@@ -7877,7 +7877,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <f>ROUNDDOWN(17+IF(E17&lt;0,-E17/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(11+6+IF(E17&lt;0,-E17/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>12</v>
       </c>
       <c r="E23" s="7">
@@ -7915,12 +7915,12 @@
         <v>18</v>
       </c>
       <c r="D24" s="7">
-        <f>ROUNDDOWN(11+IF(E18&lt;0,-E18/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <f>ROUNDDOWN(12+IF(E18&lt;0,-E18/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>15</v>
       </c>
       <c r="E24" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>290</v>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -7951,12 +7951,12 @@
         <v>21</v>
       </c>
       <c r="D25" s="7">
-        <f>ROUNDDOWN(11+IF(E19&lt;0,-E19/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>ROUNDDOWN(1+12+IF(E19&lt;0,-E19/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>8</v>
       </c>
       <c r="E25" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>290</v>
@@ -7966,11 +7966,11 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="I25" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <f>6+6</f>
@@ -7990,11 +7990,11 @@
       </c>
       <c r="D26" s="7">
         <f>ROUNDDOWN(9+IF(E20&lt;0,-E20/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>290</v>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -8025,12 +8025,12 @@
         <v>18</v>
       </c>
       <c r="D27" s="7">
-        <f>ROUNDDOWN(20+IF(E21&lt;0,-E21/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>26</v>
+        <f>ROUNDDOWN(23+IF(E21&lt;0,-E21/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>28</v>
       </c>
       <c r="E27" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>290</v>
@@ -8043,8 +8043,8 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -8063,11 +8063,11 @@
       </c>
       <c r="D28" s="7">
         <f>ROUNDDOWN(9+IF(E22&lt;0,-E22/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>290</v>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="7">
-        <f>ROUNDDOWN(2+IF(E25&lt;0,-E25/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(3+IF(E25&lt;0,-E25/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>3</v>
       </c>
       <c r="E31" s="7">
@@ -8188,8 +8188,8 @@
         <v>840</v>
       </c>
       <c r="I31" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -8244,11 +8244,11 @@
       </c>
       <c r="D33" s="7">
         <f>ROUNDDOWN(1+IF(E27&lt;0,-E27/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>290</v>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="7">
-        <f>9+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>0+20+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>0</v>
       </c>
       <c r="E34" s="7">
@@ -8297,8 +8297,8 @@
         <v>1200</v>
       </c>
       <c r="I34" s="1">
-        <f>3+3+3+2</f>
-        <v>11</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
         <f>8+12</f>
@@ -8317,7 +8317,7 @@
         <v>66</v>
       </c>
       <c r="D35" s="7">
-        <f>24+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>12+12+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>12</v>
       </c>
       <c r="E35" s="7">
@@ -8354,12 +8354,12 @@
         <v>90</v>
       </c>
       <c r="D36" s="7">
-        <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>0+2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>0</v>
       </c>
       <c r="E36" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>290</v>
@@ -8369,11 +8369,11 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>1720</v>
+        <v>1800</v>
       </c>
       <c r="I36" s="1">
-        <f>3</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <f>2</f>
@@ -8392,7 +8392,7 @@
         <v>60</v>
       </c>
       <c r="D37" s="7">
-        <f>21+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>5+16+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>5</v>
       </c>
       <c r="E37" s="7">
@@ -8429,7 +8429,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="7">
-        <f>10+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>13+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>13</v>
       </c>
       <c r="E38" s="7">
@@ -8447,8 +8447,8 @@
         <v>660</v>
       </c>
       <c r="I38" s="1">
-        <f>3</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="7">
-        <f>9+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>0+20+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>0</v>
       </c>
       <c r="E39" s="7">
@@ -8484,8 +8484,8 @@
         <v>400</v>
       </c>
       <c r="I39" s="1">
-        <f>6+2+3</f>
-        <v>11</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
         <f>8+12</f>
@@ -8504,7 +8504,7 @@
         <v>68</v>
       </c>
       <c r="D40" s="7">
-        <f>5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>1+16+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>1</v>
       </c>
       <c r="E40" s="7">
@@ -8522,8 +8522,8 @@
         <v>1340</v>
       </c>
       <c r="I40" s="1">
-        <f>2+3+2+2+3</f>
-        <v>12</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <f>4+12</f>
@@ -8542,12 +8542,12 @@
         <v>78</v>
       </c>
       <c r="D41" s="7">
-        <f>1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>4+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>290</v>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>1540</v>
+        <v>1480</v>
       </c>
       <c r="I41" s="1">
         <f>0</f>
@@ -8579,12 +8579,12 @@
         <v>86</v>
       </c>
       <c r="D42" s="7">
-        <f>1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>4+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E42" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>290</v>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>1640</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="7">
-        <f>53+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>51+45+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>51</v>
       </c>
       <c r="E44" s="7">
@@ -8667,8 +8667,8 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>8+35</f>
-        <v>43</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
         <f>45</f>
@@ -8687,12 +8687,12 @@
         <v>60</v>
       </c>
       <c r="D45" s="7">
-        <f>62+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>62</v>
+        <f>67+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>67</v>
       </c>
       <c r="E45" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -8793,7 +8793,7 @@
         <v>135</v>
       </c>
       <c r="D48" s="7">
-        <f>24+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>9+20+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>9</v>
       </c>
       <c r="E48" s="7">
@@ -8810,8 +8810,8 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>5</f>
-        <v>5</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
         <v>20</v>
@@ -8829,12 +8829,12 @@
         <v>60</v>
       </c>
       <c r="D49" s="7">
-        <f>65-12+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>20</v>
+        <f>26+75+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>26</v>
       </c>
       <c r="E49" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
@@ -8846,8 +8846,8 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f>42</f>
-        <v>42</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
         <f>30+45</f>
@@ -8901,12 +8901,12 @@
         <v>60</v>
       </c>
       <c r="D51" s="7">
-        <f>40+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>1+75+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E51" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -8918,8 +8918,8 @@
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>1+34</f>
-        <v>35</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
         <f>30+45</f>
@@ -9115,7 +9115,7 @@
         <v>240</v>
       </c>
       <c r="D57" s="7">
-        <f>73+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>40+33+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>40</v>
       </c>
       <c r="E57" s="7">
@@ -9151,12 +9151,12 @@
         <v>8</v>
       </c>
       <c r="D58" s="7">
-        <f>20+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>30</v>
+        <f>112+15+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>112</v>
       </c>
       <c r="E58" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-22</v>
+        <v>-104</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>290</v>
@@ -9168,8 +9168,8 @@
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <f>25</f>
-        <v>25</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
         <f>3+12</f>
@@ -9188,12 +9188,12 @@
         <v>38</v>
       </c>
       <c r="D59" s="7">
-        <f>ROUNDDOWN(44+9+IF(E58&lt;0,-E58/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>86</v>
+        <f>ROUNDDOWN(99+9+IF(E58&lt;0,-E58/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>133</v>
       </c>
       <c r="E59" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-48</v>
+        <v>-95</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>290</v>
@@ -9205,8 +9205,8 @@
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f>35</f>
-        <v>35</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J59" s="1">
         <f>9</f>
@@ -9222,15 +9222,15 @@
       </c>
       <c r="C60" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B60)-Datos[[#This Row],[Inversión]]</f>
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D60" s="7">
-        <f>ROUNDDOWN(107+IF(E59&lt;0,-E59/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>123</v>
+        <f>ROUNDDOWN(107+4+IF(E59&lt;0,-E59/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>138</v>
       </c>
       <c r="E60" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>3</v>
+        <v>-16</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>290</v>
@@ -9245,7 +9245,8 @@
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>240</v>
@@ -9260,12 +9261,12 @@
         <v>46</v>
       </c>
       <c r="D61" s="7">
-        <f>110+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>110</v>
+        <f>178+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>178</v>
       </c>
       <c r="E61" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-64</v>
+        <v>-132</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>290</v>
@@ -9295,12 +9296,12 @@
         <v>204</v>
       </c>
       <c r="D62" s="7">
-        <f>ROUNDDOWN(233+66+IF(E61&lt;0,-E61/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>254</v>
+        <f>ROUNDDOWN(253+66+IF(E61&lt;0,-E61/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>297</v>
       </c>
       <c r="E62" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-50</v>
+        <v>-93</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>290</v>
@@ -9331,12 +9332,12 @@
         <v>313</v>
       </c>
       <c r="D63" s="7">
-        <f>ROUNDDOWN(71+IF(E62&lt;0,-E62/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>67</v>
+        <f>ROUNDDOWN(53+20+IF(E62&lt;0,-E62/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>84</v>
       </c>
       <c r="E63" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>290</v>
@@ -9367,12 +9368,12 @@
         <v>36</v>
       </c>
       <c r="D64" s="7">
-        <f>141+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>141</v>
+        <f>239+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>239</v>
       </c>
       <c r="E64" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-105</v>
+        <v>-203</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>290</v>
@@ -9402,12 +9403,12 @@
         <v>186</v>
       </c>
       <c r="D65" s="7">
-        <f>ROUNDDOWN(186+IF(E64&lt;0,-E64/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>212</v>
+        <f>ROUNDDOWN(204+9+IF(E64&lt;0,-E64/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>271</v>
       </c>
       <c r="E65" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-26</v>
+        <v>-85</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>290</v>
@@ -9438,12 +9439,12 @@
         <v>273</v>
       </c>
       <c r="D66" s="7">
-        <f>ROUNDDOWN(29+IF(E65&lt;0,-E65/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>25</v>
+        <f>ROUNDDOWN(20+12+IF(E65&lt;0,-E65/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>48</v>
       </c>
       <c r="E66" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>290</v>
@@ -9474,12 +9475,12 @@
         <v>51</v>
       </c>
       <c r="D67" s="7">
-        <f>207+15+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>207</v>
+        <f>267+15+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>267</v>
       </c>
       <c r="E67" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-156</v>
+        <v>-216</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>290</v>
@@ -9510,12 +9511,12 @@
         <v>164</v>
       </c>
       <c r="D68" s="7">
-        <f>ROUNDDOWN(205+56+IF(E67&lt;0,-E67/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>257</v>
+        <f>ROUNDDOWN(218+56+IF(E67&lt;0,-E67/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>290</v>
       </c>
       <c r="E68" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-93</v>
+        <v>-126</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>290</v>
@@ -9546,12 +9547,12 @@
         <v>357</v>
       </c>
       <c r="D69" s="7">
-        <f>ROUNDDOWN(49+IF(E68&lt;0,-E68/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>68</v>
+        <f>ROUNDDOWN(41+12+IF(E68&lt;0,-E68/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>83</v>
       </c>
       <c r="E69" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>290</v>
@@ -9582,12 +9583,12 @@
         <v>10</v>
       </c>
       <c r="D70" s="7">
-        <f>72+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>87</v>
+        <f>258+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>258</v>
       </c>
       <c r="E70" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-77</v>
+        <v>-248</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>290</v>
@@ -9599,8 +9600,8 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f>15</f>
-        <v>15</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -9618,12 +9619,12 @@
         <v>72</v>
       </c>
       <c r="D71" s="7">
-        <f>ROUNDDOWN(26+39+IF(E70&lt;0,-E70/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>86</v>
+        <f>ROUNDDOWN(93+39+IF(E70&lt;0,-E70/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>175</v>
       </c>
       <c r="E71" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-14</v>
+        <v>-103</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>290</v>
@@ -9635,8 +9636,8 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>35</f>
-        <v>35</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J71" s="1">
         <f>39</f>
@@ -9652,15 +9653,15 @@
       </c>
       <c r="C72" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B72)-Datos[[#This Row],[Inversión]]</f>
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D72" s="7">
-        <f>ROUNDDOWN(7+12+IF(E71&lt;0,-E71/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(0+26+IF(E71&lt;0,-E71/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>34</v>
       </c>
       <c r="E72" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>290</v>
@@ -9676,8 +9677,8 @@
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <f>12+8</f>
-        <v>20</v>
+        <f>12+8+6</f>
+        <v>26</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>244</v>
@@ -9692,12 +9693,12 @@
         <v>21</v>
       </c>
       <c r="D73" s="7">
-        <f>78+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>48</v>
+        <f>109+30+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>109</v>
       </c>
       <c r="E73" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-27</v>
+        <v>-88</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>290</v>
@@ -9725,15 +9726,15 @@
       </c>
       <c r="C74" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B74)-Datos[[#This Row],[Inversión]]</f>
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D74" s="7">
-        <f>ROUNDDOWN(112+66+IF(E73&lt;0,-E73/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>121</v>
+        <f>ROUNDDOWN(118+110+IF(E73&lt;0,-E73/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>147</v>
       </c>
       <c r="E74" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>290</v>
@@ -9745,12 +9746,12 @@
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f>35</f>
-        <v>35</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J74" s="1">
-        <f>3+3+3+4*3+18+6*3+9+9+14+12</f>
-        <v>101</v>
+        <f>3+3+3+4*3+18+6*3+9+9+14+12+9</f>
+        <v>110</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>245</v>
@@ -9762,15 +9763,15 @@
       </c>
       <c r="C75" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B75)-Datos[[#This Row],[Inversión]]</f>
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D75" s="7">
-        <f>ROUNDDOWN(65+IF(E74&lt;0,-E74/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>53</v>
+        <f>ROUNDDOWN(51+16+IF(E74&lt;0,-E74/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>51</v>
       </c>
       <c r="E75" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>290</v>
@@ -9785,8 +9786,8 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <f>12</f>
-        <v>12</v>
+        <f>12+4</f>
+        <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>245</v>
@@ -9801,12 +9802,12 @@
         <v>50</v>
       </c>
       <c r="D76" s="7">
-        <f>94+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>94</v>
+        <f>132+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>132</v>
       </c>
       <c r="E76" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-44</v>
+        <v>-82</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>290</v>
@@ -9836,12 +9837,12 @@
         <v>215</v>
       </c>
       <c r="D77" s="7">
-        <f>ROUNDDOWN(126+41+IF(E76&lt;0,-E76/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>175</v>
+        <f>ROUNDDOWN(168+41+IF(E76&lt;0,-E76/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>195</v>
       </c>
       <c r="E77" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>290</v>
@@ -9853,8 +9854,8 @@
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f>35</f>
-        <v>35</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J77" s="1">
         <f>12+4*3+3*3+4*2</f>
@@ -9873,12 +9874,12 @@
         <v>356</v>
       </c>
       <c r="D78" s="7">
-        <f>ROUNDDOWN(44+IF(E77&lt;0,-E77/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>44</v>
+        <f>ROUNDDOWN(46+IF(E77&lt;0,-E77/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>46</v>
       </c>
       <c r="E78" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>290</v>
@@ -9908,12 +9909,12 @@
         <v>72</v>
       </c>
       <c r="D79" s="7">
-        <f>114+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>114</v>
+        <f>166+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>166</v>
       </c>
       <c r="E79" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-42</v>
+        <v>-94</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>290</v>
@@ -9943,12 +9944,12 @@
         <v>201</v>
       </c>
       <c r="D80" s="7">
-        <f>ROUNDDOWN(122+IF(E79&lt;0,-E79/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>171</v>
+        <f>ROUNDDOWN(171+IF(E79&lt;0,-E79/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>202</v>
       </c>
       <c r="E80" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>290</v>
@@ -9960,8 +9961,8 @@
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f>35</f>
-        <v>35</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -9979,12 +9980,12 @@
         <v>204</v>
       </c>
       <c r="D81" s="7">
-        <f>ROUNDDOWN(21+IF(E80&lt;0,-E80/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>21</v>
+        <f>ROUNDDOWN(23+IF(E80&lt;0,-E80/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>23</v>
       </c>
       <c r="E81" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>290</v>
@@ -10014,12 +10015,12 @@
         <v>38</v>
       </c>
       <c r="D82" s="7">
-        <f>66+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>43</v>
+        <f>53+23+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>53</v>
       </c>
       <c r="E82" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>290</v>
@@ -10050,12 +10051,12 @@
         <v>45</v>
       </c>
       <c r="D83" s="7">
-        <f>ROUNDDOWN(59+IF(E82&lt;0,-E82/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <f>ROUNDDOWN(36+27+IF(E82&lt;0,-E82/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>41</v>
       </c>
       <c r="E83" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>290</v>
@@ -10086,12 +10087,12 @@
         <v>127</v>
       </c>
       <c r="D84" s="7">
-        <f>ROUNDDOWN(4+IF(E83&lt;0,-E83/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>ROUNDDOWN(6+IF(E83&lt;0,-E83/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E84" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>290</v>
@@ -10121,12 +10122,12 @@
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f>23+23+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <f>52+23+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>52</v>
       </c>
       <c r="E85" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-23</v>
+        <v>-52</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>290</v>
@@ -10157,12 +10158,12 @@
         <v>18</v>
       </c>
       <c r="D86" s="7">
-        <f>ROUNDDOWN(26+27+IF(E85&lt;0,-E85/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <f>ROUNDDOWN(33+27+IF(E85&lt;0,-E85/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>50</v>
       </c>
       <c r="E86" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-15</v>
+        <v>-32</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>290</v>
@@ -10193,12 +10194,12 @@
         <v>149</v>
       </c>
       <c r="D87" s="7">
-        <f>ROUNDDOWN(36+IF(E86&lt;0,-E86/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>41</v>
+        <f>ROUNDDOWN(37+IF(E86&lt;0,-E86/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>47</v>
       </c>
       <c r="E87" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>290</v>
@@ -10263,7 +10264,7 @@
         <v>18</v>
       </c>
       <c r="D89" s="7">
-        <f>ROUNDDOWN(20+IF(E88&lt;0,-E88/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(32+IF(E88&lt;0,-E88/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>32</v>
       </c>
       <c r="E89" s="7">
@@ -10280,8 +10281,8 @@
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <f>12</f>
-        <v>12</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J89" s="1">
         <v>0</v>
@@ -10369,7 +10370,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="7">
-        <f>ROUNDDOWN(8+IF(E91&lt;0,-E91/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(43+IF(E91&lt;0,-E91/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>43</v>
       </c>
       <c r="E92" s="7">
@@ -10386,8 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <f>35</f>
-        <v>35</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -10405,12 +10406,12 @@
         <v>18</v>
       </c>
       <c r="D93" s="7">
-        <f>ROUNDDOWN(3+IF(E92&lt;0,-E92/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <f>ROUNDDOWN(8+IF(E92&lt;0,-E92/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>17</v>
       </c>
       <c r="E93" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>290</v>
@@ -10440,12 +10441,12 @@
         <v>0</v>
       </c>
       <c r="D94" s="7">
-        <f>62+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>62</v>
+        <f>97+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>97</v>
       </c>
       <c r="E94" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-62</v>
+        <v>-97</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>290</v>
@@ -10475,12 +10476,12 @@
         <v>12</v>
       </c>
       <c r="D95" s="7">
-        <f>ROUNDDOWN(41+IF(E94&lt;0,-E94/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>61</v>
+        <f>ROUNDDOWN(49+IF(E94&lt;0,-E94/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>81</v>
       </c>
       <c r="E95" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-49</v>
+        <v>-69</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>290</v>
@@ -10510,12 +10511,12 @@
         <v>27</v>
       </c>
       <c r="D96" s="7">
-        <f>ROUNDDOWN(14+IF(E95&lt;0,-E95/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>30</v>
+        <f>ROUNDDOWN(17+IF(E95&lt;0,-E95/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>40</v>
       </c>
       <c r="E96" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>290</v>
@@ -10650,12 +10651,12 @@
         <v>0</v>
       </c>
       <c r="D100" s="7">
-        <f>0+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>15+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>15</v>
       </c>
       <c r="E100" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>290</v>
@@ -10685,12 +10686,12 @@
         <v>30</v>
       </c>
       <c r="D101" s="7">
-        <f>ROUNDDOWN(32+IF(E100&lt;0,-E100/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>32</v>
+        <f>ROUNDDOWN(35+IF(E100&lt;0,-E100/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>40</v>
       </c>
       <c r="E101" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>290</v>
@@ -10720,12 +10721,12 @@
         <v>54</v>
       </c>
       <c r="D102" s="7">
-        <f>ROUNDDOWN(22+IF(E101&lt;0,-E101/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>22</v>
+        <f>ROUNDDOWN(24+IF(E101&lt;0,-E101/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>27</v>
       </c>
       <c r="E102" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>290</v>
@@ -10860,12 +10861,12 @@
         <v>53</v>
       </c>
       <c r="D106" s="7">
-        <f>39+23+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>52</v>
+        <f>157+23+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>157</v>
       </c>
       <c r="E106" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>1</v>
+        <v>-104</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>290</v>
@@ -10877,8 +10878,8 @@
         <v>0</v>
       </c>
       <c r="I106" s="1">
-        <f>13</f>
-        <v>13</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J106" s="1">
         <f>5+18</f>
@@ -10897,12 +10898,12 @@
         <v>90</v>
       </c>
       <c r="D107" s="7">
-        <f>ROUNDDOWN(72+IF(E106&lt;0,-E106/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>72</v>
+        <f>ROUNDDOWN(105+IF(E106&lt;0,-E106/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>139</v>
       </c>
       <c r="E107" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>18</v>
+        <v>-49</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>290</v>
@@ -10932,12 +10933,12 @@
         <v>136</v>
       </c>
       <c r="D108" s="7">
-        <f>ROUNDDOWN(144+IF(E107&lt;0,-E107/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>144</v>
+        <f>ROUNDDOWN(150+IF(E107&lt;0,-E107/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>166</v>
       </c>
       <c r="E108" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-8</v>
+        <v>-30</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>290</v>
@@ -10967,12 +10968,12 @@
         <v>0</v>
       </c>
       <c r="D109" s="7">
-        <f>1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>27+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>27</v>
       </c>
       <c r="E109" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>290</v>
@@ -11002,12 +11003,12 @@
         <v>18</v>
       </c>
       <c r="D110" s="7">
-        <f>ROUNDDOWN(18+IF(E109&lt;0,-E109/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>18</v>
+        <f>ROUNDDOWN(25+IF(E109&lt;0,-E109/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>34</v>
       </c>
       <c r="E110" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>290</v>
@@ -11037,12 +11038,12 @@
         <v>27</v>
       </c>
       <c r="D111" s="7">
-        <f>ROUNDDOWN(37+IF(E110&lt;0,-E110/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>37</v>
+        <f>ROUNDDOWN(39+IF(E110&lt;0,-E110/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>44</v>
       </c>
       <c r="E111" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>290</v>
@@ -11072,12 +11073,12 @@
         <v>18</v>
       </c>
       <c r="D112" s="7">
-        <f>19+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>42+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>42</v>
       </c>
       <c r="E112" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>286</v>
@@ -11105,12 +11106,12 @@
         <v>9</v>
       </c>
       <c r="D113" s="7">
-        <f>11+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>11</v>
+        <f>34+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>34</v>
       </c>
       <c r="E113" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>287</v>
@@ -11138,12 +11139,12 @@
         <v>0</v>
       </c>
       <c r="D114" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>4+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E114" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>287</v>
@@ -11204,12 +11205,12 @@
         <v>18</v>
       </c>
       <c r="D116" s="7">
-        <f>19+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>27+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>27</v>
       </c>
       <c r="E116" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>286</v>
@@ -11237,12 +11238,12 @@
         <v>0</v>
       </c>
       <c r="D117" s="7">
-        <f>1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>3</v>
       </c>
       <c r="E117" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>288</v>
@@ -11303,12 +11304,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>6+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E119" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>288</v>
@@ -11336,12 +11337,12 @@
         <v>0</v>
       </c>
       <c r="D120" s="7">
-        <f>1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>19+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>19</v>
       </c>
       <c r="E120" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>288</v>
@@ -11369,12 +11370,12 @@
         <v>180</v>
       </c>
       <c r="D121" s="7">
-        <f>ROUNDDOWN(20+18+IF(E112&lt;0,-E112/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <f>ROUNDDOWN(35+18+IF(E112&lt;0,-E112/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>43</v>
       </c>
       <c r="E121" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>286</v>
@@ -11384,11 +11385,11 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" si="2"/>
-        <v>1570</v>
+        <v>1370</v>
       </c>
       <c r="I121" s="1">
-        <f>3</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J121" s="1">
         <f>9+9</f>
@@ -11404,12 +11405,12 @@
         <v>108</v>
       </c>
       <c r="D122" s="7">
-        <f>ROUNDDOWN(19+18+IF(E113&lt;0,-E113/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <f>ROUNDDOWN(16+33+IF(E113&lt;0,-E113/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>24</v>
       </c>
       <c r="E122" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>287</v>
@@ -11419,11 +11420,11 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="I122" s="1">
-        <f>4</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J122" s="1">
         <f>6+18+9</f>
@@ -11439,12 +11440,12 @@
         <v>12</v>
       </c>
       <c r="D123" s="7">
-        <f>ROUNDDOWN(31+39+IF(E114&lt;0,-E114/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>31</v>
+        <f>ROUNDDOWN(37+39+IF(E114&lt;0,-E114/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>38</v>
       </c>
       <c r="E123" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>287</v>
@@ -11473,7 +11474,7 @@
         <v>72</v>
       </c>
       <c r="D124" s="7">
-        <f>ROUNDDOWN(48+IF(E115&lt;0,-E115/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(30+18+IF(E115&lt;0,-E115/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>30</v>
       </c>
       <c r="E124" s="7">
@@ -11507,12 +11508,12 @@
         <v>180</v>
       </c>
       <c r="D125" s="7">
-        <f>ROUNDDOWN(46+14+IF(E116&lt;0,-E116/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>46</v>
+        <f>ROUNDDOWN(48+14+IF(E116&lt;0,-E116/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>51</v>
       </c>
       <c r="E125" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>286</v>
@@ -11522,7 +11523,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" si="2"/>
-        <v>1340</v>
+        <v>1290</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -11538,15 +11539,15 @@
       </c>
       <c r="C126" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B126)-Datos[[#This Row],[Inversión]]</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D126" s="7">
-        <f>ROUNDDOWN(34+18+IF(E117&lt;0,-E117/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <f>ROUNDDOWN(0+54+IF(E117&lt;0,-E117/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E126" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>288</v>
@@ -11556,14 +11557,14 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
       </c>
       <c r="J126" s="1">
-        <f>2+2+2+4*3+6*3+9</f>
-        <v>45</v>
+        <f>2+2+2+4*3+6*3+9+9</f>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
@@ -11575,12 +11576,12 @@
         <v>116</v>
       </c>
       <c r="D127" s="7">
-        <f>ROUNDDOWN(24+IF(E118&lt;0,-E118/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <f>ROUNDDOWN(16+14+IF(E118&lt;0,-E118/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>16</v>
       </c>
       <c r="E127" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>287</v>
@@ -11590,7 +11591,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" si="2"/>
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
@@ -11609,12 +11610,12 @@
         <v>57</v>
       </c>
       <c r="D128" s="7">
-        <f>ROUNDDOWN(43+IF(E119&lt;0,-E119/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>33</v>
+        <f>ROUNDDOWN(44+12+IF(E119&lt;0,-E119/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>46</v>
       </c>
       <c r="E128" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>288</v>
@@ -11624,11 +11625,11 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="I128" s="1">
-        <f>2</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J128" s="1">
         <f>4*3</f>
@@ -11644,12 +11645,12 @@
         <v>0</v>
       </c>
       <c r="D129" s="7">
-        <f>ROUNDDOWN(3+IF(E120&lt;0,-E120/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>ROUNDDOWN(6+IF(E120&lt;0,-E120/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E129" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>288</v>
@@ -11662,8 +11663,8 @@
         <v>0</v>
       </c>
       <c r="I129" s="1">
-        <f>2</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J129" s="1">
         <v>0</v>
@@ -11675,15 +11676,15 @@
       </c>
       <c r="C130" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B130)-Datos[[#This Row],[Inversión]]</f>
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D130" s="7">
-        <f>ROUNDDOWN(2+IF(E121&lt;0,-E121/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(2+4+IF(E121&lt;0,-E121/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E130" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>286</v>
@@ -11693,14 +11694,15 @@
       </c>
       <c r="H130" s="1">
         <f>IF(E130&gt;0,ROUNDUP(G130*E130,0),0)</f>
-        <v>6180</v>
+        <v>6120</v>
       </c>
       <c r="I130" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J130" s="1">
-        <v>0</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
@@ -11712,7 +11714,7 @@
         <v>230</v>
       </c>
       <c r="D131" s="7">
-        <f>ROUNDDOWN(6+4+IF(E122&lt;0,-E122/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(2+8+IF(E122&lt;0,-E122/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>2</v>
       </c>
       <c r="E131" s="7">
@@ -11746,12 +11748,12 @@
         <v>118</v>
       </c>
       <c r="D132" s="7">
-        <f>ROUNDDOWN(32+IF(E123&lt;0,-E123/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>30</v>
+        <f>ROUNDDOWN(18+8+IF(E123&lt;0,-E123/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>26</v>
       </c>
       <c r="E132" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>287</v>
@@ -11761,7 +11763,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" si="3"/>
-        <v>1760</v>
+        <v>1840</v>
       </c>
       <c r="I132" s="1">
         <v>0</v>
@@ -11843,11 +11845,11 @@
       </c>
       <c r="C135" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B135)-Datos[[#This Row],[Inversión]]</f>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D135" s="7">
-        <f>ROUNDDOWN(5+IF(E126&lt;0,-E126/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>ROUNDDOWN(1+4+IF(E126&lt;0,-E126/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>1</v>
       </c>
       <c r="E135" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
@@ -11867,7 +11869,8 @@
         <v>0</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
@@ -11879,12 +11882,12 @@
         <v>278</v>
       </c>
       <c r="D136" s="7">
-        <f>ROUNDDOWN(2+IF(E127&lt;0,-E127/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>ROUNDDOWN(4+IF(E127&lt;0,-E127/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E136" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>287</v>
@@ -11894,7 +11897,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" si="3"/>
-        <v>5520</v>
+        <v>5480</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -11912,12 +11915,12 @@
         <v>90</v>
       </c>
       <c r="D137" s="7">
-        <f>ROUNDDOWN(2+IF(E128&lt;0,-E128/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>ROUNDDOWN(4+IF(E128&lt;0,-E128/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E137" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>288</v>
@@ -11927,7 +11930,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" si="3"/>
-        <v>1760</v>
+        <v>1720</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -11946,11 +11949,11 @@
       </c>
       <c r="D138" s="7">
         <f>ROUNDDOWN(11+IF(E129&lt;0,-E129/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E138" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>288</v>
@@ -11975,11 +11978,11 @@
       </c>
       <c r="C139" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B139)-Datos[[#This Row],[Inversión]]</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D139" s="7">
-        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <f>7+1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E139" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
@@ -11996,11 +11999,12 @@
         <v>560</v>
       </c>
       <c r="I139" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
         <f>1</f>
         <v>1</v>
-      </c>
-      <c r="J139" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
@@ -12012,7 +12016,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="7">
-        <f>5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>8+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>8</v>
       </c>
       <c r="E140" s="7">
@@ -12030,8 +12034,8 @@
         <v>80</v>
       </c>
       <c r="I140" s="1">
-        <f>1+2</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J140" s="1">
         <v>0</v>
@@ -12046,7 +12050,7 @@
         <v>36</v>
       </c>
       <c r="D141" s="7">
-        <f>11+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>13+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>13</v>
       </c>
       <c r="E141" s="7">
@@ -12064,8 +12068,8 @@
         <v>460</v>
       </c>
       <c r="I141" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J141" s="1">
         <v>0</v>
@@ -12080,7 +12084,7 @@
         <v>34</v>
       </c>
       <c r="D142" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>1+2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>1</v>
       </c>
       <c r="E142" s="7">
@@ -12098,8 +12102,8 @@
         <v>660</v>
       </c>
       <c r="I142" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J142" s="1">
         <f>1+1</f>
@@ -12115,7 +12119,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="7">
-        <f>4+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>7</v>
       </c>
       <c r="E143" s="7">
@@ -12133,8 +12137,8 @@
         <v>0</v>
       </c>
       <c r="I143" s="1">
-        <f>2+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J143" s="1">
         <v>0</v>
@@ -12149,7 +12153,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>7</v>
       </c>
       <c r="E144" s="7">
@@ -12167,8 +12171,8 @@
         <v>100</v>
       </c>
       <c r="I144" s="1">
-        <f>1+1+2+1</f>
-        <v>5</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -12183,7 +12187,7 @@
         <v>24</v>
       </c>
       <c r="D145" s="7">
-        <f>0+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>3</v>
       </c>
       <c r="E145" s="7">
@@ -12201,8 +12205,8 @@
         <v>420</v>
       </c>
       <c r="I145" s="1">
-        <f>2+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J145" s="1">
         <v>0</v>
@@ -12217,7 +12221,7 @@
         <v>12</v>
       </c>
       <c r="D146" s="7">
-        <f>4+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>7</v>
       </c>
       <c r="E146" s="7">
@@ -12235,8 +12239,8 @@
         <v>0</v>
       </c>
       <c r="I146" s="1">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J146" s="1">
         <v>0</v>
@@ -12251,7 +12255,7 @@
         <v>12</v>
       </c>
       <c r="D147" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>4+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>4</v>
       </c>
       <c r="E147" s="7">
@@ -12269,8 +12273,8 @@
         <v>160</v>
       </c>
       <c r="I147" s="1">
-        <f>1+1</f>
-        <v>2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J147" s="1">
         <v>0</v>
@@ -12282,11 +12286,11 @@
       </c>
       <c r="C148" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B148)-Datos[[#This Row],[Inversión]]</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="7">
-        <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>4+3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E148" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
@@ -12303,12 +12307,12 @@
         <v>100</v>
       </c>
       <c r="I148" s="1">
-        <f>3+1</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J148" s="1">
-        <f>2</f>
-        <v>2</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
@@ -12320,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="D149" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>5</v>
       </c>
       <c r="E149" s="7">
@@ -12338,8 +12342,8 @@
         <v>0</v>
       </c>
       <c r="I149" s="1">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J149" s="1">
         <v>0</v>
@@ -12354,12 +12358,12 @@
         <v>12</v>
       </c>
       <c r="D150" s="7">
-        <f>1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>5</v>
       </c>
       <c r="E150" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -12369,11 +12373,11 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I150" s="1">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J150" s="1">
         <v>0</v>
@@ -12388,7 +12392,7 @@
         <v>12</v>
       </c>
       <c r="D151" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>3</v>
       </c>
       <c r="E151" s="7">
@@ -12406,8 +12410,8 @@
         <v>180</v>
       </c>
       <c r="I151" s="1">
-        <f>1</f>
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J151" s="1">
         <v>0</v>
@@ -12422,12 +12426,12 @@
         <v>0</v>
       </c>
       <c r="D152" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E152" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
@@ -12440,8 +12444,8 @@
         <v>0</v>
       </c>
       <c r="I152" s="1">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -12453,11 +12457,11 @@
       </c>
       <c r="C153" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B153)-Datos[[#This Row],[Inversión]]</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D153" s="7">
-        <f>0+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>3+1+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>3</v>
       </c>
       <c r="E153" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
@@ -12474,11 +12478,12 @@
         <v>520</v>
       </c>
       <c r="I153" s="1">
-        <f>1+1+2</f>
-        <v>4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J153" s="1">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
@@ -12490,12 +12495,12 @@
         <v>9</v>
       </c>
       <c r="D154" s="7">
-        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <f>8+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>8</v>
       </c>
       <c r="E154" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>289</v>
@@ -12522,7 +12527,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="7">
-        <f>9+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>7+5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>7</v>
       </c>
       <c r="E155" s="7">
@@ -12540,8 +12545,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="1">
-        <f>4+6+2+4+5-20+2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J155" s="1">
         <f>5</f>
@@ -12557,12 +12561,12 @@
         <v>14</v>
       </c>
       <c r="D156" s="7">
-        <f>ROUNDDOWN(14+IF(E155&lt;0,-E155/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>ROUNDDOWN(31+14+IF(E155&lt;0,-E155/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>31</v>
       </c>
       <c r="E156" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-17</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>287</v>
@@ -12575,8 +12579,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="1">
-        <f>4+5+2+4+4</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J156" s="1">
         <f>5+9</f>
@@ -12592,12 +12595,12 @@
         <v>23</v>
       </c>
       <c r="D157" s="7">
-        <f>ROUNDDOWN(2+IF(E156&lt;0,-E156/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>ROUNDDOWN(8+5+IF(E156&lt;0,-E156/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>13</v>
       </c>
       <c r="E157" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>287</v>
@@ -12607,11 +12610,10 @@
       </c>
       <c r="H157" s="1">
         <f>IF(E157&gt;0,ROUNDUP(G157*E157,0),0)</f>
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="I157" s="1">
-        <f>2+1+1+2+1</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J157" s="1">
         <f>5</f>
@@ -12627,7 +12629,7 @@
         <v>16</v>
       </c>
       <c r="D158" s="7">
-        <f>ROUNDDOWN(0+IF(E157&lt;0,-E157/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(1+0+IF(E157&lt;0,-E157/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>1</v>
       </c>
       <c r="E158" s="7">
@@ -12645,8 +12647,7 @@
         <v>300</v>
       </c>
       <c r="I158" s="1">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="1">
         <v>0</v>
@@ -12661,12 +12662,12 @@
         <v>0</v>
       </c>
       <c r="D159" s="7">
-        <f>0+5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <f>9+5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>9</v>
       </c>
       <c r="E159" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>286</v>
@@ -12679,8 +12680,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="1">
-        <f>4+4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J159" s="1">
         <f>5</f>
@@ -12696,12 +12696,12 @@
         <v>15</v>
       </c>
       <c r="D160" s="7">
-        <f>ROUNDDOWN(1+IF(E159&lt;0,-E159/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <f>ROUNDDOWN(13+5+IF(E159&lt;0,-E159/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>16</v>
       </c>
       <c r="E160" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>286</v>
@@ -12711,11 +12711,10 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I160" s="1">
-        <f>3+3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J160" s="1">
         <f>5</f>
@@ -12731,12 +12730,12 @@
         <v>29</v>
       </c>
       <c r="D161" s="7">
-        <f>ROUNDDOWN(0+IF(E160&lt;0,-E160/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(7+IF(E160&lt;0,-E160/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E161" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>286</v>
@@ -12746,11 +12745,10 @@
       </c>
       <c r="H161" s="1">
         <f>IF(E161&gt;0,ROUNDUP(G161*E161,0),0)</f>
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="I161" s="1">
-        <f>1+2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" s="1">
         <v>0</v>
@@ -12765,7 +12763,7 @@
         <v>26</v>
       </c>
       <c r="D162" s="7">
-        <f>ROUNDDOWN(0+IF(E161&lt;0,-E161/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <f>ROUNDDOWN(3+IF(E161&lt;0,-E161/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
         <v>3</v>
       </c>
       <c r="E162" s="7">
@@ -12783,8 +12781,7 @@
         <v>460</v>
       </c>
       <c r="I162" s="1">
-        <f>2+1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J162" s="1">
         <v>0</v>
@@ -12799,12 +12796,12 @@
         <v>0</v>
       </c>
       <c r="D163" s="7">
-        <f>5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <f>24+5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>24</v>
       </c>
       <c r="E163" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-19</v>
+        <v>-24</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>287</v>
@@ -12817,8 +12814,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="1">
-        <f>19</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J163" s="1">
         <f>5</f>
@@ -12834,12 +12830,12 @@
         <v>0</v>
       </c>
       <c r="D164" s="7">
-        <f>ROUNDDOWN(24+IF(E163&lt;0,-E163/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>16</v>
+        <f>ROUNDDOWN(15+14+IF(E163&lt;0,-E163/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>23</v>
       </c>
       <c r="E164" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>287</v>
@@ -12852,7 +12848,6 @@
         <v>0</v>
       </c>
       <c r="I164" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="J164" s="1">
@@ -12869,12 +12864,12 @@
         <v>18</v>
       </c>
       <c r="D165" s="7">
-        <f>ROUNDDOWN(3+IF(E164&lt;0,-E164/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <f>ROUNDDOWN(1+5+IF(E164&lt;0,-E164/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>8</v>
       </c>
       <c r="E165" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>287</v>
@@ -12884,10 +12879,9 @@
       </c>
       <c r="H165" s="1">
         <f>IF(E165&gt;0,ROUNDUP(G165*E165,0),0)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I165" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="J165" s="1">
@@ -13068,12 +13062,12 @@
         <v>5</v>
       </c>
       <c r="D171" s="7">
-        <f>6+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>12+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>12</v>
       </c>
       <c r="E171" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>286</v>
@@ -13101,12 +13095,12 @@
         <v>14</v>
       </c>
       <c r="D172" s="7">
-        <f>ROUNDDOWN(1+IF(E171&lt;0,-E171/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <f>ROUNDDOWN(5+IF(E171&lt;0,-E171/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E172" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>286</v>
@@ -13116,7 +13110,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="I172" s="1">
         <v>0</v>
@@ -13134,12 +13128,12 @@
         <v>14</v>
       </c>
       <c r="D173" s="7">
-        <f>ROUNDDOWN(0+IF(E172&lt;0,-E172/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(2+IF(E172&lt;0,-E172/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>2</v>
       </c>
       <c r="E173" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>286</v>
@@ -13149,7 +13143,7 @@
       </c>
       <c r="H173" s="1">
         <f>IF(E173&gt;0,ROUNDUP(G173*E173,0),0)</f>
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="I173" s="1">
         <v>0</v>
@@ -13200,12 +13194,12 @@
         <v>0</v>
       </c>
       <c r="D175" s="7">
-        <f>2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>3</v>
       </c>
       <c r="E175" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>288</v>
@@ -13234,11 +13228,11 @@
       </c>
       <c r="D176" s="7">
         <f>ROUNDDOWN(2+IF(E175&lt;0,-E175/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>288</v>
@@ -13248,7 +13242,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I176" s="1">
         <v>0</v>
@@ -13332,12 +13326,12 @@
         <v>3</v>
       </c>
       <c r="D179" s="7">
-        <f>6+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>6</v>
+        <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>7</v>
       </c>
       <c r="E179" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>288</v>
@@ -13530,12 +13524,12 @@
         <v>41</v>
       </c>
       <c r="D185" s="7">
-        <f>ROUNDDOWN(0+IF(E184&lt;0,-E184/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>0</v>
+        <f>ROUNDDOWN(4+IF(E184&lt;0,-E184/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>4</v>
       </c>
       <c r="E185" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>288</v>
@@ -13545,7 +13539,7 @@
       </c>
       <c r="H185" s="1">
         <f>IF(E185&gt;0,ROUNDUP(G185*E185,0),0)</f>
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
@@ -13596,12 +13590,12 @@
         <v>0</v>
       </c>
       <c r="D187" s="7">
-        <f>5+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>5</v>
+        <f>6+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>6</v>
       </c>
       <c r="E187" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>286</v>
@@ -13630,11 +13624,11 @@
       </c>
       <c r="D188" s="7">
         <f>ROUNDDOWN(1+IF(E187&lt;0,-E187/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>286</v>
@@ -13644,7 +13638,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I188" s="1">
         <v>0</v>
@@ -13734,7 +13728,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D31 D148 D150:D151 D130 D169 H112 H130 D21 D27 D40 D116 D135 D159 D179 D143 I151 I145 D13 I6 J156" formula="1"/>
+    <ignoredError sqref="D169 H112 H130 J156 D27 D30 D116 D145 D152 D179" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -13891,7 +13885,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>(SUMIFS(Datos[Necesario],Datos[Necesario],"&gt;0",Datos[Días de farmeo],"LMXJVSD",Datos[Resina],0)-9726)/100</f>
-        <v>25.25</v>
+        <v>21.54</v>
       </c>
       <c r="C15" t="s">
         <v>305</v>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E8A71-BDD8-425E-9606-604D6DEAA190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69346B1-5F34-4933-8D30-38E183323B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
@@ -1163,14 +1163,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,7 +1882,7 @@
         <f>804600+37500+(120000+260000+450000)*3</f>
         <v>3332100</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1896,7 +1896,7 @@
       <c r="C4" s="1">
         <v>192</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1906,7 +1906,7 @@
       <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
       <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1936,7 +1936,7 @@
       <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1947,7 +1947,7 @@
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1968,7 +1968,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <f>422200+804600+30000+(37500+120000+260000+450000)*3</f>
         <v>3859300</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2005,7 +2005,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
       <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
       <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
       <c r="C17" s="1">
         <v>32</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
       <c r="C18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,7 +2067,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2099,7 @@
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <f>804600+(37500+120000+260000+450000)*3</f>
         <v>3407100</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2124,7 +2124,7 @@
       <c r="C25" s="1">
         <v>192</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
       <c r="C27" s="1">
         <v>20</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2154,7 +2154,7 @@
       <c r="C28" s="1">
         <v>60</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,7 +2208,7 @@
       <c r="C33" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -2233,7 +2233,7 @@
       <c r="C35" s="1">
         <v>450</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
       <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,7 +2263,7 @@
       <c r="C38" s="1">
         <v>9</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
       <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
       <c r="C40" s="1">
         <v>46</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
       <c r="C41" s="1">
         <v>168</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <f>18+18</f>
         <v>36</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2336,7 +2336,7 @@
       <c r="C45" s="1">
         <v>9</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,7 +2347,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,7 +2368,7 @@
       <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <f>422200+804600+30000*2+(37500+120000+260000+450000)*3</f>
         <v>3889300</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -2394,7 +2394,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,7 +2415,7 @@
       <c r="C52" s="1">
         <v>6</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
       <c r="C53" s="1">
         <v>32</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
       <c r="C54" s="1">
         <v>105</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,7 +2468,7 @@
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,7 +2489,7 @@
       <c r="C59" s="1">
         <v>12</v>
       </c>
-      <c r="D59" s="14"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,7 +2500,7 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -2515,7 +2515,7 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2525,7 +2525,7 @@
       <c r="C62" s="1">
         <v>6</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="12"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
       <c r="C63" s="1">
         <v>9</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="12"/>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
       <c r="C64" s="1">
         <v>6</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
       <c r="C65" s="1">
         <v>44</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="12"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,7 +2565,7 @@
       <c r="C66" s="1">
         <v>155</v>
       </c>
-      <c r="D66" s="14"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <f>30+66</f>
         <v>96</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,7 +2587,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="12"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2598,7 +2598,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="12"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D70" s="14"/>
+      <c r="D70" s="12"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
       <c r="C71" s="1">
         <v>12</v>
       </c>
-      <c r="D71" s="14"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <f>319000+422200+804600+17500+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4330800</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -2645,7 +2645,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D73" s="14"/>
+      <c r="D73" s="12"/>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,7 +2655,7 @@
       <c r="C74" s="1">
         <v>9</v>
       </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
       <c r="C75" s="1">
         <v>6</v>
       </c>
-      <c r="D75" s="14"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,7 +2675,7 @@
       <c r="C76" s="1">
         <v>40</v>
       </c>
-      <c r="D76" s="14"/>
+      <c r="D76" s="12"/>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
       <c r="C77" s="1">
         <v>135</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2696,7 +2696,7 @@
         <f>18+3+19*3</f>
         <v>78</v>
       </c>
-      <c r="D78" s="14"/>
+      <c r="D78" s="12"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2707,7 +2707,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D79" s="14"/>
+      <c r="D79" s="12"/>
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <f>2+19*3</f>
         <v>59</v>
       </c>
-      <c r="D80" s="14"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D81" s="14"/>
+      <c r="D81" s="12"/>
       <c r="E81" s="10"/>
     </row>
     <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
       <c r="C82" s="1">
         <v>12</v>
       </c>
-      <c r="D82" s="14"/>
+      <c r="D82" s="12"/>
       <c r="E82" s="10"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       <c r="C84" s="1">
         <v>450</v>
       </c>
-      <c r="D84" s="14"/>
+      <c r="D84" s="12"/>
       <c r="E84" s="10"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
       <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="14"/>
+      <c r="D85" s="12"/>
       <c r="E85" s="10"/>
     </row>
     <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
       <c r="C86" s="1">
         <v>9</v>
       </c>
-      <c r="D86" s="14"/>
+      <c r="D86" s="12"/>
       <c r="E86" s="10"/>
     </row>
     <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,7 +2794,7 @@
       <c r="C87" s="1">
         <v>9</v>
       </c>
-      <c r="D87" s="14"/>
+      <c r="D87" s="12"/>
       <c r="E87" s="10"/>
     </row>
     <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
       <c r="C88" s="1">
         <v>6</v>
       </c>
-      <c r="D88" s="14"/>
+      <c r="D88" s="12"/>
       <c r="E88" s="10"/>
     </row>
     <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,7 +2815,7 @@
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="D89" s="14"/>
+      <c r="D89" s="12"/>
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
       <c r="C90" s="1">
         <v>168</v>
       </c>
-      <c r="D90" s="14"/>
+      <c r="D90" s="12"/>
       <c r="E90" s="10"/>
     </row>
     <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D91" s="14"/>
+      <c r="D91" s="12"/>
       <c r="E91" s="10"/>
     </row>
     <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2847,7 +2847,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D92" s="14"/>
+      <c r="D92" s="12"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2858,7 +2858,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D93" s="14"/>
+      <c r="D93" s="12"/>
       <c r="E93" s="10"/>
     </row>
     <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,7 @@
       <c r="C94" s="1">
         <v>9</v>
       </c>
-      <c r="D94" s="14"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="10"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,7 +2879,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D95" s="14"/>
+      <c r="D95" s="12"/>
       <c r="E95" s="10"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2890,7 +2890,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D96" s="14"/>
+      <c r="D96" s="12"/>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
       <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="12"/>
       <c r="E97" s="10"/>
     </row>
     <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,10 +2911,10 @@
         <f>319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4365800</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D99" s="14"/>
+      <c r="D99" s="12"/>
       <c r="E99" s="10"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,7 +2936,7 @@
       <c r="C100" s="1">
         <v>9</v>
       </c>
-      <c r="D100" s="14"/>
+      <c r="D100" s="12"/>
       <c r="E100" s="10"/>
     </row>
     <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2946,7 +2946,7 @@
       <c r="C101" s="1">
         <v>6</v>
       </c>
-      <c r="D101" s="14"/>
+      <c r="D101" s="12"/>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,7 +2956,7 @@
       <c r="C102" s="1">
         <v>40</v>
       </c>
-      <c r="D102" s="14"/>
+      <c r="D102" s="12"/>
       <c r="E102" s="10"/>
     </row>
     <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
       <c r="C103" s="1">
         <v>135</v>
       </c>
-      <c r="D103" s="14"/>
+      <c r="D103" s="12"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
         <f>18+22*3</f>
         <v>84</v>
       </c>
-      <c r="D104" s="14"/>
+      <c r="D104" s="12"/>
       <c r="E104" s="10"/>
     </row>
     <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D105" s="14"/>
+      <c r="D105" s="12"/>
       <c r="E105" s="10"/>
     </row>
     <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2999,7 +2999,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D106" s="14"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3010,7 +3010,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D107" s="14"/>
+      <c r="D107" s="12"/>
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
       <c r="C108" s="1">
         <v>12</v>
       </c>
-      <c r="D108" s="14"/>
+      <c r="D108" s="12"/>
       <c r="E108" s="10"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,10 +3031,10 @@
         <f>319000+422200+804600+(30000+37500+120000+260000+450000)*3</f>
         <v>4238300</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E109" s="14" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D110" s="14"/>
+      <c r="D110" s="12"/>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3056,7 +3056,7 @@
       <c r="C111" s="1">
         <v>9</v>
       </c>
-      <c r="D111" s="14"/>
+      <c r="D111" s="12"/>
       <c r="E111" s="10"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
       <c r="C112" s="1">
         <v>6</v>
       </c>
-      <c r="D112" s="14"/>
+      <c r="D112" s="12"/>
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
       <c r="C113" s="1">
         <v>40</v>
       </c>
-      <c r="D113" s="14"/>
+      <c r="D113" s="12"/>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,7 +3086,7 @@
       <c r="C114" s="1">
         <v>135</v>
       </c>
-      <c r="D114" s="14"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3097,7 +3097,7 @@
         <f>18+15*3</f>
         <v>63</v>
       </c>
-      <c r="D115" s="14"/>
+      <c r="D115" s="12"/>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D116" s="14"/>
+      <c r="D116" s="12"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <f>15*3</f>
         <v>45</v>
       </c>
-      <c r="D117" s="14"/>
+      <c r="D117" s="12"/>
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,7 +3130,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D118" s="14"/>
+      <c r="D118" s="12"/>
       <c r="E118" s="10"/>
     </row>
     <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
       <c r="C119" s="1">
         <v>12</v>
       </c>
-      <c r="D119" s="14"/>
+      <c r="D119" s="12"/>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,7 +3151,7 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E120" s="10" t="s">
@@ -3166,7 +3166,7 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D121" s="14"/>
+      <c r="D121" s="12"/>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
       <c r="C122" s="1">
         <v>6</v>
       </c>
-      <c r="D122" s="14"/>
+      <c r="D122" s="12"/>
       <c r="E122" s="10"/>
     </row>
     <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3186,7 +3186,7 @@
       <c r="C123" s="1">
         <v>9</v>
       </c>
-      <c r="D123" s="14"/>
+      <c r="D123" s="12"/>
       <c r="E123" s="10"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
       <c r="C124" s="1">
         <v>6</v>
       </c>
-      <c r="D124" s="14"/>
+      <c r="D124" s="12"/>
       <c r="E124" s="10"/>
     </row>
     <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
       <c r="C125" s="1">
         <v>44</v>
       </c>
-      <c r="D125" s="14"/>
+      <c r="D125" s="12"/>
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3216,7 +3216,7 @@
       <c r="C126" s="1">
         <v>155</v>
       </c>
-      <c r="D126" s="14"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="10"/>
     </row>
     <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3227,7 +3227,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D127" s="14"/>
+      <c r="D127" s="12"/>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D128" s="14"/>
+      <c r="D128" s="12"/>
       <c r="E128" s="10"/>
     </row>
     <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D129" s="14"/>
+      <c r="D129" s="12"/>
       <c r="E129" s="10"/>
     </row>
     <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3260,7 +3260,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D130" s="14"/>
+      <c r="D130" s="12"/>
       <c r="E130" s="10"/>
     </row>
     <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
       <c r="C131" s="1">
         <v>12</v>
       </c>
-      <c r="D131" s="14"/>
+      <c r="D131" s="12"/>
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3281,10 +3281,10 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E132" s="13" t="s">
+      <c r="E132" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       <c r="C133" s="1">
         <v>450</v>
       </c>
-      <c r="D133" s="14"/>
+      <c r="D133" s="12"/>
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,7 +3305,7 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="14"/>
+      <c r="D134" s="12"/>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
       <c r="C135" s="1">
         <v>9</v>
       </c>
-      <c r="D135" s="14"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
       <c r="C136" s="1">
         <v>9</v>
       </c>
-      <c r="D136" s="14"/>
+      <c r="D136" s="12"/>
       <c r="E136" s="10"/>
     </row>
     <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3335,7 +3335,7 @@
       <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="14"/>
+      <c r="D137" s="12"/>
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3345,7 +3345,7 @@
       <c r="C138" s="1">
         <v>46</v>
       </c>
-      <c r="D138" s="14"/>
+      <c r="D138" s="12"/>
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3355,7 +3355,7 @@
       <c r="C139" s="1">
         <v>168</v>
       </c>
-      <c r="D139" s="14"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="10"/>
     </row>
     <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3366,7 +3366,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D140" s="14"/>
+      <c r="D140" s="12"/>
       <c r="E140" s="10"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,7 +3377,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D141" s="14"/>
+      <c r="D141" s="12"/>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D142" s="14"/>
+      <c r="D142" s="12"/>
       <c r="E142" s="10"/>
     </row>
     <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3399,7 +3399,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D143" s="14"/>
+      <c r="D143" s="12"/>
       <c r="E143" s="10"/>
     </row>
     <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,7 +3410,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D144" s="14"/>
+      <c r="D144" s="12"/>
       <c r="E144" s="10"/>
     </row>
     <row r="145" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3421,7 +3421,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D145" s="14"/>
+      <c r="D145" s="12"/>
       <c r="E145" s="10"/>
     </row>
     <row r="146" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3431,7 +3431,7 @@
       <c r="C146" s="1">
         <v>12</v>
       </c>
-      <c r="D146" s="14"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,7 +3442,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="12" t="s">
         <v>104</v>
       </c>
       <c r="E147" s="10" t="s">
@@ -3456,7 +3456,7 @@
       <c r="C148" s="1">
         <v>450</v>
       </c>
-      <c r="D148" s="14"/>
+      <c r="D148" s="12"/>
       <c r="E148" s="10"/>
     </row>
     <row r="149" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
       <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D149" s="14"/>
+      <c r="D149" s="12"/>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,7 +3476,7 @@
       <c r="C150" s="1">
         <v>9</v>
       </c>
-      <c r="D150" s="14"/>
+      <c r="D150" s="12"/>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
       <c r="C151" s="1">
         <v>9</v>
       </c>
-      <c r="D151" s="14"/>
+      <c r="D151" s="12"/>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3496,7 +3496,7 @@
       <c r="C152" s="1">
         <v>6</v>
       </c>
-      <c r="D152" s="14"/>
+      <c r="D152" s="12"/>
       <c r="E152" s="10"/>
     </row>
     <row r="153" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
       <c r="C153" s="1">
         <v>46</v>
       </c>
-      <c r="D153" s="14"/>
+      <c r="D153" s="12"/>
       <c r="E153" s="10"/>
     </row>
     <row r="154" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
       <c r="C154" s="1">
         <v>168</v>
       </c>
-      <c r="D154" s="14"/>
+      <c r="D154" s="12"/>
       <c r="E154" s="10"/>
     </row>
     <row r="155" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3527,7 +3527,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D155" s="14"/>
+      <c r="D155" s="12"/>
       <c r="E155" s="10"/>
     </row>
     <row r="156" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3538,7 +3538,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D156" s="14"/>
+      <c r="D156" s="12"/>
       <c r="E156" s="10"/>
     </row>
     <row r="157" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D157" s="14"/>
+      <c r="D157" s="12"/>
       <c r="E157" s="10"/>
     </row>
     <row r="158" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3560,7 +3560,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D158" s="14"/>
+      <c r="D158" s="12"/>
       <c r="E158" s="10"/>
     </row>
     <row r="159" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,7 +3571,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D159" s="14"/>
+      <c r="D159" s="12"/>
       <c r="E159" s="10"/>
     </row>
     <row r="160" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D160" s="14"/>
+      <c r="D160" s="12"/>
       <c r="E160" s="10"/>
     </row>
     <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
       <c r="C161" s="1">
         <v>12</v>
       </c>
-      <c r="D161" s="14"/>
+      <c r="D161" s="12"/>
       <c r="E161" s="10"/>
     </row>
     <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E162" s="10" t="s">
@@ -3617,7 +3617,7 @@
       <c r="C163" s="1">
         <v>450</v>
       </c>
-      <c r="D163" s="14"/>
+      <c r="D163" s="12"/>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
       <c r="C164" s="1">
         <v>1</v>
       </c>
-      <c r="D164" s="14"/>
+      <c r="D164" s="12"/>
       <c r="E164" s="10"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,7 +3637,7 @@
       <c r="C165" s="1">
         <v>9</v>
       </c>
-      <c r="D165" s="14"/>
+      <c r="D165" s="12"/>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
       <c r="C166" s="1">
         <v>9</v>
       </c>
-      <c r="D166" s="14"/>
+      <c r="D166" s="12"/>
       <c r="E166" s="10"/>
     </row>
     <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
       <c r="C167" s="1">
         <v>6</v>
       </c>
-      <c r="D167" s="14"/>
+      <c r="D167" s="12"/>
       <c r="E167" s="10"/>
     </row>
     <row r="168" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
       <c r="C168" s="1">
         <v>46</v>
       </c>
-      <c r="D168" s="14"/>
+      <c r="D168" s="12"/>
       <c r="E168" s="10"/>
     </row>
     <row r="169" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,7 +3677,7 @@
       <c r="C169" s="1">
         <v>168</v>
       </c>
-      <c r="D169" s="14"/>
+      <c r="D169" s="12"/>
       <c r="E169" s="10"/>
     </row>
     <row r="170" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3688,7 +3688,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D170" s="14"/>
+      <c r="D170" s="12"/>
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D171" s="14"/>
+      <c r="D171" s="12"/>
       <c r="E171" s="10"/>
     </row>
     <row r="172" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D172" s="14"/>
+      <c r="D172" s="12"/>
       <c r="E172" s="10"/>
     </row>
     <row r="173" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D173" s="14"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="10"/>
     </row>
     <row r="174" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D174" s="14"/>
+      <c r="D174" s="12"/>
       <c r="E174" s="10"/>
     </row>
     <row r="175" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D175" s="14"/>
+      <c r="D175" s="12"/>
       <c r="E175" s="10"/>
     </row>
     <row r="176" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
       <c r="C176" s="1">
         <v>12</v>
       </c>
-      <c r="D176" s="14"/>
+      <c r="D176" s="12"/>
       <c r="E176" s="10"/>
     </row>
     <row r="177" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <f>319000+422200+804600+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4313300</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D177" s="12" t="s">
         <v>114</v>
       </c>
       <c r="E177" s="10" t="s">
@@ -3779,7 +3779,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D178" s="14"/>
+      <c r="D178" s="12"/>
       <c r="E178" s="10"/>
     </row>
     <row r="179" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
       <c r="C179" s="1">
         <v>9</v>
       </c>
-      <c r="D179" s="14"/>
+      <c r="D179" s="12"/>
       <c r="E179" s="10"/>
     </row>
     <row r="180" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
       <c r="C180" s="1">
         <v>6</v>
       </c>
-      <c r="D180" s="14"/>
+      <c r="D180" s="12"/>
       <c r="E180" s="10"/>
     </row>
     <row r="181" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
       <c r="C181" s="1">
         <v>40</v>
       </c>
-      <c r="D181" s="14"/>
+      <c r="D181" s="12"/>
       <c r="E181" s="10"/>
     </row>
     <row r="182" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3819,7 +3819,7 @@
       <c r="C182" s="1">
         <v>135</v>
       </c>
-      <c r="D182" s="14"/>
+      <c r="D182" s="12"/>
       <c r="E182" s="10"/>
     </row>
     <row r="183" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <f>18+19*3</f>
         <v>75</v>
       </c>
-      <c r="D183" s="14"/>
+      <c r="D183" s="12"/>
       <c r="E183" s="10"/>
     </row>
     <row r="184" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D184" s="14"/>
+      <c r="D184" s="12"/>
       <c r="E184" s="10"/>
     </row>
     <row r="185" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D185" s="14"/>
+      <c r="D185" s="12"/>
       <c r="E185" s="10"/>
     </row>
     <row r="186" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D186" s="14"/>
+      <c r="D186" s="12"/>
       <c r="E186" s="10"/>
     </row>
     <row r="187" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
       <c r="C187" s="1">
         <v>12</v>
       </c>
-      <c r="D187" s="14"/>
+      <c r="D187" s="12"/>
       <c r="E187" s="10"/>
     </row>
     <row r="188" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3884,10 +3884,10 @@
         <f>422200+804600+(120000+260000+450000)*3</f>
         <v>3716800</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D188" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="E188" s="14" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D189" s="14"/>
+      <c r="D189" s="12"/>
       <c r="E189" s="10"/>
     </row>
     <row r="190" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,7 +3909,7 @@
       <c r="C190" s="1">
         <v>6</v>
       </c>
-      <c r="D190" s="14"/>
+      <c r="D190" s="12"/>
       <c r="E190" s="10"/>
     </row>
     <row r="191" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
       <c r="C191" s="1">
         <v>6</v>
       </c>
-      <c r="D191" s="14"/>
+      <c r="D191" s="12"/>
       <c r="E191" s="10"/>
     </row>
     <row r="192" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
       <c r="C192" s="1">
         <v>32</v>
       </c>
-      <c r="D192" s="14"/>
+      <c r="D192" s="12"/>
       <c r="E192" s="10"/>
     </row>
     <row r="193" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
       <c r="C193" s="1">
         <v>105</v>
       </c>
-      <c r="D193" s="14"/>
+      <c r="D193" s="12"/>
       <c r="E193" s="10"/>
     </row>
     <row r="194" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D194" s="14"/>
+      <c r="D194" s="12"/>
       <c r="E194" s="10"/>
     </row>
     <row r="195" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D195" s="14"/>
+      <c r="D195" s="12"/>
       <c r="E195" s="10"/>
     </row>
     <row r="196" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
       <c r="C196" s="1">
         <v>12</v>
       </c>
-      <c r="D196" s="14"/>
+      <c r="D196" s="12"/>
       <c r="E196" s="10"/>
     </row>
     <row r="197" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D197" s="12" t="s">
         <v>335</v>
       </c>
       <c r="E197" s="10" t="s">
@@ -3996,7 +3996,7 @@
       <c r="C198" s="1">
         <v>450</v>
       </c>
-      <c r="D198" s="14"/>
+      <c r="D198" s="12"/>
       <c r="E198" s="10"/>
     </row>
     <row r="199" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
       <c r="C199" s="1">
         <v>1</v>
       </c>
-      <c r="D199" s="14"/>
+      <c r="D199" s="12"/>
       <c r="E199" s="10"/>
     </row>
     <row r="200" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,7 +4016,7 @@
       <c r="C200" s="1">
         <v>9</v>
       </c>
-      <c r="D200" s="14"/>
+      <c r="D200" s="12"/>
       <c r="E200" s="10"/>
     </row>
     <row r="201" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
       <c r="C201" s="1">
         <v>9</v>
       </c>
-      <c r="D201" s="14"/>
+      <c r="D201" s="12"/>
       <c r="E201" s="10"/>
     </row>
     <row r="202" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4036,7 +4036,7 @@
       <c r="C202" s="1">
         <v>6</v>
       </c>
-      <c r="D202" s="14"/>
+      <c r="D202" s="12"/>
       <c r="E202" s="10"/>
     </row>
     <row r="203" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
       <c r="C203" s="1">
         <v>46</v>
       </c>
-      <c r="D203" s="14"/>
+      <c r="D203" s="12"/>
       <c r="E203" s="10"/>
     </row>
     <row r="204" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,7 +4056,7 @@
       <c r="C204" s="1">
         <v>168</v>
       </c>
-      <c r="D204" s="14"/>
+      <c r="D204" s="12"/>
       <c r="E204" s="10"/>
     </row>
     <row r="205" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4067,7 +4067,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D205" s="14"/>
+      <c r="D205" s="12"/>
       <c r="E205" s="10"/>
     </row>
     <row r="206" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D206" s="14"/>
+      <c r="D206" s="12"/>
       <c r="E206" s="10"/>
     </row>
     <row r="207" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4089,7 +4089,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D207" s="14"/>
+      <c r="D207" s="12"/>
       <c r="E207" s="10"/>
     </row>
     <row r="208" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D208" s="14"/>
+      <c r="D208" s="12"/>
       <c r="E208" s="10"/>
     </row>
     <row r="209" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D209" s="14"/>
+      <c r="D209" s="12"/>
       <c r="E209" s="10"/>
     </row>
     <row r="210" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D210" s="14"/>
+      <c r="D210" s="12"/>
       <c r="E210" s="10"/>
     </row>
     <row r="211" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
       <c r="C211" s="1">
         <v>12</v>
       </c>
-      <c r="D211" s="14"/>
+      <c r="D211" s="12"/>
       <c r="E211" s="10"/>
     </row>
     <row r="212" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <f>30000+(37500+120000+260000+450000+700000)*3+25000+30000+37500*2+(120000+260000+450000+700000)*3+(25000+30000+37500+120000+260000+450000+700000)*3</f>
         <v>14320000</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E212" s="10" t="s">
@@ -4158,7 +4158,7 @@
         <f>6+9*3+4+6+9</f>
         <v>52</v>
       </c>
-      <c r="D213" s="14"/>
+      <c r="D213" s="12"/>
       <c r="E213" s="10"/>
     </row>
     <row r="214" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <f>31*3+31</f>
         <v>124</v>
       </c>
-      <c r="D214" s="14"/>
+      <c r="D214" s="12"/>
       <c r="E214" s="10"/>
     </row>
     <row r="215" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D215" s="14"/>
+      <c r="D215" s="12"/>
       <c r="E215" s="10"/>
     </row>
     <row r="216" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <f>31+31</f>
         <v>62</v>
       </c>
-      <c r="D216" s="14"/>
+      <c r="D216" s="12"/>
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4202,7 +4202,7 @@
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D217" s="14"/>
+      <c r="D217" s="12"/>
       <c r="E217" s="10"/>
     </row>
     <row r="218" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4213,7 +4213,7 @@
         <f>31*3</f>
         <v>93</v>
       </c>
-      <c r="D218" s="14"/>
+      <c r="D218" s="12"/>
       <c r="E218" s="10"/>
     </row>
     <row r="219" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,7 +4224,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D219" s="14"/>
+      <c r="D219" s="12"/>
       <c r="E219" s="10"/>
     </row>
     <row r="220" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,7 +4235,7 @@
         <f>6*3+6</f>
         <v>24</v>
       </c>
-      <c r="D220" s="14"/>
+      <c r="D220" s="12"/>
       <c r="E220" s="10"/>
     </row>
     <row r="221" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <f>9*3+9</f>
         <v>36</v>
       </c>
-      <c r="D221" s="14"/>
+      <c r="D221" s="12"/>
       <c r="E221" s="10"/>
     </row>
     <row r="222" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <f>12*3+12</f>
         <v>48</v>
       </c>
-      <c r="D222" s="14"/>
+      <c r="D222" s="12"/>
       <c r="E222" s="10"/>
     </row>
     <row r="223" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D223" s="14"/>
+      <c r="D223" s="12"/>
       <c r="E223" s="10"/>
     </row>
     <row r="224" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <f>20*3+20</f>
         <v>80</v>
       </c>
-      <c r="D224" s="14"/>
+      <c r="D224" s="12"/>
       <c r="E224" s="10"/>
     </row>
     <row r="225" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4290,7 +4290,7 @@
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D225" s="14"/>
+      <c r="D225" s="12"/>
       <c r="E225" s="10"/>
     </row>
     <row r="226" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4301,7 +4301,7 @@
         <f>12+12</f>
         <v>24</v>
       </c>
-      <c r="D226" s="14"/>
+      <c r="D226" s="12"/>
       <c r="E226" s="10"/>
     </row>
     <row r="227" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D227" s="14"/>
+      <c r="D227" s="12"/>
       <c r="E227" s="10"/>
     </row>
     <row r="228" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4323,7 +4323,7 @@
         <f>20*3</f>
         <v>60</v>
       </c>
-      <c r="D228" s="14"/>
+      <c r="D228" s="12"/>
       <c r="E228" s="10"/>
     </row>
     <row r="229" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D229" s="14"/>
+      <c r="D229" s="12"/>
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4345,7 +4345,7 @@
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D230" s="14"/>
+      <c r="D230" s="12"/>
       <c r="E230" s="10"/>
     </row>
     <row r="231" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4356,7 +4356,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D231" s="14"/>
+      <c r="D231" s="12"/>
       <c r="E231" s="10"/>
     </row>
     <row r="232" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="D232" s="14"/>
+      <c r="D232" s="12"/>
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
         <f>20+20</f>
         <v>40</v>
       </c>
-      <c r="D233" s="14"/>
+      <c r="D233" s="12"/>
       <c r="E233" s="10"/>
     </row>
     <row r="234" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4389,7 +4389,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D234" s="14"/>
+      <c r="D234" s="12"/>
       <c r="E234" s="10"/>
     </row>
     <row r="235" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D235" s="14"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="10"/>
     </row>
     <row r="236" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4411,7 +4411,7 @@
         <f>18+6</f>
         <v>24</v>
       </c>
-      <c r="D236" s="14"/>
+      <c r="D236" s="12"/>
       <c r="E236" s="10"/>
     </row>
     <row r="237" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
       <c r="C237" s="1">
         <v>18</v>
       </c>
-      <c r="D237" s="14"/>
+      <c r="D237" s="12"/>
       <c r="E237" s="10"/>
     </row>
     <row r="238" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
       <c r="C238" s="1">
         <v>9</v>
       </c>
-      <c r="D238" s="14"/>
+      <c r="D238" s="12"/>
       <c r="E238" s="10"/>
     </row>
     <row r="239" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4445,7 +4445,7 @@
       <c r="D239" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E239" s="12" t="s">
+      <c r="E239" s="13" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
       <c r="D244" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E244" s="12" t="s">
+      <c r="E244" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4677,10 +4677,10 @@
         <f>372000+65000</f>
         <v>437000</v>
       </c>
-      <c r="D261" s="13" t="s">
+      <c r="D261" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E261" s="12" t="s">
+      <c r="E261" s="13" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="D266" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E266" s="12" t="s">
+      <c r="E266" s="13" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       <c r="D283" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E283" s="12" t="s">
+      <c r="E283" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       <c r="D307" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E307" s="12" t="s">
+      <c r="E307" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       <c r="D328" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E328" s="12" t="s">
+      <c r="E328" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       <c r="D360" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E360" s="12" t="s">
+      <c r="E360" s="13" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="D406" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E406" s="12" t="s">
+      <c r="E406" s="13" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       <c r="D415" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E415" s="12" t="s">
+      <c r="E415" s="13" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       <c r="D445" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E445" s="12" t="s">
+      <c r="E445" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="D446" s="10"/>
-      <c r="E446" s="12"/>
+      <c r="E446" s="13"/>
     </row>
     <row r="447" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="10"/>
-      <c r="E447" s="12"/>
+      <c r="E447" s="13"/>
     </row>
     <row r="448" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="s">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="10"/>
-      <c r="E448" s="12"/>
+      <c r="E448" s="13"/>
     </row>
     <row r="449" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="1" t="s">
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="10"/>
-      <c r="E449" s="12"/>
+      <c r="E449" s="13"/>
     </row>
     <row r="450" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="s">
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="10"/>
-      <c r="E450" s="12"/>
+      <c r="E450" s="13"/>
     </row>
     <row r="451" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="1" t="s">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="10"/>
-      <c r="E451" s="12"/>
+      <c r="E451" s="13"/>
     </row>
     <row r="452" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="1" t="s">
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="10"/>
-      <c r="E452" s="12"/>
+      <c r="E452" s="13"/>
     </row>
     <row r="453" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="1" t="s">
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="10"/>
-      <c r="E453" s="12"/>
+      <c r="E453" s="13"/>
     </row>
     <row r="454" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="1" t="s">
@@ -6944,6 +6944,74 @@
     <sortCondition ref="G3:G461"/>
   </sortState>
   <mergeCells count="84">
+    <mergeCell ref="D394:D405"/>
+    <mergeCell ref="E394:E405"/>
+    <mergeCell ref="D433:D444"/>
+    <mergeCell ref="E433:E444"/>
+    <mergeCell ref="D445:D453"/>
+    <mergeCell ref="E445:E453"/>
+    <mergeCell ref="D406:D414"/>
+    <mergeCell ref="E406:E414"/>
+    <mergeCell ref="D415:D420"/>
+    <mergeCell ref="E415:E420"/>
+    <mergeCell ref="D421:D432"/>
+    <mergeCell ref="E421:E432"/>
+    <mergeCell ref="D372:D383"/>
+    <mergeCell ref="E372:E383"/>
+    <mergeCell ref="D384:D393"/>
+    <mergeCell ref="E384:E393"/>
+    <mergeCell ref="D360:D371"/>
+    <mergeCell ref="E360:E371"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E120:E131"/>
+    <mergeCell ref="E132:E146"/>
+    <mergeCell ref="E147:E161"/>
+    <mergeCell ref="E162:E176"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="E34:E48"/>
+    <mergeCell ref="E49:E59"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="D147:D161"/>
+    <mergeCell ref="D83:D97"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D120:D131"/>
+    <mergeCell ref="D132:D146"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="D212:D238"/>
+    <mergeCell ref="D162:D176"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D239:D243"/>
+    <mergeCell ref="E239:E243"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="E244:E248"/>
+    <mergeCell ref="D249:D260"/>
+    <mergeCell ref="E249:E260"/>
+    <mergeCell ref="D336:D347"/>
+    <mergeCell ref="E336:E347"/>
+    <mergeCell ref="D348:D359"/>
+    <mergeCell ref="E348:E359"/>
+    <mergeCell ref="D261:D265"/>
+    <mergeCell ref="E261:E265"/>
+    <mergeCell ref="D266:D270"/>
+    <mergeCell ref="E266:E270"/>
+    <mergeCell ref="D271:D282"/>
+    <mergeCell ref="E271:E282"/>
     <mergeCell ref="D462:D473"/>
     <mergeCell ref="E462:E473"/>
     <mergeCell ref="D197:D211"/>
@@ -6960,74 +7028,6 @@
     <mergeCell ref="E319:E327"/>
     <mergeCell ref="D328:D335"/>
     <mergeCell ref="E328:E335"/>
-    <mergeCell ref="D336:D347"/>
-    <mergeCell ref="E336:E347"/>
-    <mergeCell ref="D348:D359"/>
-    <mergeCell ref="E348:E359"/>
-    <mergeCell ref="D261:D265"/>
-    <mergeCell ref="E261:E265"/>
-    <mergeCell ref="D266:D270"/>
-    <mergeCell ref="E266:E270"/>
-    <mergeCell ref="D271:D282"/>
-    <mergeCell ref="E271:E282"/>
-    <mergeCell ref="D239:D243"/>
-    <mergeCell ref="E239:E243"/>
-    <mergeCell ref="D244:D248"/>
-    <mergeCell ref="E244:E248"/>
-    <mergeCell ref="D249:D260"/>
-    <mergeCell ref="E249:E260"/>
-    <mergeCell ref="D212:D238"/>
-    <mergeCell ref="D162:D176"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="D49:D59"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="D147:D161"/>
-    <mergeCell ref="D83:D97"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D120:D131"/>
-    <mergeCell ref="D132:D146"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E23"/>
-    <mergeCell ref="E24:E33"/>
-    <mergeCell ref="E34:E48"/>
-    <mergeCell ref="E49:E59"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E120:E131"/>
-    <mergeCell ref="E132:E146"/>
-    <mergeCell ref="E147:E161"/>
-    <mergeCell ref="E162:E176"/>
-    <mergeCell ref="E177:E187"/>
-    <mergeCell ref="D372:D383"/>
-    <mergeCell ref="E372:E383"/>
-    <mergeCell ref="D384:D393"/>
-    <mergeCell ref="E384:E393"/>
-    <mergeCell ref="D360:D371"/>
-    <mergeCell ref="E360:E371"/>
-    <mergeCell ref="D394:D405"/>
-    <mergeCell ref="E394:E405"/>
-    <mergeCell ref="D433:D444"/>
-    <mergeCell ref="E433:E444"/>
-    <mergeCell ref="D445:D453"/>
-    <mergeCell ref="E445:E453"/>
-    <mergeCell ref="D406:D414"/>
-    <mergeCell ref="E406:E414"/>
-    <mergeCell ref="D415:D420"/>
-    <mergeCell ref="E415:E420"/>
-    <mergeCell ref="D421:D432"/>
-    <mergeCell ref="E421:E432"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7044,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8650,12 +8650,12 @@
         <v>60</v>
       </c>
       <c r="D44" s="7">
-        <f>51+45+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>51</v>
+        <f>79+45+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
+        <v>79</v>
       </c>
       <c r="E44" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>9</v>
+        <v>-19</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>

--- a/Genshin Impact.xlsx
+++ b/Genshin Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marle\Desktop\Giovanni\git\Archivos_publicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69346B1-5F34-4933-8D30-38E183323B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6BFCE6-4910-4898-A010-84CA512B5070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983384-8BAA-40C3-B0EE-05C3381FFA08}"/>
   </bookViews>
@@ -1163,14 +1163,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,7 +1882,7 @@
         <f>804600+37500+(120000+260000+450000)*3</f>
         <v>3332100</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1896,7 +1896,7 @@
       <c r="C4" s="1">
         <v>192</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1906,7 +1906,7 @@
       <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
       <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1936,7 +1936,7 @@
       <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1947,7 +1947,7 @@
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1968,7 +1968,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <f>422200+804600+30000+(37500+120000+260000+450000)*3</f>
         <v>3859300</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2005,7 +2005,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
       <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
       <c r="C16" s="1">
         <v>6</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
       <c r="C17" s="1">
         <v>32</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
       <c r="C18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,7 +2067,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
         <f>6+9*3</f>
         <v>33</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2099,7 @@
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <f>804600+(37500+120000+260000+450000)*3</f>
         <v>3407100</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2124,7 +2124,7 @@
       <c r="C25" s="1">
         <v>192</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
       <c r="C27" s="1">
         <v>20</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2154,7 +2154,7 @@
       <c r="C28" s="1">
         <v>60</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <f>24+19*3</f>
         <v>81</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,7 +2208,7 @@
       <c r="C33" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -2233,7 +2233,7 @@
       <c r="C35" s="1">
         <v>450</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
       <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,7 +2263,7 @@
       <c r="C38" s="1">
         <v>9</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
       <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
       <c r="C40" s="1">
         <v>46</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
       <c r="C41" s="1">
         <v>168</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <f>18+18</f>
         <v>36</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2336,7 +2336,7 @@
       <c r="C45" s="1">
         <v>9</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,7 +2347,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,7 +2368,7 @@
       <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <f>422200+804600+30000*2+(37500+120000+260000+450000)*3</f>
         <v>3889300</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -2394,7 +2394,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,7 +2415,7 @@
       <c r="C52" s="1">
         <v>6</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
       <c r="C53" s="1">
         <v>32</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
       <c r="C54" s="1">
         <v>105</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="10"/>
     </row>
     <row r="55" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,7 +2468,7 @@
         <f>12+9*3</f>
         <v>39</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,7 +2489,7 @@
       <c r="C59" s="1">
         <v>12</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,7 +2500,7 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -2515,7 +2515,7 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2525,7 +2525,7 @@
       <c r="C62" s="1">
         <v>6</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
       <c r="C63" s="1">
         <v>9</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
       <c r="C64" s="1">
         <v>6</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
       <c r="C65" s="1">
         <v>44</v>
       </c>
-      <c r="D65" s="12"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,7 +2565,7 @@
       <c r="C66" s="1">
         <v>155</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <f>30+66</f>
         <v>96</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,7 +2587,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D68" s="12"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2598,7 +2598,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
       <c r="C71" s="1">
         <v>12</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <f>319000+422200+804600+17500+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4330800</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -2645,7 +2645,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,7 +2655,7 @@
       <c r="C74" s="1">
         <v>9</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="10"/>
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
       <c r="C75" s="1">
         <v>6</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="10"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,7 +2675,7 @@
       <c r="C76" s="1">
         <v>40</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
       <c r="C77" s="1">
         <v>135</v>
       </c>
-      <c r="D77" s="12"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2696,7 +2696,7 @@
         <f>18+3+19*3</f>
         <v>78</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2707,7 +2707,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <f>2+19*3</f>
         <v>59</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D81" s="12"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="10"/>
     </row>
     <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
       <c r="C82" s="1">
         <v>12</v>
       </c>
-      <c r="D82" s="12"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="10"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       <c r="C84" s="1">
         <v>450</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="10"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
       <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="12"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="10"/>
     </row>
     <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
       <c r="C86" s="1">
         <v>9</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="10"/>
     </row>
     <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,7 +2794,7 @@
       <c r="C87" s="1">
         <v>9</v>
       </c>
-      <c r="D87" s="12"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="10"/>
     </row>
     <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
       <c r="C88" s="1">
         <v>6</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="10"/>
     </row>
     <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,7 +2815,7 @@
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="D89" s="12"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
       <c r="C90" s="1">
         <v>168</v>
       </c>
-      <c r="D90" s="12"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="10"/>
     </row>
     <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D91" s="12"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="10"/>
     </row>
     <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2847,7 +2847,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D92" s="12"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2858,7 +2858,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D93" s="12"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="10"/>
     </row>
     <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,7 @@
       <c r="C94" s="1">
         <v>9</v>
       </c>
-      <c r="D94" s="12"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="10"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,7 +2879,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D95" s="12"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="10"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2890,7 +2890,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D96" s="12"/>
+      <c r="D96" s="14"/>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
       <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D97" s="12"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="10"/>
     </row>
     <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,10 +2911,10 @@
         <f>319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4365800</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D99" s="12"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="10"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,7 +2936,7 @@
       <c r="C100" s="1">
         <v>9</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="14"/>
       <c r="E100" s="10"/>
     </row>
     <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2946,7 +2946,7 @@
       <c r="C101" s="1">
         <v>6</v>
       </c>
-      <c r="D101" s="12"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,7 +2956,7 @@
       <c r="C102" s="1">
         <v>40</v>
       </c>
-      <c r="D102" s="12"/>
+      <c r="D102" s="14"/>
       <c r="E102" s="10"/>
     </row>
     <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
       <c r="C103" s="1">
         <v>135</v>
       </c>
-      <c r="D103" s="12"/>
+      <c r="D103" s="14"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
         <f>18+22*3</f>
         <v>84</v>
       </c>
-      <c r="D104" s="12"/>
+      <c r="D104" s="14"/>
       <c r="E104" s="10"/>
     </row>
     <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D105" s="12"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="10"/>
     </row>
     <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2999,7 +2999,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D106" s="12"/>
+      <c r="D106" s="14"/>
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3010,7 +3010,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D107" s="12"/>
+      <c r="D107" s="14"/>
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
       <c r="C108" s="1">
         <v>12</v>
       </c>
-      <c r="D108" s="12"/>
+      <c r="D108" s="14"/>
       <c r="E108" s="10"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,10 +3031,10 @@
         <f>319000+422200+804600+(30000+37500+120000+260000+450000)*3</f>
         <v>4238300</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D110" s="12"/>
+      <c r="D110" s="14"/>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3056,7 +3056,7 @@
       <c r="C111" s="1">
         <v>9</v>
       </c>
-      <c r="D111" s="12"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="10"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
       <c r="C112" s="1">
         <v>6</v>
       </c>
-      <c r="D112" s="12"/>
+      <c r="D112" s="14"/>
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
       <c r="C113" s="1">
         <v>40</v>
       </c>
-      <c r="D113" s="12"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,7 +3086,7 @@
       <c r="C114" s="1">
         <v>135</v>
       </c>
-      <c r="D114" s="12"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3097,7 +3097,7 @@
         <f>18+15*3</f>
         <v>63</v>
       </c>
-      <c r="D115" s="12"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D116" s="12"/>
+      <c r="D116" s="14"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <f>15*3</f>
         <v>45</v>
       </c>
-      <c r="D117" s="12"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,7 +3130,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D118" s="12"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="10"/>
     </row>
     <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
       <c r="C119" s="1">
         <v>12</v>
       </c>
-      <c r="D119" s="12"/>
+      <c r="D119" s="14"/>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,7 +3151,7 @@
         <f>230800+319000+422200+804600+(17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4596600</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E120" s="10" t="s">
@@ -3166,7 +3166,7 @@
         <f>43+60+81+192</f>
         <v>376</v>
       </c>
-      <c r="D121" s="12"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
       <c r="C122" s="1">
         <v>6</v>
       </c>
-      <c r="D122" s="12"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="10"/>
     </row>
     <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3186,7 +3186,7 @@
       <c r="C123" s="1">
         <v>9</v>
       </c>
-      <c r="D123" s="12"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="10"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
       <c r="C124" s="1">
         <v>6</v>
       </c>
-      <c r="D124" s="12"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="10"/>
     </row>
     <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
       <c r="C125" s="1">
         <v>44</v>
       </c>
-      <c r="D125" s="12"/>
+      <c r="D125" s="14"/>
       <c r="E125" s="10"/>
     </row>
     <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3216,7 +3216,7 @@
       <c r="C126" s="1">
         <v>155</v>
       </c>
-      <c r="D126" s="12"/>
+      <c r="D126" s="14"/>
       <c r="E126" s="10"/>
     </row>
     <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3227,7 +3227,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D127" s="12"/>
+      <c r="D127" s="14"/>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D128" s="12"/>
+      <c r="D128" s="14"/>
       <c r="E128" s="10"/>
     </row>
     <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D129" s="12"/>
+      <c r="D129" s="14"/>
       <c r="E129" s="10"/>
     </row>
     <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3260,7 +3260,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D130" s="12"/>
+      <c r="D130" s="14"/>
       <c r="E130" s="10"/>
     </row>
     <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
       <c r="C131" s="1">
         <v>12</v>
       </c>
-      <c r="D131" s="12"/>
+      <c r="D131" s="14"/>
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3281,10 +3281,10 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       <c r="C133" s="1">
         <v>450</v>
       </c>
-      <c r="D133" s="12"/>
+      <c r="D133" s="14"/>
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,7 +3305,7 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="12"/>
+      <c r="D134" s="14"/>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
       <c r="C135" s="1">
         <v>9</v>
       </c>
-      <c r="D135" s="12"/>
+      <c r="D135" s="14"/>
       <c r="E135" s="10"/>
     </row>
     <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
       <c r="C136" s="1">
         <v>9</v>
       </c>
-      <c r="D136" s="12"/>
+      <c r="D136" s="14"/>
       <c r="E136" s="10"/>
     </row>
     <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3335,7 +3335,7 @@
       <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="12"/>
+      <c r="D137" s="14"/>
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3345,7 +3345,7 @@
       <c r="C138" s="1">
         <v>46</v>
       </c>
-      <c r="D138" s="12"/>
+      <c r="D138" s="14"/>
       <c r="E138" s="10"/>
     </row>
     <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3355,7 +3355,7 @@
       <c r="C139" s="1">
         <v>168</v>
       </c>
-      <c r="D139" s="12"/>
+      <c r="D139" s="14"/>
       <c r="E139" s="10"/>
     </row>
     <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3366,7 +3366,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D140" s="12"/>
+      <c r="D140" s="14"/>
       <c r="E140" s="10"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,7 +3377,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D141" s="12"/>
+      <c r="D141" s="14"/>
       <c r="E141" s="10"/>
     </row>
     <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D142" s="12"/>
+      <c r="D142" s="14"/>
       <c r="E142" s="10"/>
     </row>
     <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3399,7 +3399,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D143" s="12"/>
+      <c r="D143" s="14"/>
       <c r="E143" s="10"/>
     </row>
     <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,7 +3410,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D144" s="12"/>
+      <c r="D144" s="14"/>
       <c r="E144" s="10"/>
     </row>
     <row r="145" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3421,7 +3421,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D145" s="12"/>
+      <c r="D145" s="14"/>
       <c r="E145" s="10"/>
     </row>
     <row r="146" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3431,7 +3431,7 @@
       <c r="C146" s="1">
         <v>12</v>
       </c>
-      <c r="D146" s="12"/>
+      <c r="D146" s="14"/>
       <c r="E146" s="10"/>
     </row>
     <row r="147" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,7 +3442,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="14" t="s">
         <v>104</v>
       </c>
       <c r="E147" s="10" t="s">
@@ -3456,7 +3456,7 @@
       <c r="C148" s="1">
         <v>450</v>
       </c>
-      <c r="D148" s="12"/>
+      <c r="D148" s="14"/>
       <c r="E148" s="10"/>
     </row>
     <row r="149" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
       <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D149" s="12"/>
+      <c r="D149" s="14"/>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,7 +3476,7 @@
       <c r="C150" s="1">
         <v>9</v>
       </c>
-      <c r="D150" s="12"/>
+      <c r="D150" s="14"/>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
       <c r="C151" s="1">
         <v>9</v>
       </c>
-      <c r="D151" s="12"/>
+      <c r="D151" s="14"/>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3496,7 +3496,7 @@
       <c r="C152" s="1">
         <v>6</v>
       </c>
-      <c r="D152" s="12"/>
+      <c r="D152" s="14"/>
       <c r="E152" s="10"/>
     </row>
     <row r="153" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
       <c r="C153" s="1">
         <v>46</v>
       </c>
-      <c r="D153" s="12"/>
+      <c r="D153" s="14"/>
       <c r="E153" s="10"/>
     </row>
     <row r="154" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3516,7 @@
       <c r="C154" s="1">
         <v>168</v>
       </c>
-      <c r="D154" s="12"/>
+      <c r="D154" s="14"/>
       <c r="E154" s="10"/>
     </row>
     <row r="155" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3527,7 +3527,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D155" s="12"/>
+      <c r="D155" s="14"/>
       <c r="E155" s="10"/>
     </row>
     <row r="156" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3538,7 +3538,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D156" s="12"/>
+      <c r="D156" s="14"/>
       <c r="E156" s="10"/>
     </row>
     <row r="157" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D157" s="12"/>
+      <c r="D157" s="14"/>
       <c r="E157" s="10"/>
     </row>
     <row r="158" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3560,7 +3560,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D158" s="12"/>
+      <c r="D158" s="14"/>
       <c r="E158" s="10"/>
     </row>
     <row r="159" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,7 +3571,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D159" s="12"/>
+      <c r="D159" s="14"/>
       <c r="E159" s="10"/>
     </row>
     <row r="160" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D160" s="12"/>
+      <c r="D160" s="14"/>
       <c r="E160" s="10"/>
     </row>
     <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
       <c r="C161" s="1">
         <v>12</v>
       </c>
-      <c r="D161" s="12"/>
+      <c r="D161" s="14"/>
       <c r="E161" s="10"/>
     </row>
     <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="D162" s="14" t="s">
         <v>109</v>
       </c>
       <c r="E162" s="10" t="s">
@@ -3617,7 +3617,7 @@
       <c r="C163" s="1">
         <v>450</v>
       </c>
-      <c r="D163" s="12"/>
+      <c r="D163" s="14"/>
       <c r="E163" s="10"/>
     </row>
     <row r="164" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
       <c r="C164" s="1">
         <v>1</v>
       </c>
-      <c r="D164" s="12"/>
+      <c r="D164" s="14"/>
       <c r="E164" s="10"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,7 +3637,7 @@
       <c r="C165" s="1">
         <v>9</v>
       </c>
-      <c r="D165" s="12"/>
+      <c r="D165" s="14"/>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
       <c r="C166" s="1">
         <v>9</v>
       </c>
-      <c r="D166" s="12"/>
+      <c r="D166" s="14"/>
       <c r="E166" s="10"/>
     </row>
     <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
       <c r="C167" s="1">
         <v>6</v>
       </c>
-      <c r="D167" s="12"/>
+      <c r="D167" s="14"/>
       <c r="E167" s="10"/>
     </row>
     <row r="168" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
       <c r="C168" s="1">
         <v>46</v>
       </c>
-      <c r="D168" s="12"/>
+      <c r="D168" s="14"/>
       <c r="E168" s="10"/>
     </row>
     <row r="169" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,7 +3677,7 @@
       <c r="C169" s="1">
         <v>168</v>
       </c>
-      <c r="D169" s="12"/>
+      <c r="D169" s="14"/>
       <c r="E169" s="10"/>
     </row>
     <row r="170" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3688,7 +3688,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D170" s="12"/>
+      <c r="D170" s="14"/>
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D171" s="12"/>
+      <c r="D171" s="14"/>
       <c r="E171" s="10"/>
     </row>
     <row r="172" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D172" s="12"/>
+      <c r="D172" s="14"/>
       <c r="E172" s="10"/>
     </row>
     <row r="173" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D173" s="12"/>
+      <c r="D173" s="14"/>
       <c r="E173" s="10"/>
     </row>
     <row r="174" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D174" s="12"/>
+      <c r="D174" s="14"/>
       <c r="E174" s="10"/>
     </row>
     <row r="175" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D175" s="12"/>
+      <c r="D175" s="14"/>
       <c r="E175" s="10"/>
     </row>
     <row r="176" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
       <c r="C176" s="1">
         <v>12</v>
       </c>
-      <c r="D176" s="12"/>
+      <c r="D176" s="14"/>
       <c r="E176" s="10"/>
     </row>
     <row r="177" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <f>319000+422200+804600+(25000+30000+37500+120000+260000+450000)*3</f>
         <v>4313300</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="D177" s="14" t="s">
         <v>114</v>
       </c>
       <c r="E177" s="10" t="s">
@@ -3779,7 +3779,7 @@
         <f>60+81+192</f>
         <v>333</v>
       </c>
-      <c r="D178" s="12"/>
+      <c r="D178" s="14"/>
       <c r="E178" s="10"/>
     </row>
     <row r="179" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
       <c r="C179" s="1">
         <v>9</v>
       </c>
-      <c r="D179" s="12"/>
+      <c r="D179" s="14"/>
       <c r="E179" s="10"/>
     </row>
     <row r="180" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
       <c r="C180" s="1">
         <v>6</v>
       </c>
-      <c r="D180" s="12"/>
+      <c r="D180" s="14"/>
       <c r="E180" s="10"/>
     </row>
     <row r="181" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
       <c r="C181" s="1">
         <v>40</v>
       </c>
-      <c r="D181" s="12"/>
+      <c r="D181" s="14"/>
       <c r="E181" s="10"/>
     </row>
     <row r="182" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3819,7 +3819,7 @@
       <c r="C182" s="1">
         <v>135</v>
       </c>
-      <c r="D182" s="12"/>
+      <c r="D182" s="14"/>
       <c r="E182" s="10"/>
     </row>
     <row r="183" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <f>18+19*3</f>
         <v>75</v>
       </c>
-      <c r="D183" s="12"/>
+      <c r="D183" s="14"/>
       <c r="E183" s="10"/>
     </row>
     <row r="184" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D184" s="12"/>
+      <c r="D184" s="14"/>
       <c r="E184" s="10"/>
     </row>
     <row r="185" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D185" s="12"/>
+      <c r="D185" s="14"/>
       <c r="E185" s="10"/>
     </row>
     <row r="186" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D186" s="12"/>
+      <c r="D186" s="14"/>
       <c r="E186" s="10"/>
     </row>
     <row r="187" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
       <c r="C187" s="1">
         <v>12</v>
       </c>
-      <c r="D187" s="12"/>
+      <c r="D187" s="14"/>
       <c r="E187" s="10"/>
     </row>
     <row r="188" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3884,10 +3884,10 @@
         <f>422200+804600+(120000+260000+450000)*3</f>
         <v>3716800</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D188" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E188" s="14" t="s">
+      <c r="E188" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
         <f>81+192</f>
         <v>273</v>
       </c>
-      <c r="D189" s="12"/>
+      <c r="D189" s="14"/>
       <c r="E189" s="10"/>
     </row>
     <row r="190" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,7 +3909,7 @@
       <c r="C190" s="1">
         <v>6</v>
       </c>
-      <c r="D190" s="12"/>
+      <c r="D190" s="14"/>
       <c r="E190" s="10"/>
     </row>
     <row r="191" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
       <c r="C191" s="1">
         <v>6</v>
       </c>
-      <c r="D191" s="12"/>
+      <c r="D191" s="14"/>
       <c r="E191" s="10"/>
     </row>
     <row r="192" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
       <c r="C192" s="1">
         <v>32</v>
       </c>
-      <c r="D192" s="12"/>
+      <c r="D192" s="14"/>
       <c r="E192" s="10"/>
     </row>
     <row r="193" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
       <c r="C193" s="1">
         <v>105</v>
       </c>
-      <c r="D193" s="12"/>
+      <c r="D193" s="14"/>
       <c r="E193" s="10"/>
     </row>
     <row r="194" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D194" s="12"/>
+      <c r="D194" s="14"/>
       <c r="E194" s="10"/>
     </row>
     <row r="195" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D195" s="12"/>
+      <c r="D195" s="14"/>
       <c r="E195" s="10"/>
     </row>
     <row r="196" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
       <c r="C196" s="1">
         <v>12</v>
       </c>
-      <c r="D196" s="12"/>
+      <c r="D196" s="14"/>
       <c r="E196" s="10"/>
     </row>
     <row r="197" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3982,7 +3982,7 @@
         <f>2092200+(12500+17500+25000+30000+37500+120000+260000+450000)*3</f>
         <v>4949700</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="D197" s="14" t="s">
         <v>335</v>
       </c>
       <c r="E197" s="10" t="s">
@@ -3996,7 +3996,7 @@
       <c r="C198" s="1">
         <v>450</v>
       </c>
-      <c r="D198" s="12"/>
+      <c r="D198" s="14"/>
       <c r="E198" s="10"/>
     </row>
     <row r="199" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4006,7 +4006,7 @@
       <c r="C199" s="1">
         <v>1</v>
       </c>
-      <c r="D199" s="12"/>
+      <c r="D199" s="14"/>
       <c r="E199" s="10"/>
     </row>
     <row r="200" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,7 +4016,7 @@
       <c r="C200" s="1">
         <v>9</v>
       </c>
-      <c r="D200" s="12"/>
+      <c r="D200" s="14"/>
       <c r="E200" s="10"/>
     </row>
     <row r="201" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
       <c r="C201" s="1">
         <v>9</v>
       </c>
-      <c r="D201" s="12"/>
+      <c r="D201" s="14"/>
       <c r="E201" s="10"/>
     </row>
     <row r="202" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4036,7 +4036,7 @@
       <c r="C202" s="1">
         <v>6</v>
       </c>
-      <c r="D202" s="12"/>
+      <c r="D202" s="14"/>
       <c r="E202" s="10"/>
     </row>
     <row r="203" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
       <c r="C203" s="1">
         <v>46</v>
       </c>
-      <c r="D203" s="12"/>
+      <c r="D203" s="14"/>
       <c r="E203" s="10"/>
     </row>
     <row r="204" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,7 +4056,7 @@
       <c r="C204" s="1">
         <v>168</v>
       </c>
-      <c r="D204" s="12"/>
+      <c r="D204" s="14"/>
       <c r="E204" s="10"/>
     </row>
     <row r="205" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4067,7 +4067,7 @@
         <f>18+6*3</f>
         <v>36</v>
       </c>
-      <c r="D205" s="12"/>
+      <c r="D205" s="14"/>
       <c r="E205" s="10"/>
     </row>
     <row r="206" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <f>30+22*3</f>
         <v>96</v>
       </c>
-      <c r="D206" s="12"/>
+      <c r="D206" s="14"/>
       <c r="E206" s="10"/>
     </row>
     <row r="207" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4089,7 +4089,7 @@
         <f>36+19*3</f>
         <v>93</v>
       </c>
-      <c r="D207" s="12"/>
+      <c r="D207" s="14"/>
       <c r="E207" s="10"/>
     </row>
     <row r="208" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <f>3*3</f>
         <v>9</v>
       </c>
-      <c r="D208" s="12"/>
+      <c r="D208" s="14"/>
       <c r="E208" s="10"/>
     </row>
     <row r="209" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="D209" s="12"/>
+      <c r="D209" s="14"/>
       <c r="E209" s="10"/>
     </row>
     <row r="210" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
         <f>22*3</f>
         <v>66</v>
       </c>
-      <c r="D210" s="12"/>
+      <c r="D210" s="14"/>
       <c r="E210" s="10"/>
     </row>
     <row r="211" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
       <c r="C211" s="1">
         <v>12</v>
       </c>
-      <c r="D211" s="12"/>
+      <c r="D211" s="14"/>
       <c r="E211" s="10"/>
     </row>
     <row r="212" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <f>30000+(37500+120000+260000+450000+700000)*3+25000+30000+37500*2+(120000+260000+450000+700000)*3+(25000+30000+37500+120000+260000+450000+700000)*3</f>
         <v>14320000</v>
       </c>
-      <c r="D212" s="12" t="s">
+      <c r="D212" s="14" t="s">
         <v>119</v>
       </c>
       <c r="E212" s="10" t="s">
@@ -4158,7 +4158,7 @@
         <f>6+9*3+4+6+9</f>
         <v>52</v>
       </c>
-      <c r="D213" s="12"/>
+      <c r="D213" s="14"/>
       <c r="E213" s="10"/>
     </row>
     <row r="214" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <f>31*3+31</f>
         <v>124</v>
       </c>
-      <c r="D214" s="12"/>
+      <c r="D214" s="14"/>
       <c r="E214" s="10"/>
     </row>
     <row r="215" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D215" s="12"/>
+      <c r="D215" s="14"/>
       <c r="E215" s="10"/>
     </row>
     <row r="216" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <f>31+31</f>
         <v>62</v>
       </c>
-      <c r="D216" s="12"/>
+      <c r="D216" s="14"/>
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4202,7 +4202,7 @@
         <f>19*3</f>
         <v>57</v>
       </c>
-      <c r="D217" s="12"/>
+      <c r="D217" s="14"/>
       <c r="E217" s="10"/>
     </row>
     <row r="218" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4213,7 +4213,7 @@
         <f>31*3</f>
         <v>93</v>
       </c>
-      <c r="D218" s="12"/>
+      <c r="D218" s="14"/>
       <c r="E218" s="10"/>
     </row>
     <row r="219" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,7 +4224,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D219" s="12"/>
+      <c r="D219" s="14"/>
       <c r="E219" s="10"/>
     </row>
     <row r="220" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,7 +4235,7 @@
         <f>6*3+6</f>
         <v>24</v>
       </c>
-      <c r="D220" s="12"/>
+      <c r="D220" s="14"/>
       <c r="E220" s="10"/>
     </row>
     <row r="221" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <f>9*3+9</f>
         <v>36</v>
       </c>
-      <c r="D221" s="12"/>
+      <c r="D221" s="14"/>
       <c r="E221" s="10"/>
     </row>
     <row r="222" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <f>12*3+12</f>
         <v>48</v>
       </c>
-      <c r="D222" s="12"/>
+      <c r="D222" s="14"/>
       <c r="E222" s="10"/>
     </row>
     <row r="223" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D223" s="12"/>
+      <c r="D223" s="14"/>
       <c r="E223" s="10"/>
     </row>
     <row r="224" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <f>20*3+20</f>
         <v>80</v>
       </c>
-      <c r="D224" s="12"/>
+      <c r="D224" s="14"/>
       <c r="E224" s="10"/>
     </row>
     <row r="225" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4290,7 +4290,7 @@
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D225" s="12"/>
+      <c r="D225" s="14"/>
       <c r="E225" s="10"/>
     </row>
     <row r="226" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4301,7 +4301,7 @@
         <f>12+12</f>
         <v>24</v>
       </c>
-      <c r="D226" s="12"/>
+      <c r="D226" s="14"/>
       <c r="E226" s="10"/>
     </row>
     <row r="227" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
         <f>4*3</f>
         <v>12</v>
       </c>
-      <c r="D227" s="12"/>
+      <c r="D227" s="14"/>
       <c r="E227" s="10"/>
     </row>
     <row r="228" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4323,7 +4323,7 @@
         <f>20*3</f>
         <v>60</v>
       </c>
-      <c r="D228" s="12"/>
+      <c r="D228" s="14"/>
       <c r="E228" s="10"/>
     </row>
     <row r="229" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D229" s="12"/>
+      <c r="D229" s="14"/>
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4345,7 +4345,7 @@
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="D230" s="12"/>
+      <c r="D230" s="14"/>
       <c r="E230" s="10"/>
     </row>
     <row r="231" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4356,7 +4356,7 @@
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="D231" s="12"/>
+      <c r="D231" s="14"/>
       <c r="E231" s="10"/>
     </row>
     <row r="232" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="D232" s="12"/>
+      <c r="D232" s="14"/>
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
         <f>20+20</f>
         <v>40</v>
       </c>
-      <c r="D233" s="12"/>
+      <c r="D233" s="14"/>
       <c r="E233" s="10"/>
     </row>
     <row r="234" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4389,7 +4389,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D234" s="12"/>
+      <c r="D234" s="14"/>
       <c r="E234" s="10"/>
     </row>
     <row r="235" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="D235" s="12"/>
+      <c r="D235" s="14"/>
       <c r="E235" s="10"/>
     </row>
     <row r="236" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4411,7 +4411,7 @@
         <f>18+6</f>
         <v>24</v>
       </c>
-      <c r="D236" s="12"/>
+      <c r="D236" s="14"/>
       <c r="E236" s="10"/>
     </row>
     <row r="237" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
       <c r="C237" s="1">
         <v>18</v>
       </c>
-      <c r="D237" s="12"/>
+      <c r="D237" s="14"/>
       <c r="E237" s="10"/>
     </row>
     <row r="238" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
       <c r="C238" s="1">
         <v>9</v>
       </c>
-      <c r="D238" s="12"/>
+      <c r="D238" s="14"/>
       <c r="E238" s="10"/>
     </row>
     <row r="239" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4445,7 +4445,7 @@
       <c r="D239" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E239" s="13" t="s">
+      <c r="E239" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
       <c r="D244" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E244" s="13" t="s">
+      <c r="E244" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4677,10 +4677,10 @@
         <f>372000+65000</f>
         <v>437000</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D261" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E261" s="13" t="s">
+      <c r="E261" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="D266" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E266" s="13" t="s">
+      <c r="E266" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       <c r="D283" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E283" s="13" t="s">
+      <c r="E283" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       <c r="D307" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E307" s="13" t="s">
+      <c r="E307" s="12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       <c r="D328" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E328" s="13" t="s">
+      <c r="E328" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       <c r="D360" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E360" s="13" t="s">
+      <c r="E360" s="12" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="D406" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E406" s="13" t="s">
+      <c r="E406" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       <c r="D415" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E415" s="13" t="s">
+      <c r="E415" s="12" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       <c r="D445" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E445" s="13" t="s">
+      <c r="E445" s="12" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="D446" s="10"/>
-      <c r="E446" s="13"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="10"/>
-      <c r="E447" s="13"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="s">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="10"/>
-      <c r="E448" s="13"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="1" t="s">
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="10"/>
-      <c r="E449" s="13"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="1" t="s">
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="10"/>
-      <c r="E450" s="13"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="1" t="s">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="10"/>
-      <c r="E451" s="13"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="1" t="s">
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="10"/>
-      <c r="E452" s="13"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="1" t="s">
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="10"/>
-      <c r="E453" s="13"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="1" t="s">
@@ -6944,74 +6944,6 @@
     <sortCondition ref="G3:G461"/>
   </sortState>
   <mergeCells count="84">
-    <mergeCell ref="D394:D405"/>
-    <mergeCell ref="E394:E405"/>
-    <mergeCell ref="D433:D444"/>
-    <mergeCell ref="E433:E444"/>
-    <mergeCell ref="D445:D453"/>
-    <mergeCell ref="E445:E453"/>
-    <mergeCell ref="D406:D414"/>
-    <mergeCell ref="E406:E414"/>
-    <mergeCell ref="D415:D420"/>
-    <mergeCell ref="E415:E420"/>
-    <mergeCell ref="D421:D432"/>
-    <mergeCell ref="E421:E432"/>
-    <mergeCell ref="D372:D383"/>
-    <mergeCell ref="E372:E383"/>
-    <mergeCell ref="D384:D393"/>
-    <mergeCell ref="E384:E393"/>
-    <mergeCell ref="D360:D371"/>
-    <mergeCell ref="E360:E371"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="E212:E238"/>
-    <mergeCell ref="E120:E131"/>
-    <mergeCell ref="E132:E146"/>
-    <mergeCell ref="E147:E161"/>
-    <mergeCell ref="E162:E176"/>
-    <mergeCell ref="E177:E187"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="E109:E119"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E23"/>
-    <mergeCell ref="E24:E33"/>
-    <mergeCell ref="E34:E48"/>
-    <mergeCell ref="E49:E59"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="D147:D161"/>
-    <mergeCell ref="D83:D97"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="D109:D119"/>
-    <mergeCell ref="D120:D131"/>
-    <mergeCell ref="D132:D146"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D24:D33"/>
-    <mergeCell ref="D34:D48"/>
-    <mergeCell ref="D49:D59"/>
-    <mergeCell ref="D212:D238"/>
-    <mergeCell ref="D162:D176"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="D239:D243"/>
-    <mergeCell ref="E239:E243"/>
-    <mergeCell ref="D244:D248"/>
-    <mergeCell ref="E244:E248"/>
-    <mergeCell ref="D249:D260"/>
-    <mergeCell ref="E249:E260"/>
-    <mergeCell ref="D336:D347"/>
-    <mergeCell ref="E336:E347"/>
-    <mergeCell ref="D348:D359"/>
-    <mergeCell ref="E348:E359"/>
-    <mergeCell ref="D261:D265"/>
-    <mergeCell ref="E261:E265"/>
-    <mergeCell ref="D266:D270"/>
-    <mergeCell ref="E266:E270"/>
-    <mergeCell ref="D271:D282"/>
-    <mergeCell ref="E271:E282"/>
     <mergeCell ref="D462:D473"/>
     <mergeCell ref="E462:E473"/>
     <mergeCell ref="D197:D211"/>
@@ -7028,6 +6960,74 @@
     <mergeCell ref="E319:E327"/>
     <mergeCell ref="D328:D335"/>
     <mergeCell ref="E328:E335"/>
+    <mergeCell ref="D336:D347"/>
+    <mergeCell ref="E336:E347"/>
+    <mergeCell ref="D348:D359"/>
+    <mergeCell ref="E348:E359"/>
+    <mergeCell ref="D261:D265"/>
+    <mergeCell ref="E261:E265"/>
+    <mergeCell ref="D266:D270"/>
+    <mergeCell ref="E266:E270"/>
+    <mergeCell ref="D271:D282"/>
+    <mergeCell ref="E271:E282"/>
+    <mergeCell ref="D239:D243"/>
+    <mergeCell ref="E239:E243"/>
+    <mergeCell ref="D244:D248"/>
+    <mergeCell ref="E244:E248"/>
+    <mergeCell ref="D249:D260"/>
+    <mergeCell ref="E249:E260"/>
+    <mergeCell ref="D212:D238"/>
+    <mergeCell ref="D162:D176"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="D34:D48"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="D147:D161"/>
+    <mergeCell ref="D83:D97"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="D109:D119"/>
+    <mergeCell ref="D120:D131"/>
+    <mergeCell ref="D132:D146"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="E24:E33"/>
+    <mergeCell ref="E34:E48"/>
+    <mergeCell ref="E49:E59"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="E109:E119"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E212:E238"/>
+    <mergeCell ref="E120:E131"/>
+    <mergeCell ref="E132:E146"/>
+    <mergeCell ref="E147:E161"/>
+    <mergeCell ref="E162:E176"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="D372:D383"/>
+    <mergeCell ref="E372:E383"/>
+    <mergeCell ref="D384:D393"/>
+    <mergeCell ref="E384:E393"/>
+    <mergeCell ref="D360:D371"/>
+    <mergeCell ref="E360:E371"/>
+    <mergeCell ref="D394:D405"/>
+    <mergeCell ref="E394:E405"/>
+    <mergeCell ref="D433:D444"/>
+    <mergeCell ref="E433:E444"/>
+    <mergeCell ref="D445:D453"/>
+    <mergeCell ref="E445:E453"/>
+    <mergeCell ref="D406:D414"/>
+    <mergeCell ref="E406:E414"/>
+    <mergeCell ref="D415:D420"/>
+    <mergeCell ref="E415:E420"/>
+    <mergeCell ref="D421:D432"/>
+    <mergeCell ref="E421:E432"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7044,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B74ACF-B317-4A68-AB9B-F933E3C52E19}">
   <dimension ref="B2:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(Datos[Resina total])</f>
-        <v>110300</v>
+        <v>110134</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -7112,15 +7112,15 @@
       </c>
       <c r="C3" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B3)+5000000-Datos[[#This Row],[Inversión]]</f>
-        <v>103930940</v>
+        <v>103855940</v>
       </c>
       <c r="D3" s="7">
         <f>11383653+5407260+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>11383653</v>
+        <v>11324853</v>
       </c>
       <c r="E3" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>92547287</v>
+        <v>92531087</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>290</v>
@@ -7130,15 +7130,15 @@
       </c>
       <c r="H3" s="1">
         <f>IF(E3&gt;0,ROUNDUP(G3*E3/60000,0),0)</f>
-        <v>30850</v>
+        <v>30844</v>
       </c>
       <c r="I3" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>8100*2</f>
+        <v>16200</v>
       </c>
       <c r="J3" s="1">
-        <f>5407260</f>
-        <v>5407260</v>
+        <f>5407260+37500*2</f>
+        <v>5482260</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>226</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>DATEDIF(0,ROUNDUP(N2/160,0),"y") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"y")=1," año "," años ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"ym") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"ym")=1," mes y ", " meses y ") &amp; DATEDIF(0,ROUNDUP(N2/160,0),"md") &amp; IF(DATEDIF(0,ROUNDUP(N2/160,0),"md")=1," día", " días")</f>
-        <v>1 año 10 meses y 20 días</v>
+        <v>1 año 10 meses y 19 días</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -7431,11 +7431,11 @@
       </c>
       <c r="D11" s="7">
         <f>12+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>290</v>
@@ -7448,8 +7448,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7468,11 +7468,11 @@
       </c>
       <c r="D12" s="7">
         <f>13+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>290</v>
@@ -7485,8 +7485,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -7579,11 +7579,11 @@
       </c>
       <c r="D15" s="7">
         <f>19+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>290</v>
@@ -7596,8 +7596,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -7616,11 +7616,11 @@
       </c>
       <c r="D16" s="7">
         <f>ROUNDDOWN(27+IF(E10&lt;0,-E10/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>290</v>
@@ -7633,8 +7633,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7653,11 +7653,11 @@
       </c>
       <c r="D17" s="7">
         <f>ROUNDDOWN(11+IF(E11&lt;0,-E11/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>290</v>
@@ -7690,11 +7690,11 @@
       </c>
       <c r="D18" s="7">
         <f>ROUNDDOWN(15+9+IF(E12&lt;0,-E12/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>290</v>
@@ -7728,11 +7728,11 @@
       </c>
       <c r="D19" s="7">
         <f>ROUNDDOWN(15+12+IF(E13&lt;0,-E13/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>290</v>
@@ -7745,8 +7745,8 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <f>6+6</f>
@@ -7803,11 +7803,11 @@
       </c>
       <c r="D21" s="7">
         <f>ROUNDDOWN(20+IF(E15&lt;0,-E15/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>290</v>
@@ -7820,8 +7820,8 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -7878,11 +7878,11 @@
       </c>
       <c r="D23" s="7">
         <f>ROUNDDOWN(11+6+IF(E17&lt;0,-E17/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>290</v>
@@ -7952,11 +7952,11 @@
       </c>
       <c r="D25" s="7">
         <f>ROUNDDOWN(1+12+IF(E19&lt;0,-E19/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>290</v>
@@ -7966,11 +7966,11 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="I25" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <f>6+6</f>
@@ -8026,11 +8026,11 @@
       </c>
       <c r="D27" s="7">
         <f>ROUNDDOWN(23+IF(E21&lt;0,-E21/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>290</v>
@@ -9400,11 +9400,11 @@
       </c>
       <c r="C65" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B65)-Datos[[#This Row],[Inversión]]</f>
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D65" s="7">
         <f>ROUNDDOWN(204+9+IF(E64&lt;0,-E64/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E65" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
@@ -9423,8 +9423,8 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f>9</f>
-        <v>9</v>
+        <f>9+9*2</f>
+        <v>27</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>242</v>
@@ -11367,11 +11367,11 @@
       </c>
       <c r="C121" s="7">
         <f>SUMIFS(PJ_Armas[Cantidad],PJ_Armas[Material],B121)-Datos[[#This Row],[Inversión]]</f>
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D121" s="7">
         <f>ROUNDDOWN(35+18+IF(E112&lt;0,-E112/3,0),0)+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E121" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
@@ -11392,8 +11392,8 @@
         <v>0</v>
       </c>
       <c r="J121" s="1">
-        <f>9+9</f>
-        <v>18</v>
+        <f>9+9+9*2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
@@ -12085,11 +12085,11 @@
       </c>
       <c r="D142" s="7">
         <f>1+2+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -12099,11 +12099,11 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" si="3"/>
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="I142" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J142" s="1">
         <f>1+1</f>
@@ -12154,11 +12154,11 @@
       </c>
       <c r="D144" s="7">
         <f>7+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E144" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -12168,11 +12168,11 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I144" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -12188,11 +12188,11 @@
       </c>
       <c r="D145" s="7">
         <f>3+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -12202,11 +12202,11 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" si="3"/>
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="I145" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J145" s="1">
         <v>0</v>
@@ -12256,11 +12256,11 @@
       </c>
       <c r="D147" s="7">
         <f>4+Datos[[#This Row],[Farmeo]]-Datos[[#This Row],[Inversión]]</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E147" s="7">
         <f>Datos[[#This Row],[Cantidad]]-Datos[[#This Row],[Inventario]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -12270,11 +12270,11 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I147" s="1">
-        <f>0</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="J147" s="1">
         <v>0</v>
